--- a/AFL_ML/Data/Fremantle_stats.xlsx
+++ b/AFL_ML/Data/Fremantle_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JQ102"/>
+  <dimension ref="A1:JR102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IA19" activeCellId="0" sqref="IA19"/>
@@ -1288,8 +1288,11 @@
       <c r="JP1" s="1" t="n">
         <v>10747</v>
       </c>
-      <c r="JQ1" t="n">
+      <c r="JQ1" s="1" t="n">
         <v>10747</v>
+      </c>
+      <c r="JR1" t="n">
+        <v>10759</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2123,8 +2126,11 @@
       <c r="JP2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="JQ2" t="n">
+      <c r="JQ2" s="1" t="n">
         <v>2022</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>2023</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="2">
@@ -2958,8 +2964,11 @@
       <c r="JP3" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="JQ3" t="n">
+      <c r="JQ3" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3793,7 +3802,10 @@
       <c r="JP4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JQ4" t="n">
+      <c r="JQ4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4628,7 +4640,10 @@
       <c r="JP5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JQ5" t="n">
+      <c r="JQ5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5463,8 +5478,11 @@
       <c r="JP6" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="JQ6" t="n">
+      <c r="JQ6" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="JR6" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6298,8 +6316,11 @@
       <c r="JP7" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="JQ7" t="n">
+      <c r="JQ7" s="1" t="n">
         <v>79</v>
+      </c>
+      <c r="JR7" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7133,8 +7154,11 @@
       <c r="JP8" s="1" t="n">
         <v>-20</v>
       </c>
-      <c r="JQ8" t="n">
+      <c r="JQ8" s="1" t="n">
         <v>-20</v>
+      </c>
+      <c r="JR8" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7968,7 +7992,10 @@
       <c r="JP9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JQ9" t="n">
+      <c r="JQ9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8803,8 +8830,11 @@
       <c r="JP10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JQ10" t="n">
+      <c r="JQ10" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JR10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -9638,8 +9668,11 @@
       <c r="JP11" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="JQ11" t="n">
+      <c r="JQ11" s="1" t="n">
         <v>216</v>
+      </c>
+      <c r="JR11" t="n">
+        <v>258</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10473,8 +10506,11 @@
       <c r="JP12" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="JQ12" t="n">
+      <c r="JQ12" s="1" t="n">
         <v>148</v>
+      </c>
+      <c r="JR12" t="n">
+        <v>179</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11308,8 +11344,11 @@
       <c r="JP13" s="1" t="n">
         <v>364</v>
       </c>
-      <c r="JQ13" t="n">
+      <c r="JQ13" s="1" t="n">
         <v>364</v>
+      </c>
+      <c r="JR13" t="n">
+        <v>437</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12143,8 +12182,11 @@
       <c r="JP14" s="1" t="n">
         <v>1.46</v>
       </c>
-      <c r="JQ14" t="n">
+      <c r="JQ14" s="1" t="n">
         <v>1.46</v>
+      </c>
+      <c r="JR14" t="n">
+        <v>1.44</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -12978,8 +13020,11 @@
       <c r="JP15" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="JQ15" t="n">
+      <c r="JQ15" s="1" t="n">
         <v>81</v>
+      </c>
+      <c r="JR15" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -13813,8 +13858,11 @@
       <c r="JP16" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="JQ16" t="n">
+      <c r="JQ16" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="JR16" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -14648,8 +14696,11 @@
       <c r="JP17" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="JQ17" t="n">
+      <c r="JQ17" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="JR17" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -15483,8 +15534,11 @@
       <c r="JP18" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="JQ18" t="n">
+      <c r="JQ18" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="JR18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -16318,8 +16372,11 @@
       <c r="JP19" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="JQ19" t="n">
+      <c r="JQ19" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="JR19" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -17153,8 +17210,11 @@
       <c r="JP20" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JQ20" t="n">
+      <c r="JQ20" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JR20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -17988,8 +18048,11 @@
       <c r="JP21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JQ21" t="n">
+      <c r="JQ21" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JR21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -18823,8 +18886,11 @@
       <c r="JP22" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JQ22" t="n">
+      <c r="JQ22" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="JR22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -19658,7 +19724,10 @@
       <c r="JP23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JQ23" t="n">
+      <c r="JQ23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JR23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20493,8 +20562,11 @@
       <c r="JP24" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="JQ24" t="n">
+      <c r="JQ24" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="JR24" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -21328,8 +21400,11 @@
       <c r="JP25" s="1" t="n">
         <v>64.3</v>
       </c>
-      <c r="JQ25" t="n">
+      <c r="JQ25" s="1" t="n">
         <v>64.3</v>
+      </c>
+      <c r="JR25" t="n">
+        <v>41.2</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -22163,8 +22238,11 @@
       <c r="JP26" s="1" t="n">
         <v>40.44</v>
       </c>
-      <c r="JQ26" t="n">
+      <c r="JQ26" s="1" t="n">
         <v>40.44</v>
+      </c>
+      <c r="JR26" t="n">
+        <v>62.43</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -22998,8 +23076,11 @@
       <c r="JP27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="JQ27" t="n">
+      <c r="JQ27" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="JR27" t="n">
+        <v>25.71</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -23833,8 +23914,11 @@
       <c r="JP28" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="JQ28" t="n">
+      <c r="JQ28" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="JR28" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -24668,8 +24752,11 @@
       <c r="JP29" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="JQ29" t="n">
+      <c r="JQ29" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="JR29" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -25503,8 +25590,11 @@
       <c r="JP30" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="JQ30" t="n">
+      <c r="JQ30" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="JR30" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -26338,8 +26428,11 @@
       <c r="JP31" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="JQ31" t="n">
+      <c r="JQ31" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="JR31" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -27173,8 +27266,11 @@
       <c r="JP32" s="1" t="n">
         <v>3.07</v>
       </c>
-      <c r="JQ32" t="n">
+      <c r="JQ32" s="1" t="n">
         <v>3.07</v>
+      </c>
+      <c r="JR32" t="n">
+        <v>3.82</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -28008,8 +28104,11 @@
       <c r="JP33" s="1" t="n">
         <v>4.78</v>
       </c>
-      <c r="JQ33" t="n">
+      <c r="JQ33" s="1" t="n">
         <v>4.78</v>
+      </c>
+      <c r="JR33" t="n">
+        <v>9.289999999999999</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -28843,8 +28942,11 @@
       <c r="JP34" s="1" t="n">
         <v>27.9</v>
       </c>
-      <c r="JQ34" t="n">
+      <c r="JQ34" s="1" t="n">
         <v>27.9</v>
+      </c>
+      <c r="JR34" t="n">
+        <v>23.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -29678,8 +29780,11 @@
       <c r="JP35" s="1" t="n">
         <v>20.9</v>
       </c>
-      <c r="JQ35" t="n">
+      <c r="JQ35" s="1" t="n">
         <v>20.9</v>
+      </c>
+      <c r="JR35" t="n">
+        <v>10.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -30513,8 +30618,11 @@
       <c r="JP36" s="1" t="n">
         <v>188.9</v>
       </c>
-      <c r="JQ36" t="n">
+      <c r="JQ36" s="1" t="n">
         <v>188.9</v>
+      </c>
+      <c r="JR36" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -31348,8 +31456,11 @@
       <c r="JP37" s="1" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="JQ37" t="n">
+      <c r="JQ37" s="1" t="n">
         <v>87.40000000000001</v>
+      </c>
+      <c r="JR37" t="n">
+        <v>88.8</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -32183,8 +32294,11 @@
       <c r="JP38" s="1" t="n">
         <v>24.66</v>
       </c>
-      <c r="JQ38" t="n">
+      <c r="JQ38" s="1" t="n">
         <v>24.66</v>
+      </c>
+      <c r="JR38" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -33018,8 +33132,11 @@
       <c r="JP39" s="1" t="n">
         <v>86.2</v>
       </c>
-      <c r="JQ39" t="n">
+      <c r="JQ39" s="1" t="n">
         <v>86.2</v>
+      </c>
+      <c r="JR39" t="n">
+        <v>80.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -33853,8 +33970,11 @@
       <c r="JP40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JQ40" t="n">
+      <c r="JQ40" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JR40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -34688,8 +34808,11 @@
       <c r="JP41" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JQ41" t="n">
+      <c r="JQ41" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JR41" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -35523,7 +35646,10 @@
       <c r="JP42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JQ42" t="n">
+      <c r="JQ42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JR42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -36358,7 +36484,10 @@
       <c r="JP43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JQ43" t="n">
+      <c r="JQ43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JR43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -37193,8 +37322,11 @@
       <c r="JP44" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="JQ44" t="n">
+      <c r="JQ44" s="1" t="n">
         <v>151</v>
+      </c>
+      <c r="JR44" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -38028,8 +38160,11 @@
       <c r="JP45" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="JQ45" t="n">
+      <c r="JQ45" s="1" t="n">
         <v>206</v>
+      </c>
+      <c r="JR45" t="n">
+        <v>284</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -38863,8 +38998,11 @@
       <c r="JP46" s="1" t="n">
         <v>266</v>
       </c>
-      <c r="JQ46" t="n">
+      <c r="JQ46" s="1" t="n">
         <v>266</v>
+      </c>
+      <c r="JR46" t="n">
+        <v>334</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -39698,8 +39836,11 @@
       <c r="JP47" s="1" t="n">
         <v>73.09999999999999</v>
       </c>
-      <c r="JQ47" t="n">
+      <c r="JQ47" s="1" t="n">
         <v>73.09999999999999</v>
+      </c>
+      <c r="JR47" t="n">
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -40533,8 +40674,11 @@
       <c r="JP48" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="JQ48" t="n">
+      <c r="JQ48" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="JR48" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -41368,8 +41512,11 @@
       <c r="JP49" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JQ49" t="n">
+      <c r="JQ49" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JR49" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -42203,8 +42350,11 @@
       <c r="JP50" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JQ50" t="n">
+      <c r="JQ50" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JR50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -43038,8 +43188,11 @@
       <c r="JP51" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="JQ51" t="n">
+      <c r="JQ51" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="JR51" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -43873,8 +44026,11 @@
       <c r="JP52" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="JQ52" t="n">
+      <c r="JQ52" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="JR52" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -44708,8 +44864,11 @@
       <c r="JP53" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="JQ53" t="n">
+      <c r="JQ53" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="JR53" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -45543,8 +45702,11 @@
       <c r="JP54" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JQ54" t="n">
+      <c r="JQ54" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="JR54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -46378,8 +46540,11 @@
       <c r="JP55" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JQ55" t="n">
+      <c r="JQ55" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JR55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -47213,8 +47378,11 @@
       <c r="JP56" s="1" t="n">
         <v>77.8</v>
       </c>
-      <c r="JQ56" t="n">
+      <c r="JQ56" s="1" t="n">
         <v>77.8</v>
+      </c>
+      <c r="JR56" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -48048,8 +48216,11 @@
       <c r="JP57" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="JQ57" t="n">
+      <c r="JQ57" s="1" t="n">
         <v>205</v>
+      </c>
+      <c r="JR57" t="n">
+        <v>228</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -48883,8 +49054,11 @@
       <c r="JP58" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="JQ58" t="n">
+      <c r="JQ58" s="1" t="n">
         <v>126</v>
+      </c>
+      <c r="JR58" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -49718,8 +49892,11 @@
       <c r="JP59" s="1" t="n">
         <v>331</v>
       </c>
-      <c r="JQ59" t="n">
+      <c r="JQ59" s="1" t="n">
         <v>331</v>
+      </c>
+      <c r="JR59" t="n">
+        <v>392</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -50553,8 +50730,11 @@
       <c r="JP60" s="1" t="n">
         <v>1.63</v>
       </c>
-      <c r="JQ60" t="n">
+      <c r="JQ60" s="1" t="n">
         <v>1.63</v>
+      </c>
+      <c r="JR60" t="n">
+        <v>1.39</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -51388,7 +51568,10 @@
       <c r="JP61" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="JQ61" t="n">
+      <c r="JQ61" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="JR61" t="n">
         <v>87</v>
       </c>
     </row>
@@ -52223,8 +52406,11 @@
       <c r="JP62" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="JQ62" t="n">
+      <c r="JQ62" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="JR62" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -53058,8 +53244,11 @@
       <c r="JP63" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="JQ63" t="n">
+      <c r="JQ63" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="JR63" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -53893,8 +54082,11 @@
       <c r="JP64" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="JQ64" t="n">
+      <c r="JQ64" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="JR64" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -54728,8 +54920,11 @@
       <c r="JP65" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="JQ65" t="n">
+      <c r="JQ65" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="JR65" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -55563,8 +55758,11 @@
       <c r="JP66" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JQ66" t="n">
+      <c r="JQ66" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="JR66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -56398,8 +56596,11 @@
       <c r="JP67" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JQ67" t="n">
+      <c r="JQ67" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JR67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -57233,8 +57434,11 @@
       <c r="JP68" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JQ68" t="n">
+      <c r="JQ68" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="JR68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -58068,7 +58272,10 @@
       <c r="JP69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JQ69" t="n">
+      <c r="JQ69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JR69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -58903,8 +59110,11 @@
       <c r="JP70" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="JQ70" t="n">
+      <c r="JQ70" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="JR70" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -59738,8 +59948,11 @@
       <c r="JP71" s="1" t="n">
         <v>45.8</v>
       </c>
-      <c r="JQ71" t="n">
+      <c r="JQ71" s="1" t="n">
         <v>45.8</v>
+      </c>
+      <c r="JR71" t="n">
+        <v>58.8</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -60573,8 +60786,11 @@
       <c r="JP72" s="1" t="n">
         <v>30.09</v>
       </c>
-      <c r="JQ72" t="n">
+      <c r="JQ72" s="1" t="n">
         <v>30.09</v>
+      </c>
+      <c r="JR72" t="n">
+        <v>39.2</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -61408,8 +61624,11 @@
       <c r="JP73" s="1" t="n">
         <v>13.79</v>
       </c>
-      <c r="JQ73" t="n">
+      <c r="JQ73" s="1" t="n">
         <v>13.79</v>
+      </c>
+      <c r="JR73" t="n">
+        <v>23.06</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -62243,8 +62462,11 @@
       <c r="JP74" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="JQ74" t="n">
+      <c r="JQ74" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="JR74" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -63078,8 +63300,11 @@
       <c r="JP75" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="JQ75" t="n">
+      <c r="JQ75" s="1" t="n">
         <v>66</v>
+      </c>
+      <c r="JR75" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -63913,8 +64138,11 @@
       <c r="JP76" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="JQ76" t="n">
+      <c r="JQ76" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="JR76" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -64748,8 +64976,11 @@
       <c r="JP77" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="JQ77" t="n">
+      <c r="JQ77" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="JR77" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -65583,8 +65814,11 @@
       <c r="JP78" s="1" t="n">
         <v>2.33</v>
       </c>
-      <c r="JQ78" t="n">
+      <c r="JQ78" s="1" t="n">
         <v>2.33</v>
+      </c>
+      <c r="JR78" t="n">
+        <v>3.06</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -66418,8 +66652,11 @@
       <c r="JP79" s="1" t="n">
         <v>5.09</v>
       </c>
-      <c r="JQ79" t="n">
+      <c r="JQ79" s="1" t="n">
         <v>5.09</v>
+      </c>
+      <c r="JR79" t="n">
+        <v>5.2</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -67253,8 +67490,11 @@
       <c r="JP80" s="1" t="n">
         <v>39.3</v>
       </c>
-      <c r="JQ80" t="n">
+      <c r="JQ80" s="1" t="n">
         <v>39.3</v>
+      </c>
+      <c r="JR80" t="n">
+        <v>28.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -68088,8 +68328,11 @@
       <c r="JP81" s="1" t="n">
         <v>19.6</v>
       </c>
-      <c r="JQ81" t="n">
+      <c r="JQ81" s="1" t="n">
         <v>19.6</v>
+      </c>
+      <c r="JR81" t="n">
+        <v>19.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -68923,8 +69166,11 @@
       <c r="JP82" s="1" t="n">
         <v>188.9</v>
       </c>
-      <c r="JQ82" t="n">
+      <c r="JQ82" s="1" t="n">
         <v>188.9</v>
+      </c>
+      <c r="JR82" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -69758,8 +70004,11 @@
       <c r="JP83" s="1" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="JQ83" t="n">
+      <c r="JQ83" s="1" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="JR83" t="n">
+        <v>85.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -70593,8 +70842,11 @@
       <c r="JP84" s="1" t="n">
         <v>26.16</v>
       </c>
-      <c r="JQ84" t="n">
+      <c r="JQ84" s="1" t="n">
         <v>26.16</v>
+      </c>
+      <c r="JR84" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -71428,8 +71680,11 @@
       <c r="JP85" s="1" t="n">
         <v>108.6</v>
       </c>
-      <c r="JQ85" t="n">
+      <c r="JQ85" s="1" t="n">
         <v>108.6</v>
+      </c>
+      <c r="JR85" t="n">
+        <v>80.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -72263,7 +72518,10 @@
       <c r="JP86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JQ86" t="n">
+      <c r="JQ86" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JR86" t="n">
         <v>7</v>
       </c>
     </row>
@@ -73098,8 +73356,11 @@
       <c r="JP87" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JQ87" t="n">
+      <c r="JQ87" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JR87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -73933,8 +74194,11 @@
       <c r="JP88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JQ88" t="n">
+      <c r="JQ88" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="JR88" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -74768,8 +75032,11 @@
       <c r="JP89" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JQ89" t="n">
+      <c r="JQ89" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JR89" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -75603,8 +75870,11 @@
       <c r="JP90" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="JQ90" t="n">
+      <c r="JQ90" s="1" t="n">
         <v>142</v>
+      </c>
+      <c r="JR90" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -76438,8 +76708,11 @@
       <c r="JP91" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="JQ91" t="n">
+      <c r="JQ91" s="1" t="n">
         <v>197</v>
+      </c>
+      <c r="JR91" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -77273,8 +77546,11 @@
       <c r="JP92" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="JQ92" t="n">
+      <c r="JQ92" s="1" t="n">
         <v>239</v>
+      </c>
+      <c r="JR92" t="n">
+        <v>277</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -78108,8 +78384,11 @@
       <c r="JP93" s="1" t="n">
         <v>72.2</v>
       </c>
-      <c r="JQ93" t="n">
+      <c r="JQ93" s="1" t="n">
         <v>72.2</v>
+      </c>
+      <c r="JR93" t="n">
+        <v>70.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -78943,8 +79222,11 @@
       <c r="JP94" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="JQ94" t="n">
+      <c r="JQ94" s="1" t="n">
         <v>66</v>
+      </c>
+      <c r="JR94" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -79778,8 +80060,11 @@
       <c r="JP95" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JQ95" t="n">
+      <c r="JQ95" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JR95" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -80613,8 +80898,11 @@
       <c r="JP96" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JQ96" t="n">
+      <c r="JQ96" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="JR96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -81448,8 +81736,11 @@
       <c r="JP97" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="JQ97" t="n">
+      <c r="JQ97" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="JR97" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -82283,8 +82574,11 @@
       <c r="JP98" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="JQ98" t="n">
+      <c r="JQ98" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="JR98" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -83118,8 +83412,11 @@
       <c r="JP99" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="JQ99" t="n">
+      <c r="JQ99" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="JR99" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -83953,8 +84250,11 @@
       <c r="JP100" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JQ100" t="n">
+      <c r="JQ100" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="JR100" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -84788,8 +85088,11 @@
       <c r="JP101" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JQ101" t="n">
+      <c r="JQ101" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JR101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -85623,8 +85926,11 @@
       <c r="JP102" s="1" t="n">
         <v>54.5</v>
       </c>
-      <c r="JQ102" t="n">
+      <c r="JQ102" s="1" t="n">
         <v>54.5</v>
+      </c>
+      <c r="JR102" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Fremantle_stats.xlsx
+++ b/AFL_ML/Data/Fremantle_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JR102"/>
+  <dimension ref="A1:JS102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IA19" activeCellId="0" sqref="IA19"/>
@@ -1291,8 +1291,11 @@
       <c r="JQ1" s="1" t="n">
         <v>10747</v>
       </c>
-      <c r="JR1" t="n">
+      <c r="JR1" s="1" t="n">
         <v>10759</v>
+      </c>
+      <c r="JS1" t="n">
+        <v>10765</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2129,7 +2132,10 @@
       <c r="JQ2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="JR2" t="n">
+      <c r="JR2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JS2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2967,8 +2973,11 @@
       <c r="JQ3" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="JR3" t="n">
+      <c r="JR3" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3805,8 +3814,11 @@
       <c r="JQ4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JR4" t="n">
+      <c r="JR4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4643,8 +4655,11 @@
       <c r="JQ5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JR5" t="n">
+      <c r="JR5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="JS5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -5481,8 +5496,11 @@
       <c r="JQ6" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="JR6" t="n">
+      <c r="JR6" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="JS6" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6319,8 +6337,11 @@
       <c r="JQ7" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="JR7" t="n">
+      <c r="JR7" s="1" t="n">
         <v>67</v>
+      </c>
+      <c r="JS7" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7157,8 +7178,11 @@
       <c r="JQ8" s="1" t="n">
         <v>-20</v>
       </c>
-      <c r="JR8" t="n">
+      <c r="JR8" s="1" t="n">
         <v>-15</v>
+      </c>
+      <c r="JS8" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7995,7 +8019,10 @@
       <c r="JQ9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JR9" t="n">
+      <c r="JR9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8833,8 +8860,11 @@
       <c r="JQ10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JR10" t="n">
+      <c r="JR10" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="JS10" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -9671,8 +9701,11 @@
       <c r="JQ11" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="JR11" t="n">
+      <c r="JR11" s="1" t="n">
         <v>258</v>
+      </c>
+      <c r="JS11" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10509,8 +10542,11 @@
       <c r="JQ12" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="JR12" t="n">
+      <c r="JR12" s="1" t="n">
         <v>179</v>
+      </c>
+      <c r="JS12" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11347,8 +11383,11 @@
       <c r="JQ13" s="1" t="n">
         <v>364</v>
       </c>
-      <c r="JR13" t="n">
+      <c r="JR13" s="1" t="n">
         <v>437</v>
+      </c>
+      <c r="JS13" t="n">
+        <v>377</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12185,8 +12224,11 @@
       <c r="JQ14" s="1" t="n">
         <v>1.46</v>
       </c>
-      <c r="JR14" t="n">
+      <c r="JR14" s="1" t="n">
         <v>1.44</v>
+      </c>
+      <c r="JS14" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13023,8 +13065,11 @@
       <c r="JQ15" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="JR15" t="n">
+      <c r="JR15" s="1" t="n">
         <v>136</v>
+      </c>
+      <c r="JS15" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -13861,8 +13906,11 @@
       <c r="JQ16" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="JR16" t="n">
+      <c r="JR16" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="JS16" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -14699,7 +14747,10 @@
       <c r="JQ17" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="JR17" t="n">
+      <c r="JR17" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="JS17" t="n">
         <v>45</v>
       </c>
     </row>
@@ -15537,8 +15588,11 @@
       <c r="JQ18" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="JR18" t="n">
+      <c r="JR18" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="JS18" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -16375,7 +16429,10 @@
       <c r="JQ19" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="JR19" t="n">
+      <c r="JR19" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="JS19" t="n">
         <v>23</v>
       </c>
     </row>
@@ -17213,8 +17270,11 @@
       <c r="JQ20" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JR20" t="n">
+      <c r="JR20" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JS20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -18051,8 +18111,11 @@
       <c r="JQ21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JR21" t="n">
+      <c r="JR21" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JS21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -18889,7 +18952,10 @@
       <c r="JQ22" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JR22" t="n">
+      <c r="JR22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JS22" t="n">
         <v>8</v>
       </c>
     </row>
@@ -19727,8 +19793,11 @@
       <c r="JQ23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JR23" t="n">
+      <c r="JR23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="JS23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -20565,8 +20634,11 @@
       <c r="JQ24" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="JR24" t="n">
+      <c r="JR24" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="JS24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -21403,8 +21475,11 @@
       <c r="JQ25" s="1" t="n">
         <v>64.3</v>
       </c>
-      <c r="JR25" t="n">
+      <c r="JR25" s="1" t="n">
         <v>41.2</v>
+      </c>
+      <c r="JS25" t="n">
+        <v>45.5</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -22241,8 +22316,11 @@
       <c r="JQ26" s="1" t="n">
         <v>40.44</v>
       </c>
-      <c r="JR26" t="n">
+      <c r="JR26" s="1" t="n">
         <v>62.43</v>
+      </c>
+      <c r="JS26" t="n">
+        <v>37.7</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -23079,8 +23157,11 @@
       <c r="JQ27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="JR27" t="n">
+      <c r="JR27" s="1" t="n">
         <v>25.71</v>
+      </c>
+      <c r="JS27" t="n">
+        <v>17.14</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -23917,8 +23998,11 @@
       <c r="JQ28" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="JR28" t="n">
+      <c r="JR28" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="JS28" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -24755,8 +24839,11 @@
       <c r="JQ29" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="JR29" t="n">
+      <c r="JR29" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="JS29" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -25593,8 +25680,11 @@
       <c r="JQ30" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="JR30" t="n">
+      <c r="JR30" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="JS30" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -26431,8 +26521,11 @@
       <c r="JQ31" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="JR31" t="n">
+      <c r="JR31" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="JS31" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -27269,8 +27362,11 @@
       <c r="JQ32" s="1" t="n">
         <v>3.07</v>
       </c>
-      <c r="JR32" t="n">
+      <c r="JR32" s="1" t="n">
         <v>3.82</v>
+      </c>
+      <c r="JS32" t="n">
+        <v>2.41</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -28107,8 +28203,11 @@
       <c r="JQ33" s="1" t="n">
         <v>4.78</v>
       </c>
-      <c r="JR33" t="n">
+      <c r="JR33" s="1" t="n">
         <v>9.289999999999999</v>
+      </c>
+      <c r="JS33" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -28945,8 +29044,11 @@
       <c r="JQ34" s="1" t="n">
         <v>27.9</v>
       </c>
-      <c r="JR34" t="n">
+      <c r="JR34" s="1" t="n">
         <v>23.1</v>
+      </c>
+      <c r="JS34" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -29783,8 +29885,11 @@
       <c r="JQ35" s="1" t="n">
         <v>20.9</v>
       </c>
-      <c r="JR35" t="n">
+      <c r="JR35" s="1" t="n">
         <v>10.8</v>
+      </c>
+      <c r="JS35" t="n">
+        <v>18.9</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -30621,8 +30726,11 @@
       <c r="JQ36" s="1" t="n">
         <v>188.9</v>
       </c>
-      <c r="JR36" t="n">
+      <c r="JR36" s="1" t="n">
         <v>188.7</v>
+      </c>
+      <c r="JS36" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -31459,8 +31567,11 @@
       <c r="JQ37" s="1" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="JR37" t="n">
+      <c r="JR37" s="1" t="n">
         <v>88.8</v>
+      </c>
+      <c r="JS37" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -32297,7 +32408,10 @@
       <c r="JQ38" s="1" t="n">
         <v>24.66</v>
       </c>
-      <c r="JR38" t="n">
+      <c r="JR38" s="1" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="JS38" t="n">
         <v>25.16</v>
       </c>
     </row>
@@ -33135,8 +33249,11 @@
       <c r="JQ39" s="1" t="n">
         <v>86.2</v>
       </c>
-      <c r="JR39" t="n">
+      <c r="JR39" s="1" t="n">
         <v>80.7</v>
+      </c>
+      <c r="JS39" t="n">
+        <v>80.59999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -33973,7 +34090,10 @@
       <c r="JQ40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JR40" t="n">
+      <c r="JR40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JS40" t="n">
         <v>6</v>
       </c>
     </row>
@@ -34811,7 +34931,10 @@
       <c r="JQ41" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JR41" t="n">
+      <c r="JR41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JS41" t="n">
         <v>10</v>
       </c>
     </row>
@@ -35649,7 +35772,10 @@
       <c r="JQ42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JR42" t="n">
+      <c r="JR42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JS42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -36487,7 +36613,10 @@
       <c r="JQ43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JR43" t="n">
+      <c r="JR43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JS43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -37325,8 +37454,11 @@
       <c r="JQ44" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="JR44" t="n">
+      <c r="JR44" s="1" t="n">
         <v>145</v>
+      </c>
+      <c r="JS44" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -38163,8 +38295,11 @@
       <c r="JQ45" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="JR45" t="n">
+      <c r="JR45" s="1" t="n">
         <v>284</v>
+      </c>
+      <c r="JS45" t="n">
+        <v>241</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -39001,8 +39136,11 @@
       <c r="JQ46" s="1" t="n">
         <v>266</v>
       </c>
-      <c r="JR46" t="n">
+      <c r="JR46" s="1" t="n">
         <v>334</v>
+      </c>
+      <c r="JS46" t="n">
+        <v>289</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -39839,8 +39977,11 @@
       <c r="JQ47" s="1" t="n">
         <v>73.09999999999999</v>
       </c>
-      <c r="JR47" t="n">
+      <c r="JR47" s="1" t="n">
         <v>76.40000000000001</v>
+      </c>
+      <c r="JS47" t="n">
+        <v>76.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -40677,8 +40818,11 @@
       <c r="JQ48" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="JR48" t="n">
+      <c r="JR48" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="JS48" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -41515,8 +41659,11 @@
       <c r="JQ49" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JR49" t="n">
+      <c r="JR49" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="JS49" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -42353,8 +42500,11 @@
       <c r="JQ50" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JR50" t="n">
+      <c r="JR50" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JS50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -43191,8 +43341,11 @@
       <c r="JQ51" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="JR51" t="n">
+      <c r="JR51" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="JS51" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -44029,8 +44182,11 @@
       <c r="JQ52" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="JR52" t="n">
+      <c r="JR52" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="JS52" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -44867,8 +45023,11 @@
       <c r="JQ53" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="JR53" t="n">
+      <c r="JR53" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="JS53" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -45705,8 +45864,11 @@
       <c r="JQ54" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JR54" t="n">
+      <c r="JR54" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JS54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -46543,8 +46705,11 @@
       <c r="JQ55" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JR55" t="n">
+      <c r="JR55" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JS55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -47381,8 +47546,11 @@
       <c r="JQ56" s="1" t="n">
         <v>77.8</v>
       </c>
-      <c r="JR56" t="n">
+      <c r="JR56" s="1" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="JS56" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -48219,8 +48387,11 @@
       <c r="JQ57" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="JR57" t="n">
+      <c r="JR57" s="1" t="n">
         <v>228</v>
+      </c>
+      <c r="JS57" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -49057,8 +49228,11 @@
       <c r="JQ58" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="JR58" t="n">
+      <c r="JR58" s="1" t="n">
         <v>164</v>
+      </c>
+      <c r="JS58" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -49895,8 +50069,11 @@
       <c r="JQ59" s="1" t="n">
         <v>331</v>
       </c>
-      <c r="JR59" t="n">
+      <c r="JR59" s="1" t="n">
         <v>392</v>
+      </c>
+      <c r="JS59" t="n">
+        <v>374</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -50733,8 +50910,11 @@
       <c r="JQ60" s="1" t="n">
         <v>1.63</v>
       </c>
-      <c r="JR60" t="n">
+      <c r="JR60" s="1" t="n">
         <v>1.39</v>
+      </c>
+      <c r="JS60" t="n">
+        <v>1.62</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -51571,8 +51751,11 @@
       <c r="JQ61" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="JR61" t="n">
+      <c r="JR61" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="JS61" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -52409,8 +52592,11 @@
       <c r="JQ62" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="JR62" t="n">
+      <c r="JR62" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="JS62" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -53247,8 +53433,11 @@
       <c r="JQ63" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="JR63" t="n">
+      <c r="JR63" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="JS63" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -54085,7 +54274,10 @@
       <c r="JQ64" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="JR64" t="n">
+      <c r="JR64" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="JS64" t="n">
         <v>23</v>
       </c>
     </row>
@@ -54923,8 +55115,11 @@
       <c r="JQ65" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="JR65" t="n">
+      <c r="JR65" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="JS65" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -55761,8 +55956,11 @@
       <c r="JQ66" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JR66" t="n">
+      <c r="JR66" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JS66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -56599,8 +56797,11 @@
       <c r="JQ67" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JR67" t="n">
+      <c r="JR67" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JS67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -57437,7 +57638,10 @@
       <c r="JQ68" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JR68" t="n">
+      <c r="JR68" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JS68" t="n">
         <v>5</v>
       </c>
     </row>
@@ -58275,7 +58479,10 @@
       <c r="JQ69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JR69" t="n">
+      <c r="JR69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JS69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -59113,8 +59320,11 @@
       <c r="JQ70" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="JR70" t="n">
+      <c r="JR70" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="JS70" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -59951,8 +60161,11 @@
       <c r="JQ71" s="1" t="n">
         <v>45.8</v>
       </c>
-      <c r="JR71" t="n">
+      <c r="JR71" s="1" t="n">
         <v>58.8</v>
+      </c>
+      <c r="JS71" t="n">
+        <v>61.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -60789,8 +61002,11 @@
       <c r="JQ72" s="1" t="n">
         <v>30.09</v>
       </c>
-      <c r="JR72" t="n">
+      <c r="JR72" s="1" t="n">
         <v>39.2</v>
+      </c>
+      <c r="JS72" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -61627,8 +61843,11 @@
       <c r="JQ73" s="1" t="n">
         <v>13.79</v>
       </c>
-      <c r="JR73" t="n">
+      <c r="JR73" s="1" t="n">
         <v>23.06</v>
+      </c>
+      <c r="JS73" t="n">
+        <v>20.78</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -62465,8 +62684,11 @@
       <c r="JQ74" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="JR74" t="n">
+      <c r="JR74" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="JS74" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -63303,8 +63525,11 @@
       <c r="JQ75" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="JR75" t="n">
+      <c r="JR75" s="1" t="n">
         <v>78</v>
+      </c>
+      <c r="JS75" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -64141,8 +64366,11 @@
       <c r="JQ76" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="JR76" t="n">
+      <c r="JR76" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="JS76" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -64979,8 +65207,11 @@
       <c r="JQ77" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="JR77" t="n">
+      <c r="JR77" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="JS77" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -65817,8 +66048,11 @@
       <c r="JQ78" s="1" t="n">
         <v>2.33</v>
       </c>
-      <c r="JR78" t="n">
+      <c r="JR78" s="1" t="n">
         <v>3.06</v>
+      </c>
+      <c r="JS78" t="n">
+        <v>2.56</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -66655,8 +66889,11 @@
       <c r="JQ79" s="1" t="n">
         <v>5.09</v>
       </c>
-      <c r="JR79" t="n">
+      <c r="JR79" s="1" t="n">
         <v>5.2</v>
+      </c>
+      <c r="JS79" t="n">
+        <v>4.18</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -67493,8 +67730,11 @@
       <c r="JQ80" s="1" t="n">
         <v>39.3</v>
       </c>
-      <c r="JR80" t="n">
+      <c r="JR80" s="1" t="n">
         <v>28.8</v>
+      </c>
+      <c r="JS80" t="n">
+        <v>34.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -68331,8 +68571,11 @@
       <c r="JQ81" s="1" t="n">
         <v>19.6</v>
       </c>
-      <c r="JR81" t="n">
+      <c r="JR81" s="1" t="n">
         <v>19.2</v>
+      </c>
+      <c r="JS81" t="n">
+        <v>23.9</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -69169,8 +69412,11 @@
       <c r="JQ82" s="1" t="n">
         <v>188.9</v>
       </c>
-      <c r="JR82" t="n">
+      <c r="JR82" s="1" t="n">
         <v>187.9</v>
+      </c>
+      <c r="JS82" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -70007,8 +70253,11 @@
       <c r="JQ83" s="1" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="JR83" t="n">
+      <c r="JR83" s="1" t="n">
         <v>85.3</v>
+      </c>
+      <c r="JS83" t="n">
+        <v>84.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -70845,8 +71094,11 @@
       <c r="JQ84" s="1" t="n">
         <v>26.16</v>
       </c>
-      <c r="JR84" t="n">
+      <c r="JR84" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="JS84" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -71683,8 +71935,11 @@
       <c r="JQ85" s="1" t="n">
         <v>108.6</v>
       </c>
-      <c r="JR85" t="n">
+      <c r="JR85" s="1" t="n">
         <v>80.8</v>
+      </c>
+      <c r="JS85" t="n">
+        <v>101.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -72521,8 +72776,11 @@
       <c r="JQ86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JR86" t="n">
+      <c r="JR86" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JS86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -73359,8 +73617,11 @@
       <c r="JQ87" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JR87" t="n">
+      <c r="JR87" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JS87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -74197,8 +74458,11 @@
       <c r="JQ88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JR88" t="n">
+      <c r="JR88" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JS88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -75035,8 +75299,11 @@
       <c r="JQ89" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JR89" t="n">
+      <c r="JR89" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JS89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -75873,8 +76140,11 @@
       <c r="JQ90" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="JR90" t="n">
+      <c r="JR90" s="1" t="n">
         <v>150</v>
+      </c>
+      <c r="JS90" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -76711,8 +76981,11 @@
       <c r="JQ91" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="JR91" t="n">
+      <c r="JR91" s="1" t="n">
         <v>233</v>
+      </c>
+      <c r="JS91" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -77549,8 +77822,11 @@
       <c r="JQ92" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="JR92" t="n">
+      <c r="JR92" s="1" t="n">
         <v>277</v>
+      </c>
+      <c r="JS92" t="n">
+        <v>278</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -78387,8 +78663,11 @@
       <c r="JQ93" s="1" t="n">
         <v>72.2</v>
       </c>
-      <c r="JR93" t="n">
+      <c r="JR93" s="1" t="n">
         <v>70.7</v>
+      </c>
+      <c r="JS93" t="n">
+        <v>74.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -79225,8 +79504,11 @@
       <c r="JQ94" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="JR94" t="n">
+      <c r="JR94" s="1" t="n">
         <v>78</v>
+      </c>
+      <c r="JS94" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -80063,8 +80345,11 @@
       <c r="JQ95" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JR95" t="n">
+      <c r="JR95" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JS95" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -80901,8 +81186,11 @@
       <c r="JQ96" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JR96" t="n">
+      <c r="JR96" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JS96" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -81739,8 +82027,11 @@
       <c r="JQ97" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="JR97" t="n">
+      <c r="JR97" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="JS97" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -82577,8 +82868,11 @@
       <c r="JQ98" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="JR98" t="n">
+      <c r="JR98" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="JS98" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -83415,8 +83709,11 @@
       <c r="JQ99" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="JR99" t="n">
+      <c r="JR99" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="JS99" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -84253,8 +84550,11 @@
       <c r="JQ100" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JR100" t="n">
+      <c r="JR100" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="JS100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -85091,8 +85391,11 @@
       <c r="JQ101" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JR101" t="n">
+      <c r="JR101" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JS101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -85929,8 +86232,11 @@
       <c r="JQ102" s="1" t="n">
         <v>54.5</v>
       </c>
-      <c r="JR102" t="n">
+      <c r="JR102" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="JS102" t="n">
+        <v>81.8</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Fremantle_stats.xlsx
+++ b/AFL_ML/Data/Fremantle_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JS102"/>
+  <dimension ref="A1:JT102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IA19" activeCellId="0" sqref="IA19"/>
@@ -1294,8 +1294,11 @@
       <c r="JR1" s="1" t="n">
         <v>10759</v>
       </c>
-      <c r="JS1" t="n">
+      <c r="JS1" s="1" t="n">
         <v>10765</v>
+      </c>
+      <c r="JT1" t="n">
+        <v>10777</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2135,7 +2138,10 @@
       <c r="JR2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="JS2" t="n">
+      <c r="JS2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JT2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2976,8 +2982,11 @@
       <c r="JR3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JS3" t="n">
+      <c r="JS3" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3817,7 +3826,10 @@
       <c r="JR4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JS4" t="n">
+      <c r="JS4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4658,8 +4670,11 @@
       <c r="JR5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JS5" t="n">
+      <c r="JS5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JT5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -5499,8 +5514,11 @@
       <c r="JR6" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="JS6" t="n">
+      <c r="JS6" s="1" t="n">
         <v>72</v>
+      </c>
+      <c r="JT6" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6340,8 +6358,11 @@
       <c r="JR7" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="JS7" t="n">
+      <c r="JS7" s="1" t="n">
         <v>73</v>
+      </c>
+      <c r="JT7" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7181,8 +7202,11 @@
       <c r="JR8" s="1" t="n">
         <v>-15</v>
       </c>
-      <c r="JS8" t="n">
+      <c r="JS8" s="1" t="n">
         <v>-1</v>
+      </c>
+      <c r="JT8" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8022,8 +8046,11 @@
       <c r="JR9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JS9" t="n">
+      <c r="JS9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="JT9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -8863,8 +8890,11 @@
       <c r="JR10" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="JS10" t="n">
+      <c r="JS10" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="JT10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -9704,8 +9734,11 @@
       <c r="JR11" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="JS11" t="n">
+      <c r="JS11" s="1" t="n">
         <v>216</v>
+      </c>
+      <c r="JT11" t="n">
+        <v>193</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10545,8 +10578,11 @@
       <c r="JR12" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="JS12" t="n">
+      <c r="JS12" s="1" t="n">
         <v>161</v>
+      </c>
+      <c r="JT12" t="n">
+        <v>169</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11386,8 +11422,11 @@
       <c r="JR13" s="1" t="n">
         <v>437</v>
       </c>
-      <c r="JS13" t="n">
+      <c r="JS13" s="1" t="n">
         <v>377</v>
+      </c>
+      <c r="JT13" t="n">
+        <v>362</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12227,8 +12266,11 @@
       <c r="JR14" s="1" t="n">
         <v>1.44</v>
       </c>
-      <c r="JS14" t="n">
+      <c r="JS14" s="1" t="n">
         <v>1.34</v>
+      </c>
+      <c r="JT14" t="n">
+        <v>1.14</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13068,8 +13110,11 @@
       <c r="JR15" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="JS15" t="n">
+      <c r="JS15" s="1" t="n">
         <v>101</v>
+      </c>
+      <c r="JT15" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -13909,8 +13954,11 @@
       <c r="JR16" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="JS16" t="n">
+      <c r="JS16" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="JT16" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -14750,8 +14798,11 @@
       <c r="JR17" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="JS17" t="n">
+      <c r="JS17" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="JT17" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -15591,8 +15642,11 @@
       <c r="JR18" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="JS18" t="n">
+      <c r="JS18" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="JT18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -16432,8 +16486,11 @@
       <c r="JR19" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="JS19" t="n">
+      <c r="JS19" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="JT19" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -17273,8 +17330,11 @@
       <c r="JR20" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JS20" t="n">
+      <c r="JS20" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JT20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -18114,8 +18174,11 @@
       <c r="JR21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JS21" t="n">
+      <c r="JS21" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JT21" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -18955,7 +19018,10 @@
       <c r="JR22" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JS22" t="n">
+      <c r="JS22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JT22" t="n">
         <v>8</v>
       </c>
     </row>
@@ -19796,7 +19862,10 @@
       <c r="JR23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JS23" t="n">
+      <c r="JS23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JT23" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20637,8 +20706,11 @@
       <c r="JR24" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="JS24" t="n">
+      <c r="JS24" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="JT24" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -21478,8 +21550,11 @@
       <c r="JR25" s="1" t="n">
         <v>41.2</v>
       </c>
-      <c r="JS25" t="n">
+      <c r="JS25" s="1" t="n">
         <v>45.5</v>
+      </c>
+      <c r="JT25" t="n">
+        <v>57.1</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -22319,8 +22394,11 @@
       <c r="JR26" s="1" t="n">
         <v>62.43</v>
       </c>
-      <c r="JS26" t="n">
+      <c r="JS26" s="1" t="n">
         <v>37.7</v>
+      </c>
+      <c r="JT26" t="n">
+        <v>22.62</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -23160,8 +23238,11 @@
       <c r="JR27" s="1" t="n">
         <v>25.71</v>
       </c>
-      <c r="JS27" t="n">
+      <c r="JS27" s="1" t="n">
         <v>17.14</v>
+      </c>
+      <c r="JT27" t="n">
+        <v>12.93</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -24001,8 +24082,11 @@
       <c r="JR28" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="JS28" t="n">
+      <c r="JS28" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="JT28" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -24842,8 +24926,11 @@
       <c r="JR29" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="JS29" t="n">
+      <c r="JS29" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="JT29" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -25683,8 +25770,11 @@
       <c r="JR30" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="JS30" t="n">
+      <c r="JS30" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="JT30" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -26524,8 +26614,11 @@
       <c r="JR31" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="JS31" t="n">
+      <c r="JS31" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="JT31" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -27365,8 +27458,11 @@
       <c r="JR32" s="1" t="n">
         <v>3.82</v>
       </c>
-      <c r="JS32" t="n">
+      <c r="JS32" s="1" t="n">
         <v>2.41</v>
+      </c>
+      <c r="JT32" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -28206,8 +28302,11 @@
       <c r="JR33" s="1" t="n">
         <v>9.289999999999999</v>
       </c>
-      <c r="JS33" t="n">
+      <c r="JS33" s="1" t="n">
         <v>5.3</v>
+      </c>
+      <c r="JT33" t="n">
+        <v>3.94</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -29047,8 +29146,11 @@
       <c r="JR34" s="1" t="n">
         <v>23.1</v>
       </c>
-      <c r="JS34" t="n">
+      <c r="JS34" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="JT34" t="n">
+        <v>38.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -29888,8 +29990,11 @@
       <c r="JR35" s="1" t="n">
         <v>10.8</v>
       </c>
-      <c r="JS35" t="n">
+      <c r="JS35" s="1" t="n">
         <v>18.9</v>
+      </c>
+      <c r="JT35" t="n">
+        <v>25.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -30729,7 +30834,10 @@
       <c r="JR36" s="1" t="n">
         <v>188.7</v>
       </c>
-      <c r="JS36" t="n">
+      <c r="JS36" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="JT36" t="n">
         <v>188</v>
       </c>
     </row>
@@ -31570,8 +31678,11 @@
       <c r="JR37" s="1" t="n">
         <v>88.8</v>
       </c>
-      <c r="JS37" t="n">
+      <c r="JS37" s="1" t="n">
         <v>87.5</v>
+      </c>
+      <c r="JT37" t="n">
+        <v>86.8</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -32411,8 +32522,11 @@
       <c r="JR38" s="1" t="n">
         <v>25.16</v>
       </c>
-      <c r="JS38" t="n">
+      <c r="JS38" s="1" t="n">
         <v>25.16</v>
+      </c>
+      <c r="JT38" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -33252,8 +33366,11 @@
       <c r="JR39" s="1" t="n">
         <v>80.7</v>
       </c>
-      <c r="JS39" t="n">
+      <c r="JS39" s="1" t="n">
         <v>80.59999999999999</v>
+      </c>
+      <c r="JT39" t="n">
+        <v>77.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -34093,8 +34210,11 @@
       <c r="JR40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JS40" t="n">
+      <c r="JS40" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JT40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -34934,8 +35054,11 @@
       <c r="JR41" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JS41" t="n">
+      <c r="JS41" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JT41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -35775,7 +35898,10 @@
       <c r="JR42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JS42" t="n">
+      <c r="JS42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JT42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -36616,7 +36742,10 @@
       <c r="JR43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JS43" t="n">
+      <c r="JS43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JT43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -37457,8 +37586,11 @@
       <c r="JR44" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="JS44" t="n">
+      <c r="JS44" s="1" t="n">
         <v>140</v>
+      </c>
+      <c r="JT44" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -38298,8 +38430,11 @@
       <c r="JR45" s="1" t="n">
         <v>284</v>
       </c>
-      <c r="JS45" t="n">
+      <c r="JS45" s="1" t="n">
         <v>241</v>
+      </c>
+      <c r="JT45" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -39139,8 +39274,11 @@
       <c r="JR46" s="1" t="n">
         <v>334</v>
       </c>
-      <c r="JS46" t="n">
+      <c r="JS46" s="1" t="n">
         <v>289</v>
+      </c>
+      <c r="JT46" t="n">
+        <v>265</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -39980,8 +40118,11 @@
       <c r="JR47" s="1" t="n">
         <v>76.40000000000001</v>
       </c>
-      <c r="JS47" t="n">
+      <c r="JS47" s="1" t="n">
         <v>76.7</v>
+      </c>
+      <c r="JT47" t="n">
+        <v>73.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -40821,8 +40962,11 @@
       <c r="JR48" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="JS48" t="n">
+      <c r="JS48" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="JT48" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -41662,8 +41806,11 @@
       <c r="JR49" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="JS49" t="n">
+      <c r="JS49" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JT49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -42503,8 +42650,11 @@
       <c r="JR50" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JS50" t="n">
+      <c r="JS50" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JT50" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -43344,8 +43494,11 @@
       <c r="JR51" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="JS51" t="n">
+      <c r="JS51" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="JT51" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -44185,8 +44338,11 @@
       <c r="JR52" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="JS52" t="n">
+      <c r="JS52" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="JT52" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -45026,8 +45182,11 @@
       <c r="JR53" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="JS53" t="n">
+      <c r="JS53" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="JT53" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -45867,8 +46026,11 @@
       <c r="JR54" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JS54" t="n">
+      <c r="JS54" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JT54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -46708,8 +46870,11 @@
       <c r="JR55" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JS55" t="n">
+      <c r="JS55" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JT55" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -47549,8 +47714,11 @@
       <c r="JR56" s="1" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="JS56" t="n">
+      <c r="JS56" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="JT56" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -48390,8 +48558,11 @@
       <c r="JR57" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="JS57" t="n">
+      <c r="JS57" s="1" t="n">
         <v>231</v>
+      </c>
+      <c r="JT57" t="n">
+        <v>213</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -49231,8 +49402,11 @@
       <c r="JR58" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="JS58" t="n">
+      <c r="JS58" s="1" t="n">
         <v>143</v>
+      </c>
+      <c r="JT58" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -50072,8 +50246,11 @@
       <c r="JR59" s="1" t="n">
         <v>392</v>
       </c>
-      <c r="JS59" t="n">
+      <c r="JS59" s="1" t="n">
         <v>374</v>
+      </c>
+      <c r="JT59" t="n">
+        <v>377</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -50913,8 +51090,11 @@
       <c r="JR60" s="1" t="n">
         <v>1.39</v>
       </c>
-      <c r="JS60" t="n">
+      <c r="JS60" s="1" t="n">
         <v>1.62</v>
+      </c>
+      <c r="JT60" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -51754,8 +51934,11 @@
       <c r="JR61" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="JS61" t="n">
+      <c r="JS61" s="1" t="n">
         <v>95</v>
+      </c>
+      <c r="JT61" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -52595,8 +52778,11 @@
       <c r="JR62" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="JS62" t="n">
+      <c r="JS62" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="JT62" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -53436,8 +53622,11 @@
       <c r="JR63" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="JS63" t="n">
+      <c r="JS63" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="JT63" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -54277,8 +54466,11 @@
       <c r="JR64" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="JS64" t="n">
+      <c r="JS64" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="JT64" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -55118,8 +55310,11 @@
       <c r="JR65" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="JS65" t="n">
+      <c r="JS65" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="JT65" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -55959,8 +56154,11 @@
       <c r="JR66" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JS66" t="n">
+      <c r="JS66" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="JT66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -56800,7 +56998,10 @@
       <c r="JR67" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JS67" t="n">
+      <c r="JS67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JT67" t="n">
         <v>9</v>
       </c>
     </row>
@@ -57641,8 +57842,11 @@
       <c r="JR68" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JS68" t="n">
+      <c r="JS68" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JT68" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -58482,8 +58686,11 @@
       <c r="JR69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JS69" t="n">
+      <c r="JS69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="JT69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -59323,8 +59530,11 @@
       <c r="JR70" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="JS70" t="n">
+      <c r="JS70" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="JT70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -60164,8 +60374,11 @@
       <c r="JR71" s="1" t="n">
         <v>58.8</v>
       </c>
-      <c r="JS71" t="n">
+      <c r="JS71" s="1" t="n">
         <v>61.1</v>
+      </c>
+      <c r="JT71" t="n">
+        <v>40.9</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -61005,8 +61218,11 @@
       <c r="JR72" s="1" t="n">
         <v>39.2</v>
       </c>
-      <c r="JS72" t="n">
+      <c r="JS72" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="JT72" t="n">
+        <v>41.89</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -61846,8 +62062,11 @@
       <c r="JR73" s="1" t="n">
         <v>23.06</v>
       </c>
-      <c r="JS73" t="n">
+      <c r="JS73" s="1" t="n">
         <v>20.78</v>
+      </c>
+      <c r="JT73" t="n">
+        <v>17.14</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -62687,8 +62906,11 @@
       <c r="JR74" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="JS74" t="n">
+      <c r="JS74" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="JT74" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -63528,8 +63750,11 @@
       <c r="JR75" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="JS75" t="n">
+      <c r="JS75" s="1" t="n">
         <v>73</v>
+      </c>
+      <c r="JT75" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -64369,8 +64594,11 @@
       <c r="JR76" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="JS76" t="n">
+      <c r="JS76" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="JT76" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -65210,8 +65438,11 @@
       <c r="JR77" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="JS77" t="n">
+      <c r="JS77" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="JT77" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -66051,8 +66282,11 @@
       <c r="JR78" s="1" t="n">
         <v>3.06</v>
       </c>
-      <c r="JS78" t="n">
+      <c r="JS78" s="1" t="n">
         <v>2.56</v>
+      </c>
+      <c r="JT78" t="n">
+        <v>2.45</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -66892,8 +67126,11 @@
       <c r="JR79" s="1" t="n">
         <v>5.2</v>
       </c>
-      <c r="JS79" t="n">
+      <c r="JS79" s="1" t="n">
         <v>4.18</v>
+      </c>
+      <c r="JT79" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -67733,8 +67970,11 @@
       <c r="JR80" s="1" t="n">
         <v>28.8</v>
       </c>
-      <c r="JS80" t="n">
+      <c r="JS80" s="1" t="n">
         <v>34.8</v>
+      </c>
+      <c r="JT80" t="n">
+        <v>40.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -68574,8 +68814,11 @@
       <c r="JR81" s="1" t="n">
         <v>19.2</v>
       </c>
-      <c r="JS81" t="n">
+      <c r="JS81" s="1" t="n">
         <v>23.9</v>
+      </c>
+      <c r="JT81" t="n">
+        <v>16.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -69415,8 +69658,11 @@
       <c r="JR82" s="1" t="n">
         <v>187.9</v>
       </c>
-      <c r="JS82" t="n">
+      <c r="JS82" s="1" t="n">
         <v>189</v>
+      </c>
+      <c r="JT82" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -70256,8 +70502,11 @@
       <c r="JR83" s="1" t="n">
         <v>85.3</v>
       </c>
-      <c r="JS83" t="n">
+      <c r="JS83" s="1" t="n">
         <v>84.5</v>
+      </c>
+      <c r="JT83" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -71097,8 +71346,11 @@
       <c r="JR84" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="JS84" t="n">
+      <c r="JS84" s="1" t="n">
         <v>25.58</v>
+      </c>
+      <c r="JT84" t="n">
+        <v>26.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -71938,8 +72190,11 @@
       <c r="JR85" s="1" t="n">
         <v>80.8</v>
       </c>
-      <c r="JS85" t="n">
+      <c r="JS85" s="1" t="n">
         <v>101.2</v>
+      </c>
+      <c r="JT85" t="n">
+        <v>116.4</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -72779,7 +73034,10 @@
       <c r="JR86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JS86" t="n">
+      <c r="JS86" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JT86" t="n">
         <v>6</v>
       </c>
     </row>
@@ -73620,8 +73878,11 @@
       <c r="JR87" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JS87" t="n">
+      <c r="JS87" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JT87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -74461,8 +74722,11 @@
       <c r="JR88" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JS88" t="n">
+      <c r="JS88" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JT88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -75302,8 +75566,11 @@
       <c r="JR89" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JS89" t="n">
+      <c r="JS89" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JT89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -76143,7 +76410,10 @@
       <c r="JR90" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="JS90" t="n">
+      <c r="JS90" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="JT90" t="n">
         <v>142</v>
       </c>
     </row>
@@ -76984,7 +77254,10 @@
       <c r="JR91" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="JS91" t="n">
+      <c r="JS91" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="JT91" t="n">
         <v>235</v>
       </c>
     </row>
@@ -77825,8 +78098,11 @@
       <c r="JR92" s="1" t="n">
         <v>277</v>
       </c>
-      <c r="JS92" t="n">
+      <c r="JS92" s="1" t="n">
         <v>278</v>
+      </c>
+      <c r="JT92" t="n">
+        <v>276</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -78666,8 +78942,11 @@
       <c r="JR93" s="1" t="n">
         <v>70.7</v>
       </c>
-      <c r="JS93" t="n">
+      <c r="JS93" s="1" t="n">
         <v>74.3</v>
+      </c>
+      <c r="JT93" t="n">
+        <v>73.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -79507,8 +79786,11 @@
       <c r="JR94" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="JS94" t="n">
+      <c r="JS94" s="1" t="n">
         <v>73</v>
+      </c>
+      <c r="JT94" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -80348,8 +80630,11 @@
       <c r="JR95" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JS95" t="n">
+      <c r="JS95" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JT95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -81189,8 +81474,11 @@
       <c r="JR96" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JS96" t="n">
+      <c r="JS96" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JT96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -82030,8 +82318,11 @@
       <c r="JR97" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="JS97" t="n">
+      <c r="JS97" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="JT97" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -82871,8 +83162,11 @@
       <c r="JR98" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="JS98" t="n">
+      <c r="JS98" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="JT98" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -83712,8 +84006,11 @@
       <c r="JR99" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="JS99" t="n">
+      <c r="JS99" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="JT99" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -84553,8 +84850,11 @@
       <c r="JR100" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="JS100" t="n">
+      <c r="JS100" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JT100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -85394,7 +85694,10 @@
       <c r="JR101" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JS101" t="n">
+      <c r="JS101" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JT101" t="n">
         <v>9</v>
       </c>
     </row>
@@ -86235,8 +86538,11 @@
       <c r="JR102" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="JS102" t="n">
+      <c r="JS102" s="1" t="n">
         <v>81.8</v>
+      </c>
+      <c r="JT102" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Fremantle_stats.xlsx
+++ b/AFL_ML/Data/Fremantle_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JT102"/>
+  <dimension ref="A1:JU102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IA19" activeCellId="0" sqref="IA19"/>
@@ -1297,8 +1297,11 @@
       <c r="JS1" s="1" t="n">
         <v>10765</v>
       </c>
-      <c r="JT1" t="n">
+      <c r="JT1" s="1" t="n">
         <v>10777</v>
+      </c>
+      <c r="JU1" t="n">
+        <v>10780</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2141,7 +2144,10 @@
       <c r="JS2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="JT2" t="n">
+      <c r="JT2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JU2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2985,8 +2991,11 @@
       <c r="JS3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JT3" t="n">
+      <c r="JT3" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3829,8 +3838,11 @@
       <c r="JS4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JT4" t="n">
+      <c r="JT4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4673,7 +4685,10 @@
       <c r="JS5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JT5" t="n">
+      <c r="JT5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5517,8 +5532,11 @@
       <c r="JS6" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="JT6" t="n">
+      <c r="JT6" s="1" t="n">
         <v>108</v>
+      </c>
+      <c r="JU6" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6361,8 +6379,11 @@
       <c r="JS7" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="JT7" t="n">
+      <c r="JT7" s="1" t="n">
         <v>67</v>
+      </c>
+      <c r="JU7" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7205,8 +7226,11 @@
       <c r="JS8" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="JT8" t="n">
+      <c r="JT8" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="JU8" t="n">
+        <v>-39</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8049,8 +8073,11 @@
       <c r="JS9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JT9" t="n">
+      <c r="JT9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JU9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -8893,8 +8920,11 @@
       <c r="JS10" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="JT10" t="n">
+      <c r="JT10" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="JU10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -9737,8 +9767,11 @@
       <c r="JS11" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="JT11" t="n">
+      <c r="JT11" s="1" t="n">
         <v>193</v>
+      </c>
+      <c r="JU11" t="n">
+        <v>179</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10581,8 +10614,11 @@
       <c r="JS12" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="JT12" t="n">
+      <c r="JT12" s="1" t="n">
         <v>169</v>
+      </c>
+      <c r="JU12" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11425,8 +11461,11 @@
       <c r="JS13" s="1" t="n">
         <v>377</v>
       </c>
-      <c r="JT13" t="n">
+      <c r="JT13" s="1" t="n">
         <v>362</v>
+      </c>
+      <c r="JU13" t="n">
+        <v>334</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12269,8 +12308,11 @@
       <c r="JS14" s="1" t="n">
         <v>1.34</v>
       </c>
-      <c r="JT14" t="n">
+      <c r="JT14" s="1" t="n">
         <v>1.14</v>
+      </c>
+      <c r="JU14" t="n">
+        <v>1.15</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13113,8 +13155,11 @@
       <c r="JS15" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="JT15" t="n">
+      <c r="JT15" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="JU15" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -13957,8 +14002,11 @@
       <c r="JS16" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="JT16" t="n">
+      <c r="JT16" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="JU16" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -14801,8 +14849,11 @@
       <c r="JS17" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="JT17" t="n">
+      <c r="JT17" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="JU17" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -15645,8 +15696,11 @@
       <c r="JS18" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="JT18" t="n">
+      <c r="JT18" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="JU18" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -16489,7 +16543,10 @@
       <c r="JS19" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="JT19" t="n">
+      <c r="JT19" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="JU19" t="n">
         <v>21</v>
       </c>
     </row>
@@ -17333,8 +17390,11 @@
       <c r="JS20" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JT20" t="n">
+      <c r="JT20" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="JU20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -18177,8 +18237,11 @@
       <c r="JS21" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JT21" t="n">
+      <c r="JT21" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="JU21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -19021,8 +19084,11 @@
       <c r="JS22" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JT22" t="n">
+      <c r="JT22" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JU22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -19865,8 +19931,11 @@
       <c r="JS23" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JT23" t="n">
+      <c r="JT23" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JU23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -20709,8 +20778,11 @@
       <c r="JS24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="JT24" t="n">
+      <c r="JT24" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="JU24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -21553,8 +21625,11 @@
       <c r="JS25" s="1" t="n">
         <v>45.5</v>
       </c>
-      <c r="JT25" t="n">
+      <c r="JT25" s="1" t="n">
         <v>57.1</v>
+      </c>
+      <c r="JU25" t="n">
+        <v>45.5</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -22397,8 +22472,11 @@
       <c r="JS26" s="1" t="n">
         <v>37.7</v>
       </c>
-      <c r="JT26" t="n">
+      <c r="JT26" s="1" t="n">
         <v>22.62</v>
+      </c>
+      <c r="JU26" t="n">
+        <v>33.4</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -23241,8 +23319,11 @@
       <c r="JS27" s="1" t="n">
         <v>17.14</v>
       </c>
-      <c r="JT27" t="n">
+      <c r="JT27" s="1" t="n">
         <v>12.93</v>
+      </c>
+      <c r="JU27" t="n">
+        <v>15.18</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -24085,8 +24166,11 @@
       <c r="JS28" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="JT28" t="n">
+      <c r="JT28" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="JU28" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -24929,8 +25013,11 @@
       <c r="JS29" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="JT29" t="n">
+      <c r="JT29" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="JU29" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -25773,8 +25860,11 @@
       <c r="JS30" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="JT30" t="n">
+      <c r="JT30" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="JU30" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -26617,8 +26707,11 @@
       <c r="JS31" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="JT31" t="n">
+      <c r="JT31" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="JU31" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -27461,8 +27554,11 @@
       <c r="JS32" s="1" t="n">
         <v>2.41</v>
       </c>
-      <c r="JT32" t="n">
+      <c r="JT32" s="1" t="n">
         <v>2.25</v>
+      </c>
+      <c r="JU32" t="n">
+        <v>2.32</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -28305,8 +28401,11 @@
       <c r="JS33" s="1" t="n">
         <v>5.3</v>
       </c>
-      <c r="JT33" t="n">
+      <c r="JT33" s="1" t="n">
         <v>3.94</v>
+      </c>
+      <c r="JU33" t="n">
+        <v>5.1</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -29149,8 +29248,11 @@
       <c r="JS34" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="JT34" t="n">
+      <c r="JT34" s="1" t="n">
         <v>38.1</v>
+      </c>
+      <c r="JU34" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -29993,8 +30095,11 @@
       <c r="JS35" s="1" t="n">
         <v>18.9</v>
       </c>
-      <c r="JT35" t="n">
+      <c r="JT35" s="1" t="n">
         <v>25.4</v>
+      </c>
+      <c r="JU35" t="n">
+        <v>19.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -30837,7 +30942,10 @@
       <c r="JS36" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="JT36" t="n">
+      <c r="JT36" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="JU36" t="n">
         <v>188</v>
       </c>
     </row>
@@ -31681,8 +31789,11 @@
       <c r="JS37" s="1" t="n">
         <v>87.5</v>
       </c>
-      <c r="JT37" t="n">
+      <c r="JT37" s="1" t="n">
         <v>86.8</v>
+      </c>
+      <c r="JU37" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -32525,8 +32636,11 @@
       <c r="JS38" s="1" t="n">
         <v>25.16</v>
       </c>
-      <c r="JT38" t="n">
+      <c r="JT38" s="1" t="n">
         <v>24.8</v>
+      </c>
+      <c r="JU38" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -33369,8 +33483,11 @@
       <c r="JS39" s="1" t="n">
         <v>80.59999999999999</v>
       </c>
-      <c r="JT39" t="n">
+      <c r="JT39" s="1" t="n">
         <v>77.2</v>
+      </c>
+      <c r="JU39" t="n">
+        <v>79.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -34213,8 +34330,11 @@
       <c r="JS40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JT40" t="n">
+      <c r="JT40" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JU40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -35057,8 +35177,11 @@
       <c r="JS41" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JT41" t="n">
+      <c r="JT41" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JU41" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -35901,7 +36024,10 @@
       <c r="JS42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JT42" t="n">
+      <c r="JT42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="JU42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -36745,7 +36871,10 @@
       <c r="JS43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JT43" t="n">
+      <c r="JT43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JU43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -37589,8 +37718,11 @@
       <c r="JS44" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="JT44" t="n">
+      <c r="JT44" s="1" t="n">
         <v>130</v>
+      </c>
+      <c r="JU44" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -38433,8 +38565,11 @@
       <c r="JS45" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="JT45" t="n">
+      <c r="JT45" s="1" t="n">
         <v>226</v>
+      </c>
+      <c r="JU45" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -39277,8 +39412,11 @@
       <c r="JS46" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="JT46" t="n">
+      <c r="JT46" s="1" t="n">
         <v>265</v>
+      </c>
+      <c r="JU46" t="n">
+        <v>239</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -40121,8 +40259,11 @@
       <c r="JS47" s="1" t="n">
         <v>76.7</v>
       </c>
-      <c r="JT47" t="n">
+      <c r="JT47" s="1" t="n">
         <v>73.2</v>
+      </c>
+      <c r="JU47" t="n">
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -40965,8 +41106,11 @@
       <c r="JS48" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="JT48" t="n">
+      <c r="JT48" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="JU48" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -41809,8 +41953,11 @@
       <c r="JS49" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JT49" t="n">
+      <c r="JT49" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JU49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -42653,8 +42800,11 @@
       <c r="JS50" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JT50" t="n">
+      <c r="JT50" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="JU50" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -43497,8 +43647,11 @@
       <c r="JS51" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="JT51" t="n">
+      <c r="JT51" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="JU51" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -44341,8 +44494,11 @@
       <c r="JS52" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="JT52" t="n">
+      <c r="JT52" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="JU52" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -45185,8 +45341,11 @@
       <c r="JS53" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="JT53" t="n">
+      <c r="JT53" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="JU53" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -46029,8 +46188,11 @@
       <c r="JS54" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JT54" t="n">
+      <c r="JT54" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JU54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -46873,8 +47035,11 @@
       <c r="JS55" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JT55" t="n">
+      <c r="JT55" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="JU55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -47717,8 +47882,11 @@
       <c r="JS56" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="JT56" t="n">
+      <c r="JT56" s="1" t="n">
         <v>87.5</v>
+      </c>
+      <c r="JU56" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -48561,8 +48729,11 @@
       <c r="JS57" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="JT57" t="n">
+      <c r="JT57" s="1" t="n">
         <v>213</v>
+      </c>
+      <c r="JU57" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -49405,8 +49576,11 @@
       <c r="JS58" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="JT58" t="n">
+      <c r="JT58" s="1" t="n">
         <v>164</v>
+      </c>
+      <c r="JU58" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -50249,8 +50423,11 @@
       <c r="JS59" s="1" t="n">
         <v>374</v>
       </c>
-      <c r="JT59" t="n">
+      <c r="JT59" s="1" t="n">
         <v>377</v>
+      </c>
+      <c r="JU59" t="n">
+        <v>380</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -51093,8 +51270,11 @@
       <c r="JS60" s="1" t="n">
         <v>1.62</v>
       </c>
-      <c r="JT60" t="n">
+      <c r="JT60" s="1" t="n">
         <v>1.3</v>
+      </c>
+      <c r="JU60" t="n">
+        <v>1.41</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -51937,8 +52117,11 @@
       <c r="JS61" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="JT61" t="n">
+      <c r="JT61" s="1" t="n">
         <v>84</v>
+      </c>
+      <c r="JU61" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -52781,8 +52964,11 @@
       <c r="JS62" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="JT62" t="n">
+      <c r="JT62" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="JU62" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -53625,8 +53811,11 @@
       <c r="JS63" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="JT63" t="n">
+      <c r="JT63" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="JU63" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -54469,8 +54658,11 @@
       <c r="JS64" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="JT64" t="n">
+      <c r="JT64" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="JU64" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -55313,8 +55505,11 @@
       <c r="JS65" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="JT65" t="n">
+      <c r="JT65" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="JU65" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -56157,8 +56352,11 @@
       <c r="JS66" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JT66" t="n">
+      <c r="JT66" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JU66" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -57001,8 +57199,11 @@
       <c r="JS67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JT67" t="n">
+      <c r="JT67" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JU67" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -57845,8 +58046,11 @@
       <c r="JS68" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JT68" t="n">
+      <c r="JT68" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="JU68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -58689,8 +58893,11 @@
       <c r="JS69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JT69" t="n">
+      <c r="JT69" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="JU69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -59533,8 +59740,11 @@
       <c r="JS70" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="JT70" t="n">
+      <c r="JT70" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="JU70" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -60377,8 +60587,11 @@
       <c r="JS71" s="1" t="n">
         <v>61.1</v>
       </c>
-      <c r="JT71" t="n">
+      <c r="JT71" s="1" t="n">
         <v>40.9</v>
+      </c>
+      <c r="JU71" t="n">
+        <v>65.40000000000001</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -61221,8 +61434,11 @@
       <c r="JS72" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="JT72" t="n">
+      <c r="JT72" s="1" t="n">
         <v>41.89</v>
+      </c>
+      <c r="JU72" t="n">
+        <v>22.35</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -62065,8 +62281,11 @@
       <c r="JS73" s="1" t="n">
         <v>20.78</v>
       </c>
-      <c r="JT73" t="n">
+      <c r="JT73" s="1" t="n">
         <v>17.14</v>
+      </c>
+      <c r="JU73" t="n">
+        <v>14.62</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -62909,7 +63128,10 @@
       <c r="JS74" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="JT74" t="n">
+      <c r="JT74" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="JU74" t="n">
         <v>35</v>
       </c>
     </row>
@@ -63753,8 +63975,11 @@
       <c r="JS75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="JT75" t="n">
+      <c r="JT75" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="JU75" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -64597,8 +64822,11 @@
       <c r="JS76" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="JT76" t="n">
+      <c r="JT76" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="JU76" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -65441,8 +65669,11 @@
       <c r="JS77" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="JT77" t="n">
+      <c r="JT77" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="JU77" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -66285,8 +66516,11 @@
       <c r="JS78" s="1" t="n">
         <v>2.56</v>
       </c>
-      <c r="JT78" t="n">
+      <c r="JT78" s="1" t="n">
         <v>2.45</v>
+      </c>
+      <c r="JU78" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -67129,8 +67363,11 @@
       <c r="JS79" s="1" t="n">
         <v>4.18</v>
       </c>
-      <c r="JT79" t="n">
+      <c r="JT79" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JU79" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -67973,8 +68210,11 @@
       <c r="JS80" s="1" t="n">
         <v>34.8</v>
       </c>
-      <c r="JT80" t="n">
+      <c r="JT80" s="1" t="n">
         <v>40.7</v>
+      </c>
+      <c r="JU80" t="n">
+        <v>47.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -68817,8 +69057,11 @@
       <c r="JS81" s="1" t="n">
         <v>23.9</v>
       </c>
-      <c r="JT81" t="n">
+      <c r="JT81" s="1" t="n">
         <v>16.7</v>
+      </c>
+      <c r="JU81" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -69661,8 +69904,11 @@
       <c r="JS82" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="JT82" t="n">
+      <c r="JT82" s="1" t="n">
         <v>187.4</v>
+      </c>
+      <c r="JU82" t="n">
+        <v>187.1</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -70505,8 +70751,11 @@
       <c r="JS83" s="1" t="n">
         <v>84.5</v>
       </c>
-      <c r="JT83" t="n">
+      <c r="JT83" s="1" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="JU83" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -71349,8 +71598,11 @@
       <c r="JS84" s="1" t="n">
         <v>25.58</v>
       </c>
-      <c r="JT84" t="n">
+      <c r="JT84" s="1" t="n">
         <v>26.33</v>
+      </c>
+      <c r="JU84" t="n">
+        <v>24.74</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -72193,8 +72445,11 @@
       <c r="JS85" s="1" t="n">
         <v>101.2</v>
       </c>
-      <c r="JT85" t="n">
+      <c r="JT85" s="1" t="n">
         <v>116.4</v>
+      </c>
+      <c r="JU85" t="n">
+        <v>80.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -73037,8 +73292,11 @@
       <c r="JS86" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JT86" t="n">
+      <c r="JT86" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JU86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -73881,8 +74139,11 @@
       <c r="JS87" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JT87" t="n">
+      <c r="JT87" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JU87" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -74725,8 +74986,11 @@
       <c r="JS88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JT88" t="n">
+      <c r="JT88" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JU88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -75569,8 +75833,11 @@
       <c r="JS89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JT89" t="n">
+      <c r="JT89" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JU89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -76413,8 +76680,11 @@
       <c r="JS90" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="JT90" t="n">
+      <c r="JT90" s="1" t="n">
         <v>142</v>
+      </c>
+      <c r="JU90" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -77257,8 +77527,11 @@
       <c r="JS91" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="JT91" t="n">
+      <c r="JT91" s="1" t="n">
         <v>235</v>
+      </c>
+      <c r="JU91" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -78101,7 +78374,10 @@
       <c r="JS92" s="1" t="n">
         <v>278</v>
       </c>
-      <c r="JT92" t="n">
+      <c r="JT92" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="JU92" t="n">
         <v>276</v>
       </c>
     </row>
@@ -78945,8 +79221,11 @@
       <c r="JS93" s="1" t="n">
         <v>74.3</v>
       </c>
-      <c r="JT93" t="n">
+      <c r="JT93" s="1" t="n">
         <v>73.2</v>
+      </c>
+      <c r="JU93" t="n">
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -79789,8 +80068,11 @@
       <c r="JS94" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="JT94" t="n">
+      <c r="JT94" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="JU94" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -80633,8 +80915,11 @@
       <c r="JS95" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JT95" t="n">
+      <c r="JT95" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JU95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -81477,8 +81762,11 @@
       <c r="JS96" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JT96" t="n">
+      <c r="JT96" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="JU96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -82321,7 +82609,10 @@
       <c r="JS97" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="JT97" t="n">
+      <c r="JT97" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="JU97" t="n">
         <v>35</v>
       </c>
     </row>
@@ -83165,8 +83456,11 @@
       <c r="JS98" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="JT98" t="n">
+      <c r="JT98" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="JU98" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -84009,8 +84303,11 @@
       <c r="JS99" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="JT99" t="n">
+      <c r="JT99" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="JU99" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -84853,8 +85150,11 @@
       <c r="JS100" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JT100" t="n">
+      <c r="JT100" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JU100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -85697,8 +85997,11 @@
       <c r="JS101" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JT101" t="n">
+      <c r="JT101" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JU101" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -86541,8 +86844,11 @@
       <c r="JS102" s="1" t="n">
         <v>81.8</v>
       </c>
-      <c r="JT102" t="n">
+      <c r="JT102" s="1" t="n">
         <v>100</v>
+      </c>
+      <c r="JU102" t="n">
+        <v>70.59999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Fremantle_stats.xlsx
+++ b/AFL_ML/Data/Fremantle_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JU102"/>
+  <dimension ref="A1:JV102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IA19" activeCellId="0" sqref="IA19"/>
@@ -1300,8 +1300,11 @@
       <c r="JT1" s="1" t="n">
         <v>10777</v>
       </c>
-      <c r="JU1" t="n">
+      <c r="JU1" s="1" t="n">
         <v>10780</v>
+      </c>
+      <c r="JV1" t="n">
+        <v>10788</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2147,7 +2150,10 @@
       <c r="JT2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="JU2" t="n">
+      <c r="JU2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JV2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2994,8 +3000,11 @@
       <c r="JT3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JU3" t="n">
+      <c r="JU3" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3841,8 +3850,11 @@
       <c r="JT4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JU4" t="n">
+      <c r="JU4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4688,7 +4700,10 @@
       <c r="JT5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JU5" t="n">
+      <c r="JU5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5535,8 +5550,11 @@
       <c r="JT6" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="JU6" t="n">
+      <c r="JU6" s="1" t="n">
         <v>72</v>
+      </c>
+      <c r="JV6" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6382,8 +6400,11 @@
       <c r="JT7" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="JU7" t="n">
+      <c r="JU7" s="1" t="n">
         <v>111</v>
+      </c>
+      <c r="JV7" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7229,8 +7250,11 @@
       <c r="JT8" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="JU8" t="n">
+      <c r="JU8" s="1" t="n">
         <v>-39</v>
+      </c>
+      <c r="JV8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8076,8 +8100,11 @@
       <c r="JT9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JU9" t="n">
+      <c r="JU9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="JV9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -8923,8 +8950,11 @@
       <c r="JT10" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="JU10" t="n">
+      <c r="JU10" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JV10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -9770,8 +9800,11 @@
       <c r="JT11" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="JU11" t="n">
+      <c r="JU11" s="1" t="n">
         <v>179</v>
+      </c>
+      <c r="JV11" t="n">
+        <v>196</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10617,8 +10650,11 @@
       <c r="JT12" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="JU12" t="n">
+      <c r="JU12" s="1" t="n">
         <v>155</v>
+      </c>
+      <c r="JV12" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11464,8 +11500,11 @@
       <c r="JT13" s="1" t="n">
         <v>362</v>
       </c>
-      <c r="JU13" t="n">
+      <c r="JU13" s="1" t="n">
         <v>334</v>
+      </c>
+      <c r="JV13" t="n">
+        <v>338</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12311,8 +12350,11 @@
       <c r="JT14" s="1" t="n">
         <v>1.14</v>
       </c>
-      <c r="JU14" t="n">
+      <c r="JU14" s="1" t="n">
         <v>1.15</v>
+      </c>
+      <c r="JV14" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13158,8 +13200,11 @@
       <c r="JT15" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="JU15" t="n">
+      <c r="JU15" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="JV15" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14005,8 +14050,11 @@
       <c r="JT16" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="JU16" t="n">
+      <c r="JU16" s="1" t="n">
         <v>67</v>
+      </c>
+      <c r="JV16" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -14852,8 +14900,11 @@
       <c r="JT17" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="JU17" t="n">
+      <c r="JU17" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="JV17" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -15699,8 +15750,11 @@
       <c r="JT18" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="JU18" t="n">
+      <c r="JU18" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="JV18" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -16546,8 +16600,11 @@
       <c r="JT19" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="JU19" t="n">
+      <c r="JU19" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="JV19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -17393,8 +17450,11 @@
       <c r="JT20" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="JU20" t="n">
+      <c r="JU20" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JV20" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -18240,8 +18300,11 @@
       <c r="JT21" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="JU21" t="n">
+      <c r="JU21" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JV21" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -19087,8 +19150,11 @@
       <c r="JT22" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JU22" t="n">
+      <c r="JU22" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JV22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -19934,8 +20000,11 @@
       <c r="JT23" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JU23" t="n">
+      <c r="JU23" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JV23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -20781,8 +20850,11 @@
       <c r="JT24" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="JU24" t="n">
+      <c r="JU24" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="JV24" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -21628,8 +21700,11 @@
       <c r="JT25" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="JU25" t="n">
+      <c r="JU25" s="1" t="n">
         <v>45.5</v>
+      </c>
+      <c r="JV25" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -22475,8 +22550,11 @@
       <c r="JT26" s="1" t="n">
         <v>22.62</v>
       </c>
-      <c r="JU26" t="n">
+      <c r="JU26" s="1" t="n">
         <v>33.4</v>
+      </c>
+      <c r="JV26" t="n">
+        <v>22.53</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -23322,8 +23400,11 @@
       <c r="JT27" s="1" t="n">
         <v>12.93</v>
       </c>
-      <c r="JU27" t="n">
+      <c r="JU27" s="1" t="n">
         <v>15.18</v>
+      </c>
+      <c r="JV27" t="n">
+        <v>13.52</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -24169,8 +24250,11 @@
       <c r="JT28" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="JU28" t="n">
+      <c r="JU28" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="JV28" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -25016,8 +25100,11 @@
       <c r="JT29" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="JU29" t="n">
+      <c r="JU29" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="JV29" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -25863,8 +25950,11 @@
       <c r="JT30" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="JU30" t="n">
+      <c r="JU30" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="JV30" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -26710,8 +26800,11 @@
       <c r="JT31" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="JU31" t="n">
+      <c r="JU31" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="JV31" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -27557,8 +27650,11 @@
       <c r="JT32" s="1" t="n">
         <v>2.25</v>
       </c>
-      <c r="JU32" t="n">
+      <c r="JU32" s="1" t="n">
         <v>2.32</v>
+      </c>
+      <c r="JV32" t="n">
+        <v>1.92</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -28404,8 +28500,11 @@
       <c r="JT33" s="1" t="n">
         <v>3.94</v>
       </c>
-      <c r="JU33" t="n">
+      <c r="JU33" s="1" t="n">
         <v>5.1</v>
+      </c>
+      <c r="JV33" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -29251,8 +29350,11 @@
       <c r="JT34" s="1" t="n">
         <v>38.1</v>
       </c>
-      <c r="JU34" t="n">
+      <c r="JU34" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="JV34" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -30098,8 +30200,11 @@
       <c r="JT35" s="1" t="n">
         <v>25.4</v>
       </c>
-      <c r="JU35" t="n">
+      <c r="JU35" s="1" t="n">
         <v>19.6</v>
+      </c>
+      <c r="JV35" t="n">
+        <v>31.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -30945,8 +31050,11 @@
       <c r="JT36" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="JU36" t="n">
+      <c r="JU36" s="1" t="n">
         <v>188</v>
+      </c>
+      <c r="JV36" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -31792,8 +31900,11 @@
       <c r="JT37" s="1" t="n">
         <v>86.8</v>
       </c>
-      <c r="JU37" t="n">
+      <c r="JU37" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="JV37" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -32639,8 +32750,11 @@
       <c r="JT38" s="1" t="n">
         <v>24.8</v>
       </c>
-      <c r="JU38" t="n">
+      <c r="JU38" s="1" t="n">
         <v>24.91</v>
+      </c>
+      <c r="JV38" t="n">
+        <v>24.66</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -33486,8 +33600,11 @@
       <c r="JT39" s="1" t="n">
         <v>77.2</v>
       </c>
-      <c r="JU39" t="n">
+      <c r="JU39" s="1" t="n">
         <v>79.3</v>
+      </c>
+      <c r="JV39" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -34333,8 +34450,11 @@
       <c r="JT40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JU40" t="n">
+      <c r="JU40" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JV40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -35180,8 +35300,11 @@
       <c r="JT41" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JU41" t="n">
+      <c r="JU41" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JV41" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -36027,8 +36150,11 @@
       <c r="JT42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JU42" t="n">
+      <c r="JU42" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JV42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -36874,8 +37000,11 @@
       <c r="JT43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JU43" t="n">
+      <c r="JU43" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="JV43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -37721,8 +37850,11 @@
       <c r="JT44" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="JU44" t="n">
+      <c r="JU44" s="1" t="n">
         <v>137</v>
+      </c>
+      <c r="JV44" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -38568,8 +38700,11 @@
       <c r="JT45" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="JU45" t="n">
+      <c r="JU45" s="1" t="n">
         <v>189</v>
+      </c>
+      <c r="JV45" t="n">
+        <v>213</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -39415,8 +39550,11 @@
       <c r="JT46" s="1" t="n">
         <v>265</v>
       </c>
-      <c r="JU46" t="n">
+      <c r="JU46" s="1" t="n">
         <v>239</v>
+      </c>
+      <c r="JV46" t="n">
+        <v>263</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -40262,8 +40400,11 @@
       <c r="JT47" s="1" t="n">
         <v>73.2</v>
       </c>
-      <c r="JU47" t="n">
+      <c r="JU47" s="1" t="n">
         <v>71.59999999999999</v>
+      </c>
+      <c r="JV47" t="n">
+        <v>77.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -41109,8 +41250,11 @@
       <c r="JT48" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="JU48" t="n">
+      <c r="JU48" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="JV48" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -41956,8 +42100,11 @@
       <c r="JT49" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JU49" t="n">
+      <c r="JU49" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="JV49" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -42803,8 +42950,11 @@
       <c r="JT50" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="JU50" t="n">
+      <c r="JU50" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JV50" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -43650,8 +43800,11 @@
       <c r="JT51" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="JU51" t="n">
+      <c r="JU51" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="JV51" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -44497,8 +44650,11 @@
       <c r="JT52" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="JU52" t="n">
+      <c r="JU52" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="JV52" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -45344,8 +45500,11 @@
       <c r="JT53" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="JU53" t="n">
+      <c r="JU53" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="JV53" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -46191,8 +46350,11 @@
       <c r="JT54" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JU54" t="n">
+      <c r="JU54" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JV54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -47038,8 +47200,11 @@
       <c r="JT55" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="JU55" t="n">
+      <c r="JU55" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JV55" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -47885,8 +48050,11 @@
       <c r="JT56" s="1" t="n">
         <v>87.5</v>
       </c>
-      <c r="JU56" t="n">
+      <c r="JU56" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="JV56" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -48732,8 +48900,11 @@
       <c r="JT57" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="JU57" t="n">
+      <c r="JU57" s="1" t="n">
         <v>222</v>
+      </c>
+      <c r="JV57" t="n">
+        <v>209</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -49579,8 +49750,11 @@
       <c r="JT58" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="JU58" t="n">
+      <c r="JU58" s="1" t="n">
         <v>158</v>
+      </c>
+      <c r="JV58" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -50426,8 +50600,11 @@
       <c r="JT59" s="1" t="n">
         <v>377</v>
       </c>
-      <c r="JU59" t="n">
+      <c r="JU59" s="1" t="n">
         <v>380</v>
+      </c>
+      <c r="JV59" t="n">
+        <v>288</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -51273,8 +51450,11 @@
       <c r="JT60" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="JU60" t="n">
+      <c r="JU60" s="1" t="n">
         <v>1.41</v>
+      </c>
+      <c r="JV60" t="n">
+        <v>2.65</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -52120,8 +52300,11 @@
       <c r="JT61" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="JU61" t="n">
+      <c r="JU61" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="JV61" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -52967,8 +53150,11 @@
       <c r="JT62" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="JU62" t="n">
+      <c r="JU62" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="JV62" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -53814,8 +54000,11 @@
       <c r="JT63" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="JU63" t="n">
+      <c r="JU63" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="JV63" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -54661,8 +54850,11 @@
       <c r="JT64" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="JU64" t="n">
+      <c r="JU64" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="JV64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -55508,8 +55700,11 @@
       <c r="JT65" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="JU65" t="n">
+      <c r="JU65" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="JV65" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -56355,8 +56550,11 @@
       <c r="JT66" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JU66" t="n">
+      <c r="JU66" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="JV66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -57202,8 +57400,11 @@
       <c r="JT67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JU67" t="n">
+      <c r="JU67" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="JV67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -58049,8 +58250,11 @@
       <c r="JT68" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JU68" t="n">
+      <c r="JU68" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JV68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -58896,8 +59100,11 @@
       <c r="JT69" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JU69" t="n">
+      <c r="JU69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="JV69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -59743,8 +59950,11 @@
       <c r="JT70" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="JU70" t="n">
+      <c r="JU70" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="JV70" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -60590,8 +60800,11 @@
       <c r="JT71" s="1" t="n">
         <v>40.9</v>
       </c>
-      <c r="JU71" t="n">
+      <c r="JU71" s="1" t="n">
         <v>65.40000000000001</v>
+      </c>
+      <c r="JV71" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -61437,8 +61650,11 @@
       <c r="JT72" s="1" t="n">
         <v>41.89</v>
       </c>
-      <c r="JU72" t="n">
+      <c r="JU72" s="1" t="n">
         <v>22.35</v>
+      </c>
+      <c r="JV72" t="n">
+        <v>22.15</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -62284,8 +62500,11 @@
       <c r="JT73" s="1" t="n">
         <v>17.14</v>
       </c>
-      <c r="JU73" t="n">
+      <c r="JU73" s="1" t="n">
         <v>14.62</v>
+      </c>
+      <c r="JV73" t="n">
+        <v>11.52</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -63131,8 +63350,11 @@
       <c r="JT74" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="JU74" t="n">
+      <c r="JU74" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="JV74" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -63978,8 +64200,11 @@
       <c r="JT75" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="JU75" t="n">
+      <c r="JU75" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="JV75" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -64825,8 +65050,11 @@
       <c r="JT76" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="JU76" t="n">
+      <c r="JU76" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="JV76" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -65672,8 +65900,11 @@
       <c r="JT77" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="JU77" t="n">
+      <c r="JU77" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="JV77" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -66519,8 +66750,11 @@
       <c r="JT78" s="1" t="n">
         <v>2.45</v>
       </c>
-      <c r="JU78" t="n">
+      <c r="JU78" s="1" t="n">
         <v>1.96</v>
+      </c>
+      <c r="JV78" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -67366,8 +67600,11 @@
       <c r="JT79" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JU79" t="n">
+      <c r="JU79" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="JV79" t="n">
+        <v>3.46</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -68213,8 +68450,11 @@
       <c r="JT80" s="1" t="n">
         <v>40.7</v>
       </c>
-      <c r="JU80" t="n">
+      <c r="JU80" s="1" t="n">
         <v>47.1</v>
+      </c>
+      <c r="JV80" t="n">
+        <v>53.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -69060,8 +69300,11 @@
       <c r="JT81" s="1" t="n">
         <v>16.7</v>
       </c>
-      <c r="JU81" t="n">
+      <c r="JU81" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="JV81" t="n">
+        <v>28.9</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -69907,8 +70150,11 @@
       <c r="JT82" s="1" t="n">
         <v>187.4</v>
       </c>
-      <c r="JU82" t="n">
+      <c r="JU82" s="1" t="n">
         <v>187.1</v>
+      </c>
+      <c r="JV82" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -70754,8 +71000,11 @@
       <c r="JT83" s="1" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="JU83" t="n">
+      <c r="JU83" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="JV83" t="n">
+        <v>85.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -71601,8 +71850,11 @@
       <c r="JT84" s="1" t="n">
         <v>26.33</v>
       </c>
-      <c r="JU84" t="n">
+      <c r="JU84" s="1" t="n">
         <v>24.74</v>
+      </c>
+      <c r="JV84" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -72448,8 +72700,11 @@
       <c r="JT85" s="1" t="n">
         <v>116.4</v>
       </c>
-      <c r="JU85" t="n">
+      <c r="JU85" s="1" t="n">
         <v>80.2</v>
+      </c>
+      <c r="JV85" t="n">
+        <v>88.90000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -73295,8 +73550,11 @@
       <c r="JT86" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JU86" t="n">
+      <c r="JU86" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JV86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -74142,8 +74400,11 @@
       <c r="JT87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JU87" t="n">
+      <c r="JU87" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JV87" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -74989,8 +75250,11 @@
       <c r="JT88" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JU88" t="n">
+      <c r="JU88" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="JV88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -75836,7 +76100,10 @@
       <c r="JT89" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JU89" t="n">
+      <c r="JU89" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JV89" t="n">
         <v>4</v>
       </c>
     </row>
@@ -76683,8 +76950,11 @@
       <c r="JT90" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="JU90" t="n">
+      <c r="JU90" s="1" t="n">
         <v>151</v>
+      </c>
+      <c r="JV90" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -77530,8 +77800,11 @@
       <c r="JT91" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="JU91" t="n">
+      <c r="JU91" s="1" t="n">
         <v>224</v>
+      </c>
+      <c r="JV91" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -78377,8 +78650,11 @@
       <c r="JT92" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="JU92" t="n">
+      <c r="JU92" s="1" t="n">
         <v>276</v>
+      </c>
+      <c r="JV92" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -79224,8 +79500,11 @@
       <c r="JT93" s="1" t="n">
         <v>73.2</v>
       </c>
-      <c r="JU93" t="n">
+      <c r="JU93" s="1" t="n">
         <v>72.59999999999999</v>
+      </c>
+      <c r="JV93" t="n">
+        <v>72.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -80071,8 +80350,11 @@
       <c r="JT94" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="JU94" t="n">
+      <c r="JU94" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="JV94" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -80918,8 +81200,11 @@
       <c r="JT95" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JU95" t="n">
+      <c r="JU95" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="JV95" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -81765,8 +82050,11 @@
       <c r="JT96" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JU96" t="n">
+      <c r="JU96" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="JV96" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -82612,8 +82900,11 @@
       <c r="JT97" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="JU97" t="n">
+      <c r="JU97" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="JV97" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -83459,8 +83750,11 @@
       <c r="JT98" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="JU98" t="n">
+      <c r="JU98" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="JV98" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -84306,8 +84600,11 @@
       <c r="JT99" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="JU99" t="n">
+      <c r="JU99" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="JV99" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -85153,8 +85450,11 @@
       <c r="JT100" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JU100" t="n">
+      <c r="JU100" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="JV100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -86000,8 +86300,11 @@
       <c r="JT101" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JU101" t="n">
+      <c r="JU101" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="JV101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -86847,8 +87150,11 @@
       <c r="JT102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="JU102" t="n">
+      <c r="JU102" s="1" t="n">
         <v>70.59999999999999</v>
+      </c>
+      <c r="JV102" t="n">
+        <v>69.2</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Fremantle_stats.xlsx
+++ b/AFL_ML/Data/Fremantle_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JY102"/>
+  <dimension ref="A1:KF102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IA19" activeCellId="0" sqref="IA19"/>
@@ -1312,7 +1312,28 @@
       <c r="JX1" s="1" t="n">
         <v>10796</v>
       </c>
-      <c r="JY1" t="n">
+      <c r="JY1" s="1" t="n">
+        <v>10796</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>10796</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>10796</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>10796</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>10796</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>10796</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>10796</v>
+      </c>
+      <c r="KF1" t="n">
         <v>10796</v>
       </c>
     </row>
@@ -2171,7 +2192,28 @@
       <c r="JX2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="JY2" t="n">
+      <c r="JY2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JZ2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KA2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KB2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KC2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KD2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KE2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KF2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3030,7 +3072,28 @@
       <c r="JX3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JY3" t="n">
+      <c r="JY3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JZ3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KA3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KB3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KC3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KD3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KE3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KF3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3889,7 +3952,28 @@
       <c r="JX4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JY4" t="n">
+      <c r="JY4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4748,7 +4832,28 @@
       <c r="JX5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JY5" t="n">
+      <c r="JY5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JZ5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KA5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KD5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KE5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KF5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5607,7 +5712,28 @@
       <c r="JX6" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="JY6" t="n">
+      <c r="JY6" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="JZ6" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="KA6" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="KB6" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="KC6" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="KD6" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="KE6" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="KF6" t="n">
         <v>69</v>
       </c>
     </row>
@@ -6466,7 +6592,28 @@
       <c r="JX7" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="JY7" t="n">
+      <c r="JY7" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="JZ7" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="KA7" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="KB7" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="KC7" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="KD7" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="KE7" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="KF7" t="n">
         <v>118</v>
       </c>
     </row>
@@ -7325,7 +7472,28 @@
       <c r="JX8" s="1" t="n">
         <v>-49</v>
       </c>
-      <c r="JY8" t="n">
+      <c r="JY8" s="1" t="n">
+        <v>-49</v>
+      </c>
+      <c r="JZ8" s="1" t="n">
+        <v>-49</v>
+      </c>
+      <c r="KA8" s="1" t="n">
+        <v>-49</v>
+      </c>
+      <c r="KB8" s="1" t="n">
+        <v>-49</v>
+      </c>
+      <c r="KC8" s="1" t="n">
+        <v>-49</v>
+      </c>
+      <c r="KD8" s="1" t="n">
+        <v>-49</v>
+      </c>
+      <c r="KE8" s="1" t="n">
+        <v>-49</v>
+      </c>
+      <c r="KF8" t="n">
         <v>-49</v>
       </c>
     </row>
@@ -8184,7 +8352,28 @@
       <c r="JX9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JY9" t="n">
+      <c r="JY9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9043,7 +9232,28 @@
       <c r="JX10" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="JY10" t="n">
+      <c r="JY10" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="JZ10" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="KA10" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="KB10" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="KC10" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="KD10" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="KE10" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="KF10" t="n">
         <v>18</v>
       </c>
     </row>
@@ -9902,7 +10112,28 @@
       <c r="JX11" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="JY11" t="n">
+      <c r="JY11" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="JZ11" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="KA11" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="KB11" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="KC11" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="KD11" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="KE11" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="KF11" t="n">
         <v>186</v>
       </c>
     </row>
@@ -10761,7 +10992,28 @@
       <c r="JX12" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="JY12" t="n">
+      <c r="JY12" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="JZ12" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="KA12" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="KB12" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="KC12" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="KD12" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="KE12" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="KF12" t="n">
         <v>151</v>
       </c>
     </row>
@@ -11620,7 +11872,28 @@
       <c r="JX13" s="1" t="n">
         <v>337</v>
       </c>
-      <c r="JY13" t="n">
+      <c r="JY13" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="JZ13" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="KA13" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="KB13" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="KC13" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="KD13" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="KE13" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="KF13" t="n">
         <v>337</v>
       </c>
     </row>
@@ -12479,7 +12752,28 @@
       <c r="JX14" s="1" t="n">
         <v>1.23</v>
       </c>
-      <c r="JY14" t="n">
+      <c r="JY14" s="1" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="JZ14" s="1" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="KA14" s="1" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="KB14" s="1" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="KC14" s="1" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="KD14" s="1" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="KE14" s="1" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="KF14" t="n">
         <v>1.23</v>
       </c>
     </row>
@@ -13338,7 +13632,28 @@
       <c r="JX15" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="JY15" t="n">
+      <c r="JY15" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="JZ15" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="KA15" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="KB15" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="KC15" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="KD15" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="KE15" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="KF15" t="n">
         <v>76</v>
       </c>
     </row>
@@ -14197,7 +14512,28 @@
       <c r="JX16" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="JY16" t="n">
+      <c r="JY16" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="JZ16" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="KA16" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="KB16" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="KC16" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="KD16" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="KE16" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="KF16" t="n">
         <v>57</v>
       </c>
     </row>
@@ -15056,7 +15392,28 @@
       <c r="JX17" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="JY17" t="n">
+      <c r="JY17" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="JZ17" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="KA17" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="KB17" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="KC17" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="KD17" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="KE17" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="KF17" t="n">
         <v>62</v>
       </c>
     </row>
@@ -15915,7 +16272,28 @@
       <c r="JX18" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="JY18" t="n">
+      <c r="JY18" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="JZ18" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="KA18" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="KB18" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="KC18" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="KD18" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="KE18" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="KF18" t="n">
         <v>15</v>
       </c>
     </row>
@@ -16774,7 +17152,28 @@
       <c r="JX19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="JY19" t="n">
+      <c r="JY19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="JZ19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="KA19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="KB19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="KC19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="KD19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="KE19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="KF19" t="n">
         <v>18</v>
       </c>
     </row>
@@ -17633,7 +18032,28 @@
       <c r="JX20" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JY20" t="n">
+      <c r="JY20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JZ20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KA20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KB20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KC20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KD20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KE20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KF20" t="n">
         <v>10</v>
       </c>
     </row>
@@ -18492,7 +18912,28 @@
       <c r="JX21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JY21" t="n">
+      <c r="JY21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KD21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF21" t="n">
         <v>7</v>
       </c>
     </row>
@@ -19351,7 +19792,28 @@
       <c r="JX22" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JY22" t="n">
+      <c r="JY22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KD22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF22" t="n">
         <v>7</v>
       </c>
     </row>
@@ -20210,7 +20672,28 @@
       <c r="JX23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JY23" t="n">
+      <c r="JY23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JZ23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KA23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KB23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KC23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KD23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KE23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KF23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -21069,7 +21552,28 @@
       <c r="JX24" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="JY24" t="n">
+      <c r="JY24" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="JZ24" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="KA24" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="KB24" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="KC24" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="KD24" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="KE24" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="KF24" t="n">
         <v>19</v>
       </c>
     </row>
@@ -21928,7 +22432,28 @@
       <c r="JX25" s="1" t="n">
         <v>52.6</v>
       </c>
-      <c r="JY25" t="n">
+      <c r="JY25" s="1" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="JZ25" s="1" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="KA25" s="1" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="KB25" s="1" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="KC25" s="1" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="KD25" s="1" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="KE25" s="1" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="KF25" t="n">
         <v>52.6</v>
       </c>
     </row>
@@ -22787,7 +23312,28 @@
       <c r="JX26" s="1" t="n">
         <v>33.7</v>
       </c>
-      <c r="JY26" t="n">
+      <c r="JY26" s="1" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="JZ26" s="1" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="KA26" s="1" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="KB26" s="1" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="KC26" s="1" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="KD26" s="1" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="KE26" s="1" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="KF26" t="n">
         <v>33.7</v>
       </c>
     </row>
@@ -23646,7 +24192,28 @@
       <c r="JX27" s="1" t="n">
         <v>17.74</v>
       </c>
-      <c r="JY27" t="n">
+      <c r="JY27" s="1" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="JZ27" s="1" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="KA27" s="1" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="KB27" s="1" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="KC27" s="1" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="KD27" s="1" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="KE27" s="1" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="KF27" t="n">
         <v>17.74</v>
       </c>
     </row>
@@ -24505,7 +25072,28 @@
       <c r="JX28" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="JY28" t="n">
+      <c r="JY28" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="JZ28" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KA28" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KB28" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KC28" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KD28" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KE28" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KF28" t="n">
         <v>42</v>
       </c>
     </row>
@@ -25364,7 +25952,28 @@
       <c r="JX29" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="JY29" t="n">
+      <c r="JY29" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JZ29" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KA29" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KB29" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KC29" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KD29" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KE29" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KF29" t="n">
         <v>43</v>
       </c>
     </row>
@@ -26223,7 +26832,28 @@
       <c r="JX30" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="JY30" t="n">
+      <c r="JY30" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="JZ30" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KA30" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KB30" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KC30" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KD30" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KE30" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KF30" t="n">
         <v>42</v>
       </c>
     </row>
@@ -27082,7 +27712,28 @@
       <c r="JX31" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="JY31" t="n">
+      <c r="JY31" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="JZ31" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="KA31" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="KB31" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="KC31" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="KD31" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="KE31" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="KF31" t="n">
         <v>44</v>
       </c>
     </row>
@@ -27941,7 +28592,28 @@
       <c r="JX32" s="1" t="n">
         <v>2.32</v>
       </c>
-      <c r="JY32" t="n">
+      <c r="JY32" s="1" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="JZ32" s="1" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="KA32" s="1" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="KB32" s="1" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="KC32" s="1" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="KD32" s="1" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="KE32" s="1" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="KF32" t="n">
         <v>2.32</v>
       </c>
     </row>
@@ -28800,7 +29472,28 @@
       <c r="JX33" s="1" t="n">
         <v>4.4</v>
       </c>
-      <c r="JY33" t="n">
+      <c r="JY33" s="1" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="JZ33" s="1" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="KA33" s="1" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="KB33" s="1" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="KC33" s="1" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="KD33" s="1" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="KE33" s="1" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="KF33" t="n">
         <v>4.4</v>
       </c>
     </row>
@@ -29659,7 +30352,28 @@
       <c r="JX34" s="1" t="n">
         <v>38.6</v>
       </c>
-      <c r="JY34" t="n">
+      <c r="JY34" s="1" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="JZ34" s="1" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="KA34" s="1" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="KB34" s="1" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="KC34" s="1" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="KD34" s="1" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="KE34" s="1" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="KF34" t="n">
         <v>38.6</v>
       </c>
     </row>
@@ -30518,7 +31232,28 @@
       <c r="JX35" s="1" t="n">
         <v>22.7</v>
       </c>
-      <c r="JY35" t="n">
+      <c r="JY35" s="1" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="JZ35" s="1" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="KA35" s="1" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="KB35" s="1" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="KC35" s="1" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="KD35" s="1" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="KE35" s="1" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="KF35" t="n">
         <v>22.7</v>
       </c>
     </row>
@@ -31377,7 +32112,28 @@
       <c r="JX36" s="1" t="n">
         <v>188.2</v>
       </c>
-      <c r="JY36" t="n">
+      <c r="JY36" s="1" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="JZ36" s="1" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="KA36" s="1" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="KB36" s="1" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="KC36" s="1" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="KD36" s="1" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="KE36" s="1" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="KF36" t="n">
         <v>188.2</v>
       </c>
     </row>
@@ -32236,7 +32992,28 @@
       <c r="JX37" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="JY37" t="n">
+      <c r="JY37" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="JZ37" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="KA37" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="KB37" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="KC37" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="KD37" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="KE37" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="KF37" t="n">
         <v>87</v>
       </c>
     </row>
@@ -33095,7 +33872,28 @@
       <c r="JX38" s="1" t="n">
         <v>24.66</v>
       </c>
-      <c r="JY38" t="n">
+      <c r="JY38" s="1" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="JZ38" s="1" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="KA38" s="1" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="KB38" s="1" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="KC38" s="1" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="KD38" s="1" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="KE38" s="1" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="KF38" t="n">
         <v>24.66</v>
       </c>
     </row>
@@ -33954,7 +34752,28 @@
       <c r="JX39" s="1" t="n">
         <v>71.8</v>
       </c>
-      <c r="JY39" t="n">
+      <c r="JY39" s="1" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="JZ39" s="1" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="KA39" s="1" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="KB39" s="1" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="KC39" s="1" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="KD39" s="1" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="KE39" s="1" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="KF39" t="n">
         <v>71.8</v>
       </c>
     </row>
@@ -34813,7 +35632,28 @@
       <c r="JX40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JY40" t="n">
+      <c r="JY40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JZ40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KA40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KB40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KC40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KD40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KE40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KF40" t="n">
         <v>8</v>
       </c>
     </row>
@@ -35672,7 +36512,28 @@
       <c r="JX41" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JY41" t="n">
+      <c r="JY41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JZ41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KA41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KB41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KC41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KD41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KE41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KF41" t="n">
         <v>10</v>
       </c>
     </row>
@@ -36531,7 +37392,28 @@
       <c r="JX42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JY42" t="n">
+      <c r="JY42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JZ42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KA42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KB42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KC42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KD42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KE42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KF42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37390,7 +38272,28 @@
       <c r="JX43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JY43" t="n">
+      <c r="JY43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JZ43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KA43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KD43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KE43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KF43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -38249,7 +39152,28 @@
       <c r="JX44" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="JY44" t="n">
+      <c r="JY44" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="JZ44" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="KA44" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="KB44" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="KC44" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="KD44" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="KE44" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="KF44" t="n">
         <v>129</v>
       </c>
     </row>
@@ -39108,7 +40032,28 @@
       <c r="JX45" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="JY45" t="n">
+      <c r="JY45" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="JZ45" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="KA45" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="KB45" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="KC45" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="KD45" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="KE45" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="KF45" t="n">
         <v>203</v>
       </c>
     </row>
@@ -39967,7 +40912,28 @@
       <c r="JX46" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="JY46" t="n">
+      <c r="JY46" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="JZ46" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="KA46" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="KB46" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="KC46" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="KD46" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="KE46" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="KF46" t="n">
         <v>249</v>
       </c>
     </row>
@@ -40826,7 +41792,28 @@
       <c r="JX47" s="1" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c r="JY47" t="n">
+      <c r="JY47" s="1" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="JZ47" s="1" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="KA47" s="1" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="KB47" s="1" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="KC47" s="1" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="KD47" s="1" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="KE47" s="1" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="KF47" t="n">
         <v>73.90000000000001</v>
       </c>
     </row>
@@ -41685,7 +42672,28 @@
       <c r="JX48" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="JY48" t="n">
+      <c r="JY48" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JZ48" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KA48" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KB48" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KC48" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KD48" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KE48" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KF48" t="n">
         <v>43</v>
       </c>
     </row>
@@ -42544,7 +43552,28 @@
       <c r="JX49" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="JY49" t="n">
+      <c r="JY49" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="JZ49" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="KA49" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="KB49" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="KC49" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="KD49" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="KE49" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="KF49" t="n">
         <v>12</v>
       </c>
     </row>
@@ -43403,7 +44432,28 @@
       <c r="JX50" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JY50" t="n">
+      <c r="JY50" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JZ50" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KA50" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KB50" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KC50" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KD50" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KE50" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KF50" t="n">
         <v>8</v>
       </c>
     </row>
@@ -44262,7 +45312,28 @@
       <c r="JX51" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="JY51" t="n">
+      <c r="JY51" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="JZ51" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KA51" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KB51" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KC51" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KD51" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KE51" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KF51" t="n">
         <v>42</v>
       </c>
     </row>
@@ -45121,7 +46192,28 @@
       <c r="JX52" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="JY52" t="n">
+      <c r="JY52" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="JZ52" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KA52" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KB52" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KC52" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KD52" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KE52" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KF52" t="n">
         <v>42</v>
       </c>
     </row>
@@ -45980,7 +47072,28 @@
       <c r="JX53" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="JY53" t="n">
+      <c r="JY53" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="JZ53" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="KA53" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="KB53" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="KC53" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="KD53" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="KE53" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="KF53" t="n">
         <v>48</v>
       </c>
     </row>
@@ -46839,7 +47952,28 @@
       <c r="JX54" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JY54" t="n">
+      <c r="JY54" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="JZ54" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KA54" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KB54" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KC54" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KD54" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KE54" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KF54" t="n">
         <v>4</v>
       </c>
     </row>
@@ -47698,7 +48832,28 @@
       <c r="JX55" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JY55" t="n">
+      <c r="JY55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KD55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF55" t="n">
         <v>7</v>
       </c>
     </row>
@@ -48557,7 +49712,28 @@
       <c r="JX56" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="JY56" t="n">
+      <c r="JY56" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="JZ56" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="KA56" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="KB56" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="KC56" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="KD56" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="KE56" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="KF56" t="n">
         <v>70</v>
       </c>
     </row>
@@ -49416,7 +50592,28 @@
       <c r="JX57" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="JY57" t="n">
+      <c r="JY57" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="JZ57" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="KA57" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="KB57" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="KC57" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="KD57" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="KE57" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="KF57" t="n">
         <v>207</v>
       </c>
     </row>
@@ -50275,7 +51472,28 @@
       <c r="JX58" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="JY58" t="n">
+      <c r="JY58" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="JZ58" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="KA58" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="KB58" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="KC58" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="KD58" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="KE58" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="KF58" t="n">
         <v>166</v>
       </c>
     </row>
@@ -51134,7 +52352,28 @@
       <c r="JX59" s="1" t="n">
         <v>373</v>
       </c>
-      <c r="JY59" t="n">
+      <c r="JY59" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="JZ59" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="KA59" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="KB59" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="KC59" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="KD59" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="KE59" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="KF59" t="n">
         <v>373</v>
       </c>
     </row>
@@ -51993,7 +53232,28 @@
       <c r="JX60" s="1" t="n">
         <v>1.25</v>
       </c>
-      <c r="JY60" t="n">
+      <c r="JY60" s="1" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="JZ60" s="1" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="KA60" s="1" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="KB60" s="1" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="KC60" s="1" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="KD60" s="1" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="KE60" s="1" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="KF60" t="n">
         <v>1.25</v>
       </c>
     </row>
@@ -52852,7 +54112,28 @@
       <c r="JX61" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="JY61" t="n">
+      <c r="JY61" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="JZ61" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="KA61" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="KB61" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="KC61" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="KD61" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="KE61" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="KF61" t="n">
         <v>81</v>
       </c>
     </row>
@@ -53711,7 +54992,28 @@
       <c r="JX62" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="JY62" t="n">
+      <c r="JY62" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="JZ62" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="KA62" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="KB62" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="KC62" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="KD62" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="KE62" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="KF62" t="n">
         <v>58</v>
       </c>
     </row>
@@ -54570,7 +55872,28 @@
       <c r="JX63" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="JY63" t="n">
+      <c r="JY63" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="JZ63" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KA63" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KB63" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KC63" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KD63" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KE63" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KF63" t="n">
         <v>42</v>
       </c>
     </row>
@@ -55429,7 +56752,28 @@
       <c r="JX64" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="JY64" t="n">
+      <c r="JY64" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="JZ64" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="KA64" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="KB64" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="KC64" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="KD64" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="KE64" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="KF64" t="n">
         <v>18</v>
       </c>
     </row>
@@ -56288,7 +57632,28 @@
       <c r="JX65" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="JY65" t="n">
+      <c r="JY65" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="JZ65" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="KA65" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="KB65" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="KC65" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="KD65" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="KE65" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="KF65" t="n">
         <v>15</v>
       </c>
     </row>
@@ -57147,7 +58512,28 @@
       <c r="JX66" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="JY66" t="n">
+      <c r="JY66" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="JZ66" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="KA66" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="KB66" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="KC66" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="KD66" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="KE66" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="KF66" t="n">
         <v>17</v>
       </c>
     </row>
@@ -58006,7 +59392,28 @@
       <c r="JX67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JY67" t="n">
+      <c r="JY67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JZ67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KA67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KB67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KC67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KD67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KE67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KF67" t="n">
         <v>9</v>
       </c>
     </row>
@@ -58865,7 +60272,28 @@
       <c r="JX68" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="JY68" t="n">
+      <c r="JY68" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JZ68" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="KA68" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="KB68" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="KC68" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="KD68" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="KE68" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="KF68" t="n">
         <v>14</v>
       </c>
     </row>
@@ -59724,7 +61152,28 @@
       <c r="JX69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JY69" t="n">
+      <c r="JY69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="JZ69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KA69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KB69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KC69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KD69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KE69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KF69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -60583,7 +62032,28 @@
       <c r="JX70" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="JY70" t="n">
+      <c r="JY70" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="JZ70" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="KA70" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="KB70" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="KC70" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="KD70" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="KE70" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="KF70" t="n">
         <v>33</v>
       </c>
     </row>
@@ -61442,7 +62912,28 @@
       <c r="JX71" s="1" t="n">
         <v>51.5</v>
       </c>
-      <c r="JY71" t="n">
+      <c r="JY71" s="1" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="JZ71" s="1" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="KA71" s="1" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="KB71" s="1" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="KC71" s="1" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="KD71" s="1" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="KE71" s="1" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="KF71" t="n">
         <v>51.5</v>
       </c>
     </row>
@@ -62301,7 +63792,28 @@
       <c r="JX72" s="1" t="n">
         <v>21.94</v>
       </c>
-      <c r="JY72" t="n">
+      <c r="JY72" s="1" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="JZ72" s="1" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="KA72" s="1" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="KB72" s="1" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="KC72" s="1" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="KD72" s="1" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="KE72" s="1" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="KF72" t="n">
         <v>21.94</v>
       </c>
     </row>
@@ -63160,7 +64672,28 @@
       <c r="JX73" s="1" t="n">
         <v>11.3</v>
       </c>
-      <c r="JY73" t="n">
+      <c r="JY73" s="1" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="JZ73" s="1" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="KA73" s="1" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="KB73" s="1" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="KC73" s="1" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="KD73" s="1" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="KE73" s="1" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="KF73" t="n">
         <v>11.3</v>
       </c>
     </row>
@@ -64019,7 +65552,28 @@
       <c r="JX74" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="JY74" t="n">
+      <c r="JY74" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JZ74" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KA74" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KB74" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KC74" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KD74" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KE74" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KF74" t="n">
         <v>43</v>
       </c>
     </row>
@@ -64878,7 +66432,28 @@
       <c r="JX75" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="JY75" t="n">
+      <c r="JY75" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="JZ75" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="KA75" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="KB75" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="KC75" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="KD75" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="KE75" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="KF75" t="n">
         <v>41</v>
       </c>
     </row>
@@ -65737,7 +67312,28 @@
       <c r="JX76" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="JY76" t="n">
+      <c r="JY76" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="JZ76" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KA76" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KB76" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KC76" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KD76" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KE76" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KF76" t="n">
         <v>34</v>
       </c>
     </row>
@@ -66596,7 +68192,28 @@
       <c r="JX77" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="JY77" t="n">
+      <c r="JY77" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="JZ77" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="KA77" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="KB77" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="KC77" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="KD77" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="KE77" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="KF77" t="n">
         <v>60</v>
       </c>
     </row>
@@ -67455,7 +69072,28 @@
       <c r="JX78" s="1" t="n">
         <v>1.82</v>
       </c>
-      <c r="JY78" t="n">
+      <c r="JY78" s="1" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="JZ78" s="1" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="KA78" s="1" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="KB78" s="1" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="KC78" s="1" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="KD78" s="1" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="KE78" s="1" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="KF78" t="n">
         <v>1.82</v>
       </c>
     </row>
@@ -68314,7 +69952,28 @@
       <c r="JX79" s="1" t="n">
         <v>3.53</v>
       </c>
-      <c r="JY79" t="n">
+      <c r="JY79" s="1" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="JZ79" s="1" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="KA79" s="1" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="KB79" s="1" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="KC79" s="1" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="KD79" s="1" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="KE79" s="1" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="KF79" t="n">
         <v>3.53</v>
       </c>
     </row>
@@ -69173,7 +70832,28 @@
       <c r="JX80" s="1" t="n">
         <v>51.7</v>
       </c>
-      <c r="JY80" t="n">
+      <c r="JY80" s="1" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="JZ80" s="1" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="KA80" s="1" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="KB80" s="1" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="KC80" s="1" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="KD80" s="1" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="KE80" s="1" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="KF80" t="n">
         <v>51.7</v>
       </c>
     </row>
@@ -70032,7 +71712,28 @@
       <c r="JX81" s="1" t="n">
         <v>28.3</v>
       </c>
-      <c r="JY81" t="n">
+      <c r="JY81" s="1" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="JZ81" s="1" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="KA81" s="1" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="KB81" s="1" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="KC81" s="1" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="KD81" s="1" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="KE81" s="1" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="KF81" t="n">
         <v>28.3</v>
       </c>
     </row>
@@ -70891,7 +72592,28 @@
       <c r="JX82" s="1" t="n">
         <v>188.3</v>
       </c>
-      <c r="JY82" t="n">
+      <c r="JY82" s="1" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="JZ82" s="1" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="KA82" s="1" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="KB82" s="1" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="KC82" s="1" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="KD82" s="1" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="KE82" s="1" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="KF82" t="n">
         <v>188.3</v>
       </c>
     </row>
@@ -71750,7 +73472,28 @@
       <c r="JX83" s="1" t="n">
         <v>86.7</v>
       </c>
-      <c r="JY83" t="n">
+      <c r="JY83" s="1" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="JZ83" s="1" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="KA83" s="1" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="KB83" s="1" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="KC83" s="1" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="KD83" s="1" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="KE83" s="1" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="KF83" t="n">
         <v>86.7</v>
       </c>
     </row>
@@ -72609,7 +74352,28 @@
       <c r="JX84" s="1" t="n">
         <v>26.91</v>
       </c>
-      <c r="JY84" t="n">
+      <c r="JY84" s="1" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="JZ84" s="1" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="KA84" s="1" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="KB84" s="1" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="KC84" s="1" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="KD84" s="1" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="KE84" s="1" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="KF84" t="n">
         <v>26.91</v>
       </c>
     </row>
@@ -73468,7 +75232,28 @@
       <c r="JX85" s="1" t="n">
         <v>114.7</v>
       </c>
-      <c r="JY85" t="n">
+      <c r="JY85" s="1" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="JZ85" s="1" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KA85" s="1" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KB85" s="1" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KC85" s="1" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KD85" s="1" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KE85" s="1" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KF85" t="n">
         <v>114.7</v>
       </c>
     </row>
@@ -74327,7 +76112,28 @@
       <c r="JX86" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JY86" t="n">
+      <c r="JY86" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JZ86" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KA86" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KB86" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KC86" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KD86" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KE86" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KF86" t="n">
         <v>6</v>
       </c>
     </row>
@@ -75186,7 +76992,28 @@
       <c r="JX87" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JY87" t="n">
+      <c r="JY87" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JZ87" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KA87" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KB87" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KC87" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KD87" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KE87" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KF87" t="n">
         <v>3</v>
       </c>
     </row>
@@ -76045,7 +77872,28 @@
       <c r="JX88" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JY88" t="n">
+      <c r="JY88" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="JZ88" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KA88" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KB88" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KC88" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KD88" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KE88" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KF88" t="n">
         <v>6</v>
       </c>
     </row>
@@ -76904,7 +78752,28 @@
       <c r="JX89" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JY89" t="n">
+      <c r="JY89" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JZ89" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KA89" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KB89" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KC89" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KD89" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KE89" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KF89" t="n">
         <v>8</v>
       </c>
     </row>
@@ -77763,7 +79632,28 @@
       <c r="JX90" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="JY90" t="n">
+      <c r="JY90" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="JZ90" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="KA90" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="KB90" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="KC90" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="KD90" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="KE90" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="KF90" t="n">
         <v>154</v>
       </c>
     </row>
@@ -78622,7 +80512,28 @@
       <c r="JX91" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="JY91" t="n">
+      <c r="JY91" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="JZ91" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="KA91" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="KB91" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="KC91" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="KD91" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="KE91" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="KF91" t="n">
         <v>223</v>
       </c>
     </row>
@@ -79481,7 +81392,28 @@
       <c r="JX92" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="JY92" t="n">
+      <c r="JY92" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="JZ92" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="KA92" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="KB92" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="KC92" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="KD92" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="KE92" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="KF92" t="n">
         <v>281</v>
       </c>
     </row>
@@ -80340,7 +82272,28 @@
       <c r="JX93" s="1" t="n">
         <v>75.3</v>
       </c>
-      <c r="JY93" t="n">
+      <c r="JY93" s="1" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="JZ93" s="1" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="KA93" s="1" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="KB93" s="1" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="KC93" s="1" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="KD93" s="1" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="KE93" s="1" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="KF93" t="n">
         <v>75.3</v>
       </c>
     </row>
@@ -81199,7 +83152,28 @@
       <c r="JX94" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="JY94" t="n">
+      <c r="JY94" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="JZ94" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="KA94" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="KB94" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="KC94" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="KD94" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="KE94" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="KF94" t="n">
         <v>41</v>
       </c>
     </row>
@@ -82058,7 +84032,28 @@
       <c r="JX95" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="JY95" t="n">
+      <c r="JY95" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="JZ95" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="KA95" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="KB95" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="KC95" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="KD95" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="KE95" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="KF95" t="n">
         <v>14</v>
       </c>
     </row>
@@ -82917,7 +84912,28 @@
       <c r="JX96" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="JY96" t="n">
+      <c r="JY96" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="JZ96" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="KA96" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="KB96" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="KC96" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="KD96" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="KE96" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="KF96" t="n">
         <v>16</v>
       </c>
     </row>
@@ -83776,7 +85792,28 @@
       <c r="JX97" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="JY97" t="n">
+      <c r="JY97" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="JZ97" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KA97" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KB97" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KC97" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KD97" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KE97" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KF97" t="n">
         <v>43</v>
       </c>
     </row>
@@ -84635,7 +86672,28 @@
       <c r="JX98" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="JY98" t="n">
+      <c r="JY98" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="JZ98" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KA98" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KB98" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KC98" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KD98" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KE98" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KF98" t="n">
         <v>34</v>
       </c>
     </row>
@@ -85494,7 +87552,28 @@
       <c r="JX99" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="JY99" t="n">
+      <c r="JY99" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="JZ99" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="KA99" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="KB99" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="KC99" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="KD99" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="KE99" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="KF99" t="n">
         <v>55</v>
       </c>
     </row>
@@ -86353,7 +88432,28 @@
       <c r="JX100" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JY100" t="n">
+      <c r="JY100" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JZ100" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KA100" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KB100" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KC100" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KD100" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KE100" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KF100" t="n">
         <v>10</v>
       </c>
     </row>
@@ -87212,7 +89312,28 @@
       <c r="JX101" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JY101" t="n">
+      <c r="JY101" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="JZ101" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KA101" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KB101" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KC101" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KD101" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KE101" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KF101" t="n">
         <v>9</v>
       </c>
     </row>
@@ -88071,7 +90192,28 @@
       <c r="JX102" s="1" t="n">
         <v>52.9</v>
       </c>
-      <c r="JY102" t="n">
+      <c r="JY102" s="1" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="JZ102" s="1" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="KA102" s="1" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="KB102" s="1" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="KC102" s="1" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="KD102" s="1" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="KE102" s="1" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="KF102" t="n">
         <v>52.9</v>
       </c>
     </row>

--- a/AFL_ML/Data/Fremantle_stats.xlsx
+++ b/AFL_ML/Data/Fremantle_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KF102"/>
+  <dimension ref="A1:KG102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IA19" activeCellId="0" sqref="IA19"/>
@@ -1333,8 +1333,11 @@
       <c r="KE1" s="1" t="n">
         <v>10796</v>
       </c>
-      <c r="KF1" t="n">
+      <c r="KF1" s="1" t="n">
         <v>10796</v>
+      </c>
+      <c r="KG1" t="n">
+        <v>10806</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2213,7 +2216,10 @@
       <c r="KE2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KF2" t="n">
+      <c r="KF2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KG2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3093,8 +3099,11 @@
       <c r="KE3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KF3" t="n">
+      <c r="KF3" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3973,8 +3982,11 @@
       <c r="KE4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KF4" t="n">
+      <c r="KF4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4853,8 +4865,11 @@
       <c r="KE5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KF5" t="n">
+      <c r="KF5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KG5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -5733,8 +5748,11 @@
       <c r="KE6" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="KF6" t="n">
+      <c r="KF6" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="KG6" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6613,8 +6631,11 @@
       <c r="KE7" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="KF7" t="n">
+      <c r="KF7" s="1" t="n">
         <v>118</v>
+      </c>
+      <c r="KG7" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7493,8 +7514,11 @@
       <c r="KE8" s="1" t="n">
         <v>-49</v>
       </c>
-      <c r="KF8" t="n">
+      <c r="KF8" s="1" t="n">
         <v>-49</v>
+      </c>
+      <c r="KG8" t="n">
+        <v>-48</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8373,7 +8397,10 @@
       <c r="KE9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KF9" t="n">
+      <c r="KF9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9253,8 +9280,11 @@
       <c r="KE10" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="KF10" t="n">
+      <c r="KF10" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="KG10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10133,8 +10163,11 @@
       <c r="KE11" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="KF11" t="n">
+      <c r="KF11" s="1" t="n">
         <v>186</v>
+      </c>
+      <c r="KG11" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11013,8 +11046,11 @@
       <c r="KE12" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="KF12" t="n">
+      <c r="KF12" s="1" t="n">
         <v>151</v>
+      </c>
+      <c r="KG12" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11893,8 +11929,11 @@
       <c r="KE13" s="1" t="n">
         <v>337</v>
       </c>
-      <c r="KF13" t="n">
+      <c r="KF13" s="1" t="n">
         <v>337</v>
+      </c>
+      <c r="KG13" t="n">
+        <v>381</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12773,8 +12812,11 @@
       <c r="KE14" s="1" t="n">
         <v>1.23</v>
       </c>
-      <c r="KF14" t="n">
+      <c r="KF14" s="1" t="n">
         <v>1.23</v>
+      </c>
+      <c r="KG14" t="n">
+        <v>0.96</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13653,8 +13695,11 @@
       <c r="KE15" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="KF15" t="n">
+      <c r="KF15" s="1" t="n">
         <v>76</v>
+      </c>
+      <c r="KG15" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14533,7 +14578,10 @@
       <c r="KE16" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="KF16" t="n">
+      <c r="KF16" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="KG16" t="n">
         <v>57</v>
       </c>
     </row>
@@ -15413,8 +15461,11 @@
       <c r="KE17" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="KF17" t="n">
+      <c r="KF17" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="KG17" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -16293,8 +16344,11 @@
       <c r="KE18" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KF18" t="n">
+      <c r="KF18" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KG18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -17173,8 +17227,11 @@
       <c r="KE19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="KF19" t="n">
+      <c r="KF19" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="KG19" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -18053,7 +18110,10 @@
       <c r="KE20" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KF20" t="n">
+      <c r="KF20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KG20" t="n">
         <v>10</v>
       </c>
     </row>
@@ -18933,7 +18993,10 @@
       <c r="KE21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KF21" t="n">
+      <c r="KF21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KG21" t="n">
         <v>7</v>
       </c>
     </row>
@@ -19813,8 +19876,11 @@
       <c r="KE22" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KF22" t="n">
+      <c r="KF22" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KG22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -20693,8 +20759,11 @@
       <c r="KE23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KF23" t="n">
+      <c r="KF23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KG23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -21573,8 +21642,11 @@
       <c r="KE24" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="KF24" t="n">
+      <c r="KF24" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="KG24" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -22453,8 +22525,11 @@
       <c r="KE25" s="1" t="n">
         <v>52.6</v>
       </c>
-      <c r="KF25" t="n">
+      <c r="KF25" s="1" t="n">
         <v>52.6</v>
+      </c>
+      <c r="KG25" t="n">
+        <v>58.8</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -23333,8 +23408,11 @@
       <c r="KE26" s="1" t="n">
         <v>33.7</v>
       </c>
-      <c r="KF26" t="n">
+      <c r="KF26" s="1" t="n">
         <v>33.7</v>
+      </c>
+      <c r="KG26" t="n">
+        <v>38.1</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -24213,8 +24291,11 @@
       <c r="KE27" s="1" t="n">
         <v>17.74</v>
       </c>
-      <c r="KF27" t="n">
+      <c r="KF27" s="1" t="n">
         <v>17.74</v>
+      </c>
+      <c r="KG27" t="n">
+        <v>22.41</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -25093,8 +25174,11 @@
       <c r="KE28" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KF28" t="n">
+      <c r="KF28" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="KG28" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -25973,8 +26057,11 @@
       <c r="KE29" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="KF29" t="n">
+      <c r="KF29" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="KG29" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -26853,8 +26940,11 @@
       <c r="KE30" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KF30" t="n">
+      <c r="KF30" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="KG30" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -27733,8 +27823,11 @@
       <c r="KE31" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="KF31" t="n">
+      <c r="KF31" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="KG31" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -28613,8 +28706,11 @@
       <c r="KE32" s="1" t="n">
         <v>2.32</v>
       </c>
-      <c r="KF32" t="n">
+      <c r="KF32" s="1" t="n">
         <v>2.32</v>
+      </c>
+      <c r="KG32" t="n">
+        <v>2.47</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -29493,8 +29589,11 @@
       <c r="KE33" s="1" t="n">
         <v>4.4</v>
       </c>
-      <c r="KF33" t="n">
+      <c r="KF33" s="1" t="n">
         <v>4.4</v>
+      </c>
+      <c r="KG33" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -30373,8 +30472,11 @@
       <c r="KE34" s="1" t="n">
         <v>38.6</v>
       </c>
-      <c r="KF34" t="n">
+      <c r="KF34" s="1" t="n">
         <v>38.6</v>
+      </c>
+      <c r="KG34" t="n">
+        <v>38.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -31253,8 +31355,11 @@
       <c r="KE35" s="1" t="n">
         <v>22.7</v>
       </c>
-      <c r="KF35" t="n">
+      <c r="KF35" s="1" t="n">
         <v>22.7</v>
+      </c>
+      <c r="KG35" t="n">
+        <v>23.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -32133,8 +32238,11 @@
       <c r="KE36" s="1" t="n">
         <v>188.2</v>
       </c>
-      <c r="KF36" t="n">
+      <c r="KF36" s="1" t="n">
         <v>188.2</v>
+      </c>
+      <c r="KG36" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -33013,8 +33121,11 @@
       <c r="KE37" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="KF37" t="n">
+      <c r="KF37" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="KG37" t="n">
+        <v>86.8</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -33893,8 +34004,11 @@
       <c r="KE38" s="1" t="n">
         <v>24.66</v>
       </c>
-      <c r="KF38" t="n">
+      <c r="KF38" s="1" t="n">
         <v>24.66</v>
+      </c>
+      <c r="KG38" t="n">
+        <v>24.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -34773,8 +34887,11 @@
       <c r="KE39" s="1" t="n">
         <v>71.8</v>
       </c>
-      <c r="KF39" t="n">
+      <c r="KF39" s="1" t="n">
         <v>71.8</v>
+      </c>
+      <c r="KG39" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -35653,8 +35770,11 @@
       <c r="KE40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KF40" t="n">
+      <c r="KF40" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KG40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -36533,8 +36653,11 @@
       <c r="KE41" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KF41" t="n">
+      <c r="KF41" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KG41" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -37413,8 +37536,11 @@
       <c r="KE42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KF42" t="n">
+      <c r="KF42" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KG42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -38293,8 +38419,11 @@
       <c r="KE43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KF43" t="n">
+      <c r="KF43" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KG43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -39173,8 +39302,11 @@
       <c r="KE44" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="KF44" t="n">
+      <c r="KF44" s="1" t="n">
         <v>129</v>
+      </c>
+      <c r="KG44" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -40053,8 +40185,11 @@
       <c r="KE45" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="KF45" t="n">
+      <c r="KF45" s="1" t="n">
         <v>203</v>
+      </c>
+      <c r="KG45" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -40933,8 +41068,11 @@
       <c r="KE46" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="KF46" t="n">
+      <c r="KF46" s="1" t="n">
         <v>249</v>
+      </c>
+      <c r="KG46" t="n">
+        <v>286</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -41813,8 +41951,11 @@
       <c r="KE47" s="1" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c r="KF47" t="n">
+      <c r="KF47" s="1" t="n">
         <v>73.90000000000001</v>
+      </c>
+      <c r="KG47" t="n">
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -42693,8 +42834,11 @@
       <c r="KE48" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="KF48" t="n">
+      <c r="KF48" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="KG48" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -43573,7 +43717,10 @@
       <c r="KE49" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KF49" t="n">
+      <c r="KF49" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="KG49" t="n">
         <v>12</v>
       </c>
     </row>
@@ -44453,8 +44600,11 @@
       <c r="KE50" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KF50" t="n">
+      <c r="KF50" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KG50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -45333,8 +45483,11 @@
       <c r="KE51" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KF51" t="n">
+      <c r="KF51" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="KG51" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -46213,8 +46366,11 @@
       <c r="KE52" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KF52" t="n">
+      <c r="KF52" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="KG52" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -47093,8 +47249,11 @@
       <c r="KE53" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="KF53" t="n">
+      <c r="KF53" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="KG53" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -47973,8 +48132,11 @@
       <c r="KE54" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KF54" t="n">
+      <c r="KF54" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KG54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -48853,7 +49015,10 @@
       <c r="KE55" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KF55" t="n">
+      <c r="KF55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KG55" t="n">
         <v>7</v>
       </c>
     </row>
@@ -49733,7 +49898,10 @@
       <c r="KE56" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="KF56" t="n">
+      <c r="KF56" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="KG56" t="n">
         <v>70</v>
       </c>
     </row>
@@ -50613,8 +50781,11 @@
       <c r="KE57" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="KF57" t="n">
+      <c r="KF57" s="1" t="n">
         <v>207</v>
+      </c>
+      <c r="KG57" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -51493,8 +51664,11 @@
       <c r="KE58" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="KF58" t="n">
+      <c r="KF58" s="1" t="n">
         <v>166</v>
+      </c>
+      <c r="KG58" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -52373,7 +52547,10 @@
       <c r="KE59" s="1" t="n">
         <v>373</v>
       </c>
-      <c r="KF59" t="n">
+      <c r="KF59" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="KG59" t="n">
         <v>373</v>
       </c>
     </row>
@@ -53253,8 +53430,11 @@
       <c r="KE60" s="1" t="n">
         <v>1.25</v>
       </c>
-      <c r="KF60" t="n">
+      <c r="KF60" s="1" t="n">
         <v>1.25</v>
+      </c>
+      <c r="KG60" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -54133,8 +54313,11 @@
       <c r="KE61" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="KF61" t="n">
+      <c r="KF61" s="1" t="n">
         <v>81</v>
+      </c>
+      <c r="KG61" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -55013,7 +55196,10 @@
       <c r="KE62" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="KF62" t="n">
+      <c r="KF62" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="KG62" t="n">
         <v>58</v>
       </c>
     </row>
@@ -55893,8 +56079,11 @@
       <c r="KE63" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KF63" t="n">
+      <c r="KF63" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="KG63" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -56773,8 +56962,11 @@
       <c r="KE64" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="KF64" t="n">
+      <c r="KF64" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="KG64" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -57653,8 +57845,11 @@
       <c r="KE65" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KF65" t="n">
+      <c r="KF65" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KG65" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -58533,7 +58728,10 @@
       <c r="KE66" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KF66" t="n">
+      <c r="KF66" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="KG66" t="n">
         <v>17</v>
       </c>
     </row>
@@ -59413,8 +59611,11 @@
       <c r="KE67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KF67" t="n">
+      <c r="KF67" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KG67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -60293,8 +60494,11 @@
       <c r="KE68" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KF68" t="n">
+      <c r="KF68" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KG68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -61173,8 +61377,11 @@
       <c r="KE69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KF69" t="n">
+      <c r="KF69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KG69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -62053,8 +62260,11 @@
       <c r="KE70" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="KF70" t="n">
+      <c r="KF70" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="KG70" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -62933,8 +63143,11 @@
       <c r="KE71" s="1" t="n">
         <v>51.5</v>
       </c>
-      <c r="KF71" t="n">
+      <c r="KF71" s="1" t="n">
         <v>51.5</v>
+      </c>
+      <c r="KG71" t="n">
+        <v>56.7</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -63813,7 +64026,10 @@
       <c r="KE72" s="1" t="n">
         <v>21.94</v>
       </c>
-      <c r="KF72" t="n">
+      <c r="KF72" s="1" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="KG72" t="n">
         <v>21.94</v>
       </c>
     </row>
@@ -64693,8 +64909,11 @@
       <c r="KE73" s="1" t="n">
         <v>11.3</v>
       </c>
-      <c r="KF73" t="n">
+      <c r="KF73" s="1" t="n">
         <v>11.3</v>
+      </c>
+      <c r="KG73" t="n">
+        <v>12.43</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -65573,8 +65792,11 @@
       <c r="KE74" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="KF74" t="n">
+      <c r="KF74" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="KG74" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -66453,8 +66675,11 @@
       <c r="KE75" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="KF75" t="n">
+      <c r="KF75" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="KG75" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -67333,8 +67558,11 @@
       <c r="KE76" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="KF76" t="n">
+      <c r="KF76" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="KG76" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -68213,8 +68441,11 @@
       <c r="KE77" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="KF77" t="n">
+      <c r="KF77" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="KG77" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -69093,8 +69324,11 @@
       <c r="KE78" s="1" t="n">
         <v>1.82</v>
       </c>
-      <c r="KF78" t="n">
+      <c r="KF78" s="1" t="n">
         <v>1.82</v>
+      </c>
+      <c r="KG78" t="n">
+        <v>2.07</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -69973,8 +70207,11 @@
       <c r="KE79" s="1" t="n">
         <v>3.53</v>
       </c>
-      <c r="KF79" t="n">
+      <c r="KF79" s="1" t="n">
         <v>3.53</v>
+      </c>
+      <c r="KG79" t="n">
+        <v>3.65</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -70853,8 +71090,11 @@
       <c r="KE80" s="1" t="n">
         <v>51.7</v>
       </c>
-      <c r="KF80" t="n">
+      <c r="KF80" s="1" t="n">
         <v>51.7</v>
+      </c>
+      <c r="KG80" t="n">
+        <v>43.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -71733,8 +71973,11 @@
       <c r="KE81" s="1" t="n">
         <v>28.3</v>
       </c>
-      <c r="KF81" t="n">
+      <c r="KF81" s="1" t="n">
         <v>28.3</v>
+      </c>
+      <c r="KG81" t="n">
+        <v>27.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -72613,8 +72856,11 @@
       <c r="KE82" s="1" t="n">
         <v>188.3</v>
       </c>
-      <c r="KF82" t="n">
+      <c r="KF82" s="1" t="n">
         <v>188.3</v>
+      </c>
+      <c r="KG82" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -73493,8 +73739,11 @@
       <c r="KE83" s="1" t="n">
         <v>86.7</v>
       </c>
-      <c r="KF83" t="n">
+      <c r="KF83" s="1" t="n">
         <v>86.7</v>
+      </c>
+      <c r="KG83" t="n">
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -74373,8 +74622,11 @@
       <c r="KE84" s="1" t="n">
         <v>26.91</v>
       </c>
-      <c r="KF84" t="n">
+      <c r="KF84" s="1" t="n">
         <v>26.91</v>
+      </c>
+      <c r="KG84" t="n">
+        <v>26.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -75253,8 +75505,11 @@
       <c r="KE85" s="1" t="n">
         <v>114.7</v>
       </c>
-      <c r="KF85" t="n">
+      <c r="KF85" s="1" t="n">
         <v>114.7</v>
+      </c>
+      <c r="KG85" t="n">
+        <v>125.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -76133,8 +76388,11 @@
       <c r="KE86" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KF86" t="n">
+      <c r="KF86" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KG86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -77013,8 +77271,11 @@
       <c r="KE87" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KF87" t="n">
+      <c r="KF87" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KG87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -77893,8 +78154,11 @@
       <c r="KE88" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KF88" t="n">
+      <c r="KF88" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KG88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -78773,7 +79037,10 @@
       <c r="KE89" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KF89" t="n">
+      <c r="KF89" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KG89" t="n">
         <v>8</v>
       </c>
     </row>
@@ -79653,8 +79920,11 @@
       <c r="KE90" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="KF90" t="n">
+      <c r="KF90" s="1" t="n">
         <v>154</v>
+      </c>
+      <c r="KG90" t="n">
+        <v>157</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -80533,8 +80803,11 @@
       <c r="KE91" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="KF91" t="n">
+      <c r="KF91" s="1" t="n">
         <v>223</v>
+      </c>
+      <c r="KG91" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -81413,8 +81686,11 @@
       <c r="KE92" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="KF92" t="n">
+      <c r="KF92" s="1" t="n">
         <v>281</v>
+      </c>
+      <c r="KG92" t="n">
+        <v>264</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -82293,8 +82569,11 @@
       <c r="KE93" s="1" t="n">
         <v>75.3</v>
       </c>
-      <c r="KF93" t="n">
+      <c r="KF93" s="1" t="n">
         <v>75.3</v>
+      </c>
+      <c r="KG93" t="n">
+        <v>70.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -83173,8 +83452,11 @@
       <c r="KE94" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="KF94" t="n">
+      <c r="KF94" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="KG94" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -84053,8 +84335,11 @@
       <c r="KE95" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KF95" t="n">
+      <c r="KF95" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KG95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -84933,7 +85218,10 @@
       <c r="KE96" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KF96" t="n">
+      <c r="KF96" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="KG96" t="n">
         <v>16</v>
       </c>
     </row>
@@ -85813,8 +86101,11 @@
       <c r="KE97" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="KF97" t="n">
+      <c r="KF97" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="KG97" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -86693,8 +86984,11 @@
       <c r="KE98" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="KF98" t="n">
+      <c r="KF98" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="KG98" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -87573,8 +87867,11 @@
       <c r="KE99" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="KF99" t="n">
+      <c r="KF99" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="KG99" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -88453,8 +88750,11 @@
       <c r="KE100" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KF100" t="n">
+      <c r="KF100" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KG100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -89333,8 +89633,11 @@
       <c r="KE101" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KF101" t="n">
+      <c r="KF101" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KG101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -90213,8 +90516,11 @@
       <c r="KE102" s="1" t="n">
         <v>52.9</v>
       </c>
-      <c r="KF102" t="n">
+      <c r="KF102" s="1" t="n">
         <v>52.9</v>
+      </c>
+      <c r="KG102" t="n">
+        <v>64.7</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Fremantle_stats.xlsx
+++ b/AFL_ML/Data/Fremantle_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KN102"/>
+  <dimension ref="A1:KO102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KD90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KJ94" activeCellId="0" sqref="KJ94"/>
@@ -1361,8 +1361,11 @@
       <c r="KM1" s="2" t="n">
         <v>10843</v>
       </c>
-      <c r="KN1" t="n">
+      <c r="KN1" s="2" t="n">
         <v>10861</v>
+      </c>
+      <c r="KO1" t="n">
+        <v>10867</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2265,7 +2268,10 @@
       <c r="KM2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KN2" t="n">
+      <c r="KN2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KO2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3169,8 +3175,11 @@
       <c r="KM3" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KN3" t="n">
+      <c r="KN3" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4073,8 +4082,11 @@
       <c r="KM4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KN4" t="n">
+      <c r="KN4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4977,8 +4989,11 @@
       <c r="KM5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KN5" t="n">
+      <c r="KN5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KO5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5881,8 +5896,11 @@
       <c r="KM6" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="KN6" t="n">
+      <c r="KN6" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="KO6" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6785,8 +6803,11 @@
       <c r="KM7" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KN7" t="n">
+      <c r="KN7" s="2" t="n">
         <v>85</v>
+      </c>
+      <c r="KO7" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7689,8 +7710,11 @@
       <c r="KM8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KN8" t="n">
+      <c r="KN8" s="2" t="n">
         <v>-15</v>
+      </c>
+      <c r="KO8" t="n">
+        <v>-70</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8593,7 +8617,10 @@
       <c r="KM9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KN9" t="n">
+      <c r="KN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9497,8 +9524,11 @@
       <c r="KM10" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KN10" t="n">
+      <c r="KN10" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KO10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10401,8 +10431,11 @@
       <c r="KM11" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="KN11" t="n">
+      <c r="KN11" s="2" t="n">
         <v>199</v>
+      </c>
+      <c r="KO11" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11305,8 +11338,11 @@
       <c r="KM12" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="KN12" t="n">
+      <c r="KN12" s="2" t="n">
         <v>145</v>
+      </c>
+      <c r="KO12" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12209,8 +12245,11 @@
       <c r="KM13" s="2" t="n">
         <v>385</v>
       </c>
-      <c r="KN13" t="n">
+      <c r="KN13" s="2" t="n">
         <v>344</v>
+      </c>
+      <c r="KO13" t="n">
+        <v>337</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13113,8 +13152,11 @@
       <c r="KM14" s="2" t="n">
         <v>1.41</v>
       </c>
-      <c r="KN14" t="n">
+      <c r="KN14" s="2" t="n">
         <v>1.37</v>
+      </c>
+      <c r="KO14" t="n">
+        <v>1.46</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14017,8 +14059,11 @@
       <c r="KM15" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="KN15" t="n">
+      <c r="KN15" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="KO15" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14921,8 +14966,11 @@
       <c r="KM16" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="KN16" t="n">
+      <c r="KN16" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="KO16" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15825,8 +15873,11 @@
       <c r="KM17" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KN17" t="n">
+      <c r="KN17" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KO17" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16729,8 +16780,11 @@
       <c r="KM18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KN18" t="n">
+      <c r="KN18" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KO18" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17633,8 +17687,11 @@
       <c r="KM19" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KN19" t="n">
+      <c r="KN19" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KO19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18537,8 +18594,11 @@
       <c r="KM20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KN20" t="n">
+      <c r="KN20" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KO20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19441,7 +19501,10 @@
       <c r="KM21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KN21" t="n">
+      <c r="KN21" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KO21" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20345,8 +20408,11 @@
       <c r="KM22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KN22" t="n">
+      <c r="KN22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KO22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21249,8 +21315,11 @@
       <c r="KM23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KN23" t="n">
+      <c r="KN23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KO23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22153,8 +22222,11 @@
       <c r="KM24" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KN24" t="n">
+      <c r="KN24" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KO24" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23057,8 +23129,11 @@
       <c r="KM25" s="2" t="n">
         <v>63.2</v>
       </c>
-      <c r="KN25" t="n">
+      <c r="KN25" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KO25" t="n">
+        <v>45.5</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23961,8 +24036,11 @@
       <c r="KM26" s="2" t="n">
         <v>32.08</v>
       </c>
-      <c r="KN26" t="n">
+      <c r="KN26" s="2" t="n">
         <v>34.4</v>
+      </c>
+      <c r="KO26" t="n">
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24865,8 +24943,11 @@
       <c r="KM27" s="2" t="n">
         <v>20.26</v>
       </c>
-      <c r="KN27" t="n">
+      <c r="KN27" s="2" t="n">
         <v>17.2</v>
+      </c>
+      <c r="KO27" t="n">
+        <v>30.64</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25769,8 +25850,11 @@
       <c r="KM28" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KN28" t="n">
+      <c r="KN28" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KO28" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26673,8 +26757,11 @@
       <c r="KM29" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KN29" t="n">
+      <c r="KN29" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KO29" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27577,8 +27664,11 @@
       <c r="KM30" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KN30" t="n">
+      <c r="KN30" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KO30" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28481,8 +28571,11 @@
       <c r="KM31" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KN31" t="n">
+      <c r="KN31" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KO31" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29385,8 +29478,11 @@
       <c r="KM32" s="2" t="n">
         <v>2.74</v>
       </c>
-      <c r="KN32" t="n">
+      <c r="KN32" s="2" t="n">
         <v>2.6</v>
+      </c>
+      <c r="KO32" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30289,8 +30385,11 @@
       <c r="KM33" s="2" t="n">
         <v>4.33</v>
       </c>
-      <c r="KN33" t="n">
+      <c r="KN33" s="2" t="n">
         <v>5.2</v>
+      </c>
+      <c r="KO33" t="n">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31193,8 +31292,11 @@
       <c r="KM34" s="2" t="n">
         <v>34.6</v>
       </c>
-      <c r="KN34" t="n">
+      <c r="KN34" s="2" t="n">
         <v>32.7</v>
+      </c>
+      <c r="KO34" t="n">
+        <v>22.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32097,8 +32199,11 @@
       <c r="KM35" s="2" t="n">
         <v>23.1</v>
       </c>
-      <c r="KN35" t="n">
+      <c r="KN35" s="2" t="n">
         <v>19.2</v>
+      </c>
+      <c r="KO35" t="n">
+        <v>11.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33001,8 +33106,11 @@
       <c r="KM36" s="2" t="n">
         <v>188.9</v>
       </c>
-      <c r="KN36" t="n">
+      <c r="KN36" s="2" t="n">
         <v>187.6</v>
+      </c>
+      <c r="KO36" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -33905,8 +34013,11 @@
       <c r="KM37" s="2" t="n">
         <v>87.7</v>
       </c>
-      <c r="KN37" t="n">
+      <c r="KN37" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="KO37" t="n">
+        <v>86.2</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34809,8 +34920,11 @@
       <c r="KM38" s="2" t="n">
         <v>24.33</v>
       </c>
-      <c r="KN38" t="n">
+      <c r="KN38" s="2" t="n">
         <v>24.41</v>
+      </c>
+      <c r="KO38" t="n">
+        <v>24.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35713,8 +35827,11 @@
       <c r="KM39" s="2" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c r="KN39" t="n">
+      <c r="KN39" s="2" t="n">
         <v>76.2</v>
+      </c>
+      <c r="KO39" t="n">
+        <v>75.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36617,7 +36734,10 @@
       <c r="KM40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KN40" t="n">
+      <c r="KN40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KO40" t="n">
         <v>9</v>
       </c>
     </row>
@@ -37521,7 +37641,10 @@
       <c r="KM41" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KN41" t="n">
+      <c r="KN41" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KO41" t="n">
         <v>9</v>
       </c>
     </row>
@@ -38425,7 +38548,10 @@
       <c r="KM42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KN42" t="n">
+      <c r="KN42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KO42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -39329,7 +39455,10 @@
       <c r="KM43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KN43" t="n">
+      <c r="KN43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KO43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -40233,8 +40362,11 @@
       <c r="KM44" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="KN44" t="n">
+      <c r="KN44" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="KO44" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41137,8 +41269,11 @@
       <c r="KM45" s="2" t="n">
         <v>234</v>
       </c>
-      <c r="KN45" t="n">
+      <c r="KN45" s="2" t="n">
         <v>202</v>
+      </c>
+      <c r="KO45" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42041,8 +42176,11 @@
       <c r="KM46" s="2" t="n">
         <v>293</v>
       </c>
-      <c r="KN46" t="n">
+      <c r="KN46" s="2" t="n">
         <v>248</v>
+      </c>
+      <c r="KO46" t="n">
+        <v>254</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -42945,8 +43083,11 @@
       <c r="KM47" s="2" t="n">
         <v>76.09999999999999</v>
       </c>
-      <c r="KN47" t="n">
+      <c r="KN47" s="2" t="n">
         <v>72.09999999999999</v>
+      </c>
+      <c r="KO47" t="n">
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -43849,8 +43990,11 @@
       <c r="KM48" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KN48" t="n">
+      <c r="KN48" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KO48" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -44753,8 +44897,11 @@
       <c r="KM49" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KN49" t="n">
+      <c r="KN49" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KO49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -45657,8 +45804,11 @@
       <c r="KM50" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KN50" t="n">
+      <c r="KN50" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KO50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -46561,8 +46711,11 @@
       <c r="KM51" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KN51" t="n">
+      <c r="KN51" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KO51" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -47465,8 +47618,11 @@
       <c r="KM52" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KN52" t="n">
+      <c r="KN52" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KO52" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -48369,8 +48525,11 @@
       <c r="KM53" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KN53" t="n">
+      <c r="KN53" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KO53" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -49273,7 +49432,10 @@
       <c r="KM54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KN54" t="n">
+      <c r="KN54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KO54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -50177,7 +50339,10 @@
       <c r="KM55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KN55" t="n">
+      <c r="KN55" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KO55" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51081,8 +51246,11 @@
       <c r="KM56" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="KN56" t="n">
+      <c r="KN56" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KO56" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -51985,8 +52153,11 @@
       <c r="KM57" s="2" t="n">
         <v>177</v>
       </c>
-      <c r="KN57" t="n">
+      <c r="KN57" s="2" t="n">
         <v>228</v>
+      </c>
+      <c r="KO57" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -52889,8 +53060,11 @@
       <c r="KM58" s="2" t="n">
         <v>146</v>
       </c>
-      <c r="KN58" t="n">
+      <c r="KN58" s="2" t="n">
         <v>155</v>
+      </c>
+      <c r="KO58" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -53793,7 +53967,10 @@
       <c r="KM59" s="2" t="n">
         <v>323</v>
       </c>
-      <c r="KN59" t="n">
+      <c r="KN59" s="2" t="n">
+        <v>383</v>
+      </c>
+      <c r="KO59" t="n">
         <v>383</v>
       </c>
     </row>
@@ -54697,8 +54874,11 @@
       <c r="KM60" s="2" t="n">
         <v>1.21</v>
       </c>
-      <c r="KN60" t="n">
+      <c r="KN60" s="2" t="n">
         <v>1.47</v>
+      </c>
+      <c r="KO60" t="n">
+        <v>1.46</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -55601,8 +55781,11 @@
       <c r="KM61" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KN61" t="n">
+      <c r="KN61" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="KO61" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -56505,8 +56688,11 @@
       <c r="KM62" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KN62" t="n">
+      <c r="KN62" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="KO62" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -57409,8 +57595,11 @@
       <c r="KM63" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KN63" t="n">
+      <c r="KN63" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KO63" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -58313,8 +58502,11 @@
       <c r="KM64" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KN64" t="n">
+      <c r="KN64" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KO64" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -59217,8 +59409,11 @@
       <c r="KM65" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KN65" t="n">
+      <c r="KN65" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KO65" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -60121,8 +60316,11 @@
       <c r="KM66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KN66" t="n">
+      <c r="KN66" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KO66" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -61025,8 +61223,11 @@
       <c r="KM67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KN67" t="n">
+      <c r="KN67" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KO67" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -61929,8 +62130,11 @@
       <c r="KM68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KN68" t="n">
+      <c r="KN68" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KO68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -62833,8 +63037,11 @@
       <c r="KM69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KN69" t="n">
+      <c r="KN69" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KO69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -63737,8 +63944,11 @@
       <c r="KM70" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KN70" t="n">
+      <c r="KN70" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KO70" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -64641,8 +64851,11 @@
       <c r="KM71" s="2" t="n">
         <v>45.5</v>
       </c>
-      <c r="KN71" t="n">
+      <c r="KN71" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KO71" t="n">
+        <v>61.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -65545,8 +65758,11 @@
       <c r="KM72" s="2" t="n">
         <v>32.3</v>
       </c>
-      <c r="KN72" t="n">
+      <c r="KN72" s="2" t="n">
         <v>31.92</v>
+      </c>
+      <c r="KO72" t="n">
+        <v>23.94</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -66449,8 +66665,11 @@
       <c r="KM73" s="2" t="n">
         <v>14.68</v>
       </c>
-      <c r="KN73" t="n">
+      <c r="KN73" s="2" t="n">
         <v>15.32</v>
+      </c>
+      <c r="KO73" t="n">
+        <v>14.73</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -67353,8 +67572,11 @@
       <c r="KM74" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KN74" t="n">
+      <c r="KN74" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KO74" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -68257,8 +68479,11 @@
       <c r="KM75" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KN75" t="n">
+      <c r="KN75" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KO75" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -69161,8 +69386,11 @@
       <c r="KM76" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KN76" t="n">
+      <c r="KN76" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KO76" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -70065,8 +70293,11 @@
       <c r="KM77" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KN77" t="n">
+      <c r="KN77" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KO77" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -70969,8 +71200,11 @@
       <c r="KM78" s="2" t="n">
         <v>2.64</v>
       </c>
-      <c r="KN78" t="n">
+      <c r="KN78" s="2" t="n">
         <v>2.28</v>
+      </c>
+      <c r="KO78" t="n">
+        <v>2.62</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -71873,8 +72107,11 @@
       <c r="KM79" s="2" t="n">
         <v>5.8</v>
       </c>
-      <c r="KN79" t="n">
+      <c r="KN79" s="2" t="n">
         <v>4.75</v>
+      </c>
+      <c r="KO79" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -72777,8 +73014,11 @@
       <c r="KM80" s="2" t="n">
         <v>34.5</v>
       </c>
-      <c r="KN80" t="n">
+      <c r="KN80" s="2" t="n">
         <v>31.6</v>
+      </c>
+      <c r="KO80" t="n">
+        <v>38.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -73681,8 +73921,11 @@
       <c r="KM81" s="2" t="n">
         <v>17.2</v>
       </c>
-      <c r="KN81" t="n">
+      <c r="KN81" s="2" t="n">
         <v>21.1</v>
+      </c>
+      <c r="KO81" t="n">
+        <v>23.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -74585,8 +74828,11 @@
       <c r="KM82" s="2" t="n">
         <v>186.4</v>
       </c>
-      <c r="KN82" t="n">
+      <c r="KN82" s="2" t="n">
         <v>186.6</v>
+      </c>
+      <c r="KO82" t="n">
+        <v>189.8</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -75489,8 +75735,11 @@
       <c r="KM83" s="2" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="KN83" t="n">
+      <c r="KN83" s="2" t="n">
         <v>86.09999999999999</v>
+      </c>
+      <c r="KO83" t="n">
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -76393,8 +76642,11 @@
       <c r="KM84" s="2" t="n">
         <v>26.8</v>
       </c>
-      <c r="KN84" t="n">
+      <c r="KN84" s="2" t="n">
         <v>27.8</v>
+      </c>
+      <c r="KO84" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -77297,8 +77549,11 @@
       <c r="KM85" s="2" t="n">
         <v>118.9</v>
       </c>
-      <c r="KN85" t="n">
+      <c r="KN85" s="2" t="n">
         <v>129.2</v>
+      </c>
+      <c r="KO85" t="n">
+        <v>93.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -78201,8 +78456,11 @@
       <c r="KM86" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KN86" t="n">
+      <c r="KN86" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KO86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -79105,8 +79363,11 @@
       <c r="KM87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KN87" t="n">
+      <c r="KN87" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KO87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -80009,8 +80270,11 @@
       <c r="KM88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KN88" t="n">
+      <c r="KN88" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KO88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -80913,8 +81177,11 @@
       <c r="KM89" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KN89" t="n">
+      <c r="KN89" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KO89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -81817,8 +82084,11 @@
       <c r="KM90" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="KN90" t="n">
+      <c r="KN90" s="2" t="n">
         <v>150</v>
+      </c>
+      <c r="KO90" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -82721,8 +82991,11 @@
       <c r="KM91" s="2" t="n">
         <v>172</v>
       </c>
-      <c r="KN91" t="n">
+      <c r="KN91" s="2" t="n">
         <v>212</v>
+      </c>
+      <c r="KO91" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -83625,8 +83898,11 @@
       <c r="KM92" s="2" t="n">
         <v>212</v>
       </c>
-      <c r="KN92" t="n">
+      <c r="KN92" s="2" t="n">
         <v>272</v>
+      </c>
+      <c r="KO92" t="n">
+        <v>286</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -84529,8 +84805,11 @@
       <c r="KM93" s="2" t="n">
         <v>65.59999999999999</v>
       </c>
-      <c r="KN93" t="n">
+      <c r="KN93" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="KO93" t="n">
+        <v>74.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -85433,8 +85712,11 @@
       <c r="KM94" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KN94" t="n">
+      <c r="KN94" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KO94" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -86337,8 +86619,11 @@
       <c r="KM95" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KN95" t="n">
+      <c r="KN95" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KO95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -87241,8 +87526,11 @@
       <c r="KM96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KN96" t="n">
+      <c r="KN96" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KO96" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -88145,8 +88433,11 @@
       <c r="KM97" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KN97" t="n">
+      <c r="KN97" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KO97" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -89049,8 +89340,11 @@
       <c r="KM98" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KN98" t="n">
+      <c r="KN98" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KO98" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -89953,8 +90247,11 @@
       <c r="KM99" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KN99" t="n">
+      <c r="KN99" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KO99" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -90857,8 +91154,11 @@
       <c r="KM100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KN100" t="n">
+      <c r="KN100" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KO100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -91761,8 +92061,11 @@
       <c r="KM101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KN101" t="n">
+      <c r="KN101" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KO101" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -92665,8 +92968,11 @@
       <c r="KM102" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KN102" t="n">
+      <c r="KN102" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KO102" t="n">
+        <v>81.2</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Fremantle_stats.xlsx
+++ b/AFL_ML/Data/Fremantle_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KP102"/>
+  <dimension ref="A1:KQ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KD90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KJ94" activeCellId="0" sqref="KJ94"/>
@@ -1367,8 +1367,11 @@
       <c r="KO1" s="2" t="n">
         <v>10867</v>
       </c>
-      <c r="KP1" t="n">
+      <c r="KP1" s="2" t="n">
         <v>10874</v>
+      </c>
+      <c r="KQ1" t="n">
+        <v>10882</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2277,7 +2280,10 @@
       <c r="KO2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KP2" t="n">
+      <c r="KP2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KQ2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3187,8 +3193,11 @@
       <c r="KO3" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KP3" t="n">
+      <c r="KP3" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4097,8 +4106,11 @@
       <c r="KO4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KP4" t="n">
+      <c r="KP4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5007,7 +5019,10 @@
       <c r="KO5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KP5" t="n">
+      <c r="KP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5917,8 +5932,11 @@
       <c r="KO6" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KP6" t="n">
+      <c r="KP6" s="2" t="n">
         <v>93</v>
+      </c>
+      <c r="KQ6" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6827,8 +6845,11 @@
       <c r="KO7" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="KP7" t="n">
+      <c r="KP7" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KQ7" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7737,8 +7758,11 @@
       <c r="KO8" s="2" t="n">
         <v>-70</v>
       </c>
-      <c r="KP8" t="n">
+      <c r="KP8" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KQ8" t="n">
+        <v>-29</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8647,8 +8671,11 @@
       <c r="KO9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KP9" t="n">
+      <c r="KP9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KQ9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9557,8 +9584,11 @@
       <c r="KO10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KP10" t="n">
+      <c r="KP10" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KQ10" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10467,8 +10497,11 @@
       <c r="KO11" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="KP11" t="n">
+      <c r="KP11" s="2" t="n">
         <v>226</v>
+      </c>
+      <c r="KQ11" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11377,8 +11410,11 @@
       <c r="KO12" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="KP12" t="n">
+      <c r="KP12" s="2" t="n">
         <v>136</v>
+      </c>
+      <c r="KQ12" t="n">
+        <v>176</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12287,8 +12323,11 @@
       <c r="KO13" s="2" t="n">
         <v>337</v>
       </c>
-      <c r="KP13" t="n">
+      <c r="KP13" s="2" t="n">
         <v>362</v>
+      </c>
+      <c r="KQ13" t="n">
+        <v>405</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13197,8 +13236,11 @@
       <c r="KO14" s="2" t="n">
         <v>1.46</v>
       </c>
-      <c r="KP14" t="n">
+      <c r="KP14" s="2" t="n">
         <v>1.66</v>
+      </c>
+      <c r="KQ14" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14107,8 +14149,11 @@
       <c r="KO15" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="KP15" t="n">
+      <c r="KP15" s="2" t="n">
         <v>113</v>
+      </c>
+      <c r="KQ15" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15017,8 +15062,11 @@
       <c r="KO16" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KP16" t="n">
+      <c r="KP16" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KQ16" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15927,8 +15975,11 @@
       <c r="KO17" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KP17" t="n">
+      <c r="KP17" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KQ17" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16837,8 +16888,11 @@
       <c r="KO18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KP18" t="n">
+      <c r="KP18" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KQ18" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17747,7 +17801,10 @@
       <c r="KO19" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KP19" t="n">
+      <c r="KP19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KQ19" t="n">
         <v>15</v>
       </c>
     </row>
@@ -18657,8 +18714,11 @@
       <c r="KO20" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KP20" t="n">
+      <c r="KP20" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KQ20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19567,8 +19627,11 @@
       <c r="KO21" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KP21" t="n">
+      <c r="KP21" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KQ21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20477,8 +20540,11 @@
       <c r="KO22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KP22" t="n">
+      <c r="KP22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KQ22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21387,8 +21453,11 @@
       <c r="KO23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KP23" t="n">
+      <c r="KP23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KQ23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22297,8 +22366,11 @@
       <c r="KO24" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KP24" t="n">
+      <c r="KP24" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KQ24" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23207,8 +23279,11 @@
       <c r="KO25" s="2" t="n">
         <v>45.5</v>
       </c>
-      <c r="KP25" t="n">
+      <c r="KP25" s="2" t="n">
         <v>60.9</v>
+      </c>
+      <c r="KQ25" t="n">
+        <v>61.1</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24117,8 +24192,11 @@
       <c r="KO26" s="2" t="n">
         <v>67.40000000000001</v>
       </c>
-      <c r="KP26" t="n">
+      <c r="KP26" s="2" t="n">
         <v>25.86</v>
+      </c>
+      <c r="KQ26" t="n">
+        <v>36.82</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25027,8 +25105,11 @@
       <c r="KO27" s="2" t="n">
         <v>30.64</v>
       </c>
-      <c r="KP27" t="n">
+      <c r="KP27" s="2" t="n">
         <v>15.74</v>
+      </c>
+      <c r="KQ27" t="n">
+        <v>22.5</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25937,7 +26018,10 @@
       <c r="KO28" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KP28" t="n">
+      <c r="KP28" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="KQ28" t="n">
         <v>34</v>
       </c>
     </row>
@@ -26847,8 +26931,11 @@
       <c r="KO29" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KP29" t="n">
+      <c r="KP29" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KQ29" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27757,8 +27844,11 @@
       <c r="KO30" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KP30" t="n">
+      <c r="KP30" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KQ30" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28667,8 +28757,11 @@
       <c r="KO31" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KP31" t="n">
+      <c r="KP31" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KQ31" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29577,8 +29670,11 @@
       <c r="KO32" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KP32" t="n">
+      <c r="KP32" s="2" t="n">
         <v>2.26</v>
+      </c>
+      <c r="KQ32" t="n">
+        <v>2.56</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30487,8 +30583,11 @@
       <c r="KO33" s="2" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="KP33" t="n">
+      <c r="KP33" s="2" t="n">
         <v>3.71</v>
+      </c>
+      <c r="KQ33" t="n">
+        <v>4.18</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31397,8 +31496,11 @@
       <c r="KO34" s="2" t="n">
         <v>22.7</v>
       </c>
-      <c r="KP34" t="n">
+      <c r="KP34" s="2" t="n">
         <v>40.4</v>
+      </c>
+      <c r="KQ34" t="n">
+        <v>32.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32307,8 +32409,11 @@
       <c r="KO35" s="2" t="n">
         <v>11.4</v>
       </c>
-      <c r="KP35" t="n">
+      <c r="KP35" s="2" t="n">
         <v>26.9</v>
+      </c>
+      <c r="KQ35" t="n">
+        <v>23.9</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33217,8 +33322,11 @@
       <c r="KO36" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="KP36" t="n">
+      <c r="KP36" s="2" t="n">
         <v>188.3</v>
+      </c>
+      <c r="KQ36" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -34127,8 +34235,11 @@
       <c r="KO37" s="2" t="n">
         <v>86.2</v>
       </c>
-      <c r="KP37" t="n">
+      <c r="KP37" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="KQ37" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35037,8 +35148,11 @@
       <c r="KO38" s="2" t="n">
         <v>24.33</v>
       </c>
-      <c r="KP38" t="n">
+      <c r="KP38" s="2" t="n">
         <v>24.41</v>
+      </c>
+      <c r="KQ38" t="n">
+        <v>24.66</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35947,8 +36061,11 @@
       <c r="KO39" s="2" t="n">
         <v>75.3</v>
       </c>
-      <c r="KP39" t="n">
+      <c r="KP39" s="2" t="n">
         <v>78.5</v>
+      </c>
+      <c r="KQ39" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36857,8 +36974,11 @@
       <c r="KO40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KP40" t="n">
+      <c r="KP40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KQ40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -37767,8 +37887,11 @@
       <c r="KO41" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KP41" t="n">
+      <c r="KP41" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KQ41" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -38677,7 +38800,10 @@
       <c r="KO42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KP42" t="n">
+      <c r="KP42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KQ42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -39587,8 +39713,11 @@
       <c r="KO43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KP43" t="n">
+      <c r="KP43" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KQ43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -40497,8 +40626,11 @@
       <c r="KO44" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="KP44" t="n">
+      <c r="KP44" s="2" t="n">
         <v>128</v>
+      </c>
+      <c r="KQ44" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41407,8 +41539,11 @@
       <c r="KO45" s="2" t="n">
         <v>216</v>
       </c>
-      <c r="KP45" t="n">
+      <c r="KP45" s="2" t="n">
         <v>232</v>
+      </c>
+      <c r="KQ45" t="n">
+        <v>258</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42317,8 +42452,11 @@
       <c r="KO46" s="2" t="n">
         <v>254</v>
       </c>
-      <c r="KP46" t="n">
+      <c r="KP46" s="2" t="n">
         <v>278</v>
+      </c>
+      <c r="KQ46" t="n">
+        <v>309</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -43227,8 +43365,11 @@
       <c r="KO47" s="2" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c r="KP47" t="n">
+      <c r="KP47" s="2" t="n">
         <v>76.8</v>
+      </c>
+      <c r="KQ47" t="n">
+        <v>76.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -44137,8 +44278,11 @@
       <c r="KO48" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KP48" t="n">
+      <c r="KP48" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KQ48" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -45047,8 +45191,11 @@
       <c r="KO49" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KP49" t="n">
+      <c r="KP49" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KQ49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -45957,8 +46104,11 @@
       <c r="KO50" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KP50" t="n">
+      <c r="KP50" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KQ50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -46867,7 +47017,10 @@
       <c r="KO51" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KP51" t="n">
+      <c r="KP51" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="KQ51" t="n">
         <v>34</v>
       </c>
     </row>
@@ -47777,8 +47930,11 @@
       <c r="KO52" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KP52" t="n">
+      <c r="KP52" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KQ52" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -48687,8 +48843,11 @@
       <c r="KO53" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KP53" t="n">
+      <c r="KP53" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KQ53" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -49597,8 +49756,11 @@
       <c r="KO54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KP54" t="n">
+      <c r="KP54" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KQ54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -50507,8 +50669,11 @@
       <c r="KO55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KP55" t="n">
+      <c r="KP55" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KQ55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -51417,8 +51582,11 @@
       <c r="KO56" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="KP56" t="n">
+      <c r="KP56" s="2" t="n">
         <v>57.1</v>
+      </c>
+      <c r="KQ56" t="n">
+        <v>90.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -52327,8 +52495,11 @@
       <c r="KO57" s="2" t="n">
         <v>227</v>
       </c>
-      <c r="KP57" t="n">
+      <c r="KP57" s="2" t="n">
         <v>208</v>
+      </c>
+      <c r="KQ57" t="n">
+        <v>182</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -53237,8 +53408,11 @@
       <c r="KO58" s="2" t="n">
         <v>156</v>
       </c>
-      <c r="KP58" t="n">
+      <c r="KP58" s="2" t="n">
         <v>154</v>
+      </c>
+      <c r="KQ58" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -54147,8 +54321,11 @@
       <c r="KO59" s="2" t="n">
         <v>383</v>
       </c>
-      <c r="KP59" t="n">
+      <c r="KP59" s="2" t="n">
         <v>362</v>
+      </c>
+      <c r="KQ59" t="n">
+        <v>316</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -55057,8 +55234,11 @@
       <c r="KO60" s="2" t="n">
         <v>1.46</v>
       </c>
-      <c r="KP60" t="n">
+      <c r="KP60" s="2" t="n">
         <v>1.35</v>
+      </c>
+      <c r="KQ60" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -55967,8 +56147,11 @@
       <c r="KO61" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="KP61" t="n">
+      <c r="KP61" s="2" t="n">
         <v>102</v>
+      </c>
+      <c r="KQ61" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -56877,8 +57060,11 @@
       <c r="KO62" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KP62" t="n">
+      <c r="KP62" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KQ62" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -57787,8 +57973,11 @@
       <c r="KO63" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KP63" t="n">
+      <c r="KP63" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KQ63" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -58697,7 +58886,10 @@
       <c r="KO64" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KP64" t="n">
+      <c r="KP64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KQ64" t="n">
         <v>15</v>
       </c>
     </row>
@@ -59607,8 +59799,11 @@
       <c r="KO65" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KP65" t="n">
+      <c r="KP65" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KQ65" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -60517,8 +60712,11 @@
       <c r="KO66" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KP66" t="n">
+      <c r="KP66" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KQ66" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -61427,8 +61625,11 @@
       <c r="KO67" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KP67" t="n">
+      <c r="KP67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KQ67" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -62337,8 +62538,11 @@
       <c r="KO68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KP68" t="n">
+      <c r="KP68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KQ68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -63247,8 +63451,11 @@
       <c r="KO69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KP69" t="n">
+      <c r="KP69" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KQ69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -64157,8 +64364,11 @@
       <c r="KO70" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KP70" t="n">
+      <c r="KP70" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KQ70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -65067,8 +65277,11 @@
       <c r="KO71" s="2" t="n">
         <v>61.5</v>
       </c>
-      <c r="KP71" t="n">
+      <c r="KP71" s="2" t="n">
         <v>56.2</v>
+      </c>
+      <c r="KQ71" t="n">
+        <v>72.7</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -65977,8 +66190,11 @@
       <c r="KO72" s="2" t="n">
         <v>23.94</v>
       </c>
-      <c r="KP72" t="n">
+      <c r="KP72" s="2" t="n">
         <v>40.22</v>
+      </c>
+      <c r="KQ72" t="n">
+        <v>19.75</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -66887,8 +67103,11 @@
       <c r="KO73" s="2" t="n">
         <v>14.73</v>
       </c>
-      <c r="KP73" t="n">
+      <c r="KP73" s="2" t="n">
         <v>22.62</v>
+      </c>
+      <c r="KQ73" t="n">
+        <v>14.36</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -67797,8 +68016,11 @@
       <c r="KO74" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KP74" t="n">
+      <c r="KP74" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KQ74" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -68707,8 +68929,11 @@
       <c r="KO75" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KP75" t="n">
+      <c r="KP75" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KQ75" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -69617,8 +69842,11 @@
       <c r="KO76" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KP76" t="n">
+      <c r="KP76" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KQ76" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -70527,8 +70755,11 @@
       <c r="KO77" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KP77" t="n">
+      <c r="KP77" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KQ77" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -71437,8 +71668,11 @@
       <c r="KO78" s="2" t="n">
         <v>2.62</v>
       </c>
-      <c r="KP78" t="n">
+      <c r="KP78" s="2" t="n">
         <v>2.62</v>
+      </c>
+      <c r="KQ78" t="n">
+        <v>2.36</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -72347,8 +72581,11 @@
       <c r="KO79" s="2" t="n">
         <v>4.25</v>
       </c>
-      <c r="KP79" t="n">
+      <c r="KP79" s="2" t="n">
         <v>4.67</v>
+      </c>
+      <c r="KQ79" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -73257,8 +73494,11 @@
       <c r="KO80" s="2" t="n">
         <v>38.2</v>
       </c>
-      <c r="KP80" t="n">
+      <c r="KP80" s="2" t="n">
         <v>38.1</v>
+      </c>
+      <c r="KQ80" t="n">
+        <v>40.4</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -74167,8 +74407,11 @@
       <c r="KO81" s="2" t="n">
         <v>23.5</v>
       </c>
-      <c r="KP81" t="n">
+      <c r="KP81" s="2" t="n">
         <v>21.4</v>
+      </c>
+      <c r="KQ81" t="n">
+        <v>30.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -75077,8 +75320,11 @@
       <c r="KO82" s="2" t="n">
         <v>189.8</v>
       </c>
-      <c r="KP82" t="n">
+      <c r="KP82" s="2" t="n">
         <v>189</v>
+      </c>
+      <c r="KQ82" t="n">
+        <v>189.1</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -75987,8 +76233,11 @@
       <c r="KO83" s="2" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="KP83" t="n">
+      <c r="KP83" s="2" t="n">
         <v>87.7</v>
+      </c>
+      <c r="KQ83" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -76897,8 +77146,11 @@
       <c r="KO84" s="2" t="n">
         <v>25.66</v>
       </c>
-      <c r="KP84" t="n">
+      <c r="KP84" s="2" t="n">
         <v>25.33</v>
+      </c>
+      <c r="KQ84" t="n">
+        <v>26.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -77807,8 +78059,11 @@
       <c r="KO85" s="2" t="n">
         <v>93.7</v>
       </c>
-      <c r="KP85" t="n">
+      <c r="KP85" s="2" t="n">
         <v>90.40000000000001</v>
+      </c>
+      <c r="KQ85" t="n">
+        <v>104.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -78717,7 +78972,10 @@
       <c r="KO86" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KP86" t="n">
+      <c r="KP86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KQ86" t="n">
         <v>7</v>
       </c>
     </row>
@@ -79627,8 +79885,11 @@
       <c r="KO87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP87" t="n">
+      <c r="KP87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KQ87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -80537,8 +80798,11 @@
       <c r="KO88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KP88" t="n">
+      <c r="KP88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KQ88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -81447,8 +81711,11 @@
       <c r="KO89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP89" t="n">
+      <c r="KP89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KQ89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -82357,8 +82624,11 @@
       <c r="KO90" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="KP90" t="n">
+      <c r="KP90" s="2" t="n">
         <v>125</v>
+      </c>
+      <c r="KQ90" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -83267,8 +83537,11 @@
       <c r="KO91" s="2" t="n">
         <v>238</v>
       </c>
-      <c r="KP91" t="n">
+      <c r="KP91" s="2" t="n">
         <v>227</v>
+      </c>
+      <c r="KQ91" t="n">
+        <v>181</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -84177,8 +84450,11 @@
       <c r="KO92" s="2" t="n">
         <v>286</v>
       </c>
-      <c r="KP92" t="n">
+      <c r="KP92" s="2" t="n">
         <v>266</v>
+      </c>
+      <c r="KQ92" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -85087,8 +85363,11 @@
       <c r="KO93" s="2" t="n">
         <v>74.7</v>
       </c>
-      <c r="KP93" t="n">
+      <c r="KP93" s="2" t="n">
         <v>73.5</v>
+      </c>
+      <c r="KQ93" t="n">
+        <v>75.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -85997,8 +86276,11 @@
       <c r="KO94" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KP94" t="n">
+      <c r="KP94" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KQ94" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -86907,8 +87189,11 @@
       <c r="KO95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KP95" t="n">
+      <c r="KP95" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KQ95" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -87817,7 +88102,10 @@
       <c r="KO96" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KP96" t="n">
+      <c r="KP96" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KQ96" t="n">
         <v>12</v>
       </c>
     </row>
@@ -88727,8 +89015,11 @@
       <c r="KO97" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KP97" t="n">
+      <c r="KP97" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KQ97" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -89637,8 +89928,11 @@
       <c r="KO98" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KP98" t="n">
+      <c r="KP98" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KQ98" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -90547,8 +90841,11 @@
       <c r="KO99" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KP99" t="n">
+      <c r="KP99" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KQ99" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -91457,8 +91754,11 @@
       <c r="KO100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KP100" t="n">
+      <c r="KP100" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KQ100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -92367,8 +92667,11 @@
       <c r="KO101" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KP101" t="n">
+      <c r="KP101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KQ101" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -93277,8 +93580,11 @@
       <c r="KO102" s="2" t="n">
         <v>81.2</v>
       </c>
-      <c r="KP102" t="n">
+      <c r="KP102" s="2" t="n">
         <v>88.90000000000001</v>
+      </c>
+      <c r="KQ102" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Fremantle_stats.xlsx
+++ b/AFL_ML/Data/Fremantle_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KQ102"/>
+  <dimension ref="A1:KR102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KD90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KJ94" activeCellId="0" sqref="KJ94"/>
@@ -1370,8 +1370,11 @@
       <c r="KP1" s="2" t="n">
         <v>10874</v>
       </c>
-      <c r="KQ1" t="n">
+      <c r="KQ1" s="2" t="n">
         <v>10882</v>
+      </c>
+      <c r="KR1" t="n">
+        <v>10894</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2283,7 +2286,10 @@
       <c r="KP2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KQ2" t="n">
+      <c r="KQ2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KR2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3196,8 +3202,11 @@
       <c r="KP3" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KQ3" t="n">
+      <c r="KQ3" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4109,8 +4118,11 @@
       <c r="KP4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KQ4" t="n">
+      <c r="KQ4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5022,8 +5034,11 @@
       <c r="KP5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KQ5" t="n">
+      <c r="KQ5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KR5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5935,8 +5950,11 @@
       <c r="KP6" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="KQ6" t="n">
+      <c r="KQ6" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="KR6" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6848,8 +6866,11 @@
       <c r="KP7" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KQ7" t="n">
+      <c r="KQ7" s="2" t="n">
         <v>102</v>
+      </c>
+      <c r="KR7" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7761,8 +7782,11 @@
       <c r="KP8" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KQ8" t="n">
+      <c r="KQ8" s="2" t="n">
         <v>-29</v>
+      </c>
+      <c r="KR8" t="n">
+        <v>-53</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8674,7 +8698,10 @@
       <c r="KP9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KQ9" t="n">
+      <c r="KQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9587,8 +9614,11 @@
       <c r="KP10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KQ10" t="n">
+      <c r="KQ10" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KR10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10500,8 +10530,11 @@
       <c r="KP11" s="2" t="n">
         <v>226</v>
       </c>
-      <c r="KQ11" t="n">
+      <c r="KQ11" s="2" t="n">
         <v>229</v>
+      </c>
+      <c r="KR11" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11413,8 +11446,11 @@
       <c r="KP12" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="KQ12" t="n">
+      <c r="KQ12" s="2" t="n">
         <v>176</v>
+      </c>
+      <c r="KR12" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12326,8 +12362,11 @@
       <c r="KP13" s="2" t="n">
         <v>362</v>
       </c>
-      <c r="KQ13" t="n">
+      <c r="KQ13" s="2" t="n">
         <v>405</v>
+      </c>
+      <c r="KR13" t="n">
+        <v>344</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13239,8 +13278,11 @@
       <c r="KP14" s="2" t="n">
         <v>1.66</v>
       </c>
-      <c r="KQ14" t="n">
+      <c r="KQ14" s="2" t="n">
         <v>1.3</v>
+      </c>
+      <c r="KR14" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14152,8 +14194,11 @@
       <c r="KP15" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="KQ15" t="n">
+      <c r="KQ15" s="2" t="n">
         <v>104</v>
+      </c>
+      <c r="KR15" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15065,8 +15110,11 @@
       <c r="KP16" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KQ16" t="n">
+      <c r="KQ16" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="KR16" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15978,8 +16026,11 @@
       <c r="KP17" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KQ17" t="n">
+      <c r="KQ17" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KR17" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16891,8 +16942,11 @@
       <c r="KP18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KQ18" t="n">
+      <c r="KQ18" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KR18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17804,8 +17858,11 @@
       <c r="KP19" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KQ19" t="n">
+      <c r="KQ19" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KR19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18717,8 +18774,11 @@
       <c r="KP20" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KQ20" t="n">
+      <c r="KQ20" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KR20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19630,8 +19690,11 @@
       <c r="KP21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KQ21" t="n">
+      <c r="KQ21" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KR21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20543,8 +20606,11 @@
       <c r="KP22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KQ22" t="n">
+      <c r="KQ22" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KR22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21456,8 +21522,11 @@
       <c r="KP23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KQ23" t="n">
+      <c r="KQ23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KR23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22369,8 +22438,11 @@
       <c r="KP24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KQ24" t="n">
+      <c r="KQ24" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KR24" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23282,8 +23354,11 @@
       <c r="KP25" s="2" t="n">
         <v>60.9</v>
       </c>
-      <c r="KQ25" t="n">
+      <c r="KQ25" s="2" t="n">
         <v>61.1</v>
+      </c>
+      <c r="KR25" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24195,8 +24270,11 @@
       <c r="KP26" s="2" t="n">
         <v>25.86</v>
       </c>
-      <c r="KQ26" t="n">
+      <c r="KQ26" s="2" t="n">
         <v>36.82</v>
+      </c>
+      <c r="KR26" t="n">
+        <v>57.33</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25108,8 +25186,11 @@
       <c r="KP27" s="2" t="n">
         <v>15.74</v>
       </c>
-      <c r="KQ27" t="n">
+      <c r="KQ27" s="2" t="n">
         <v>22.5</v>
+      </c>
+      <c r="KR27" t="n">
+        <v>22.93</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26021,8 +26102,11 @@
       <c r="KP28" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KQ28" t="n">
+      <c r="KQ28" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KR28" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26934,8 +27018,11 @@
       <c r="KP29" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KQ29" t="n">
+      <c r="KQ29" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KR29" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27847,8 +27934,11 @@
       <c r="KP30" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KQ30" t="n">
+      <c r="KQ30" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KR30" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28760,8 +28850,11 @@
       <c r="KP31" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KQ31" t="n">
+      <c r="KQ31" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KR31" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29673,8 +29766,11 @@
       <c r="KP32" s="2" t="n">
         <v>2.26</v>
       </c>
-      <c r="KQ32" t="n">
+      <c r="KQ32" s="2" t="n">
         <v>2.56</v>
+      </c>
+      <c r="KR32" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30586,8 +30682,11 @@
       <c r="KP33" s="2" t="n">
         <v>3.71</v>
       </c>
-      <c r="KQ33" t="n">
+      <c r="KQ33" s="2" t="n">
         <v>4.18</v>
+      </c>
+      <c r="KR33" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31499,8 +31598,11 @@
       <c r="KP34" s="2" t="n">
         <v>40.4</v>
       </c>
-      <c r="KQ34" t="n">
+      <c r="KQ34" s="2" t="n">
         <v>32.6</v>
+      </c>
+      <c r="KR34" t="n">
+        <v>26.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32412,8 +32514,11 @@
       <c r="KP35" s="2" t="n">
         <v>26.9</v>
       </c>
-      <c r="KQ35" t="n">
+      <c r="KQ35" s="2" t="n">
         <v>23.9</v>
+      </c>
+      <c r="KR35" t="n">
+        <v>14.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33325,8 +33430,11 @@
       <c r="KP36" s="2" t="n">
         <v>188.3</v>
       </c>
-      <c r="KQ36" t="n">
+      <c r="KQ36" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="KR36" t="n">
+        <v>187.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -34238,8 +34346,11 @@
       <c r="KP37" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="KQ37" t="n">
+      <c r="KQ37" s="2" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="KR37" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35151,8 +35262,11 @@
       <c r="KP38" s="2" t="n">
         <v>24.41</v>
       </c>
-      <c r="KQ38" t="n">
+      <c r="KQ38" s="2" t="n">
         <v>24.66</v>
+      </c>
+      <c r="KR38" t="n">
+        <v>24.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -36064,8 +36178,11 @@
       <c r="KP39" s="2" t="n">
         <v>78.5</v>
       </c>
-      <c r="KQ39" t="n">
+      <c r="KQ39" s="2" t="n">
         <v>85.7</v>
+      </c>
+      <c r="KR39" t="n">
+        <v>77.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36977,8 +37094,11 @@
       <c r="KP40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KQ40" t="n">
+      <c r="KQ40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KR40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -37890,8 +38010,11 @@
       <c r="KP41" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KQ41" t="n">
+      <c r="KQ41" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KR41" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -38803,8 +38926,11 @@
       <c r="KP42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KQ42" t="n">
+      <c r="KQ42" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KR42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -39716,8 +39842,11 @@
       <c r="KP43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KQ43" t="n">
+      <c r="KQ43" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KR43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -40629,8 +40758,11 @@
       <c r="KP44" s="2" t="n">
         <v>128</v>
       </c>
-      <c r="KQ44" t="n">
+      <c r="KQ44" s="2" t="n">
         <v>139</v>
+      </c>
+      <c r="KR44" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41542,8 +41674,11 @@
       <c r="KP45" s="2" t="n">
         <v>232</v>
       </c>
-      <c r="KQ45" t="n">
+      <c r="KQ45" s="2" t="n">
         <v>258</v>
+      </c>
+      <c r="KR45" t="n">
+        <v>203</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42455,8 +42590,11 @@
       <c r="KP46" s="2" t="n">
         <v>278</v>
       </c>
-      <c r="KQ46" t="n">
+      <c r="KQ46" s="2" t="n">
         <v>309</v>
+      </c>
+      <c r="KR46" t="n">
+        <v>245</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -43368,8 +43506,11 @@
       <c r="KP47" s="2" t="n">
         <v>76.8</v>
       </c>
-      <c r="KQ47" t="n">
+      <c r="KQ47" s="2" t="n">
         <v>76.3</v>
+      </c>
+      <c r="KR47" t="n">
+        <v>71.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -44281,8 +44422,11 @@
       <c r="KP48" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KQ48" t="n">
+      <c r="KQ48" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KR48" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -45194,7 +45338,10 @@
       <c r="KP49" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KQ49" t="n">
+      <c r="KQ49" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KR49" t="n">
         <v>12</v>
       </c>
     </row>
@@ -46107,8 +46254,11 @@
       <c r="KP50" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KQ50" t="n">
+      <c r="KQ50" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KR50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -47020,8 +47170,11 @@
       <c r="KP51" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KQ51" t="n">
+      <c r="KQ51" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KR51" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -47933,8 +48086,11 @@
       <c r="KP52" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KQ52" t="n">
+      <c r="KQ52" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KR52" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -48846,8 +49002,11 @@
       <c r="KP53" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KQ53" t="n">
+      <c r="KQ53" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KR53" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -49759,7 +49918,10 @@
       <c r="KP54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KQ54" t="n">
+      <c r="KQ54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KR54" t="n">
         <v>2</v>
       </c>
     </row>
@@ -50672,8 +50834,11 @@
       <c r="KP55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KQ55" t="n">
+      <c r="KQ55" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KR55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -51585,8 +51750,11 @@
       <c r="KP56" s="2" t="n">
         <v>57.1</v>
       </c>
-      <c r="KQ56" t="n">
+      <c r="KQ56" s="2" t="n">
         <v>90.90000000000001</v>
+      </c>
+      <c r="KR56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -52498,8 +52666,11 @@
       <c r="KP57" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="KQ57" t="n">
+      <c r="KQ57" s="2" t="n">
         <v>182</v>
+      </c>
+      <c r="KR57" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -53411,8 +53582,11 @@
       <c r="KP58" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="KQ58" t="n">
+      <c r="KQ58" s="2" t="n">
         <v>134</v>
+      </c>
+      <c r="KR58" t="n">
+        <v>179</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -54324,8 +54498,11 @@
       <c r="KP59" s="2" t="n">
         <v>362</v>
       </c>
-      <c r="KQ59" t="n">
+      <c r="KQ59" s="2" t="n">
         <v>316</v>
+      </c>
+      <c r="KR59" t="n">
+        <v>398</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -55237,8 +55414,11 @@
       <c r="KP60" s="2" t="n">
         <v>1.35</v>
       </c>
-      <c r="KQ60" t="n">
+      <c r="KQ60" s="2" t="n">
         <v>1.36</v>
+      </c>
+      <c r="KR60" t="n">
+        <v>1.22</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -56150,8 +56330,11 @@
       <c r="KP61" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="KQ61" t="n">
+      <c r="KQ61" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="KR61" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -57063,8 +57246,11 @@
       <c r="KP62" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KQ62" t="n">
+      <c r="KQ62" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="KR62" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -57976,8 +58162,11 @@
       <c r="KP63" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KQ63" t="n">
+      <c r="KQ63" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KR63" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -58889,8 +59078,11 @@
       <c r="KP64" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KQ64" t="n">
+      <c r="KQ64" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KR64" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -59802,8 +59994,11 @@
       <c r="KP65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KQ65" t="n">
+      <c r="KQ65" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KR65" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -60715,8 +60910,11 @@
       <c r="KP66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KQ66" t="n">
+      <c r="KQ66" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KR66" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -61628,8 +61826,11 @@
       <c r="KP67" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KQ67" t="n">
+      <c r="KQ67" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KR67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -62541,8 +62742,11 @@
       <c r="KP68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KQ68" t="n">
+      <c r="KQ68" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KR68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -63454,8 +63658,11 @@
       <c r="KP69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KQ69" t="n">
+      <c r="KQ69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KR69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -64367,8 +64574,11 @@
       <c r="KP70" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KQ70" t="n">
+      <c r="KQ70" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KR70" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -65280,8 +65490,11 @@
       <c r="KP71" s="2" t="n">
         <v>56.2</v>
       </c>
-      <c r="KQ71" t="n">
+      <c r="KQ71" s="2" t="n">
         <v>72.7</v>
+      </c>
+      <c r="KR71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -66193,8 +66406,11 @@
       <c r="KP72" s="2" t="n">
         <v>40.22</v>
       </c>
-      <c r="KQ72" t="n">
+      <c r="KQ72" s="2" t="n">
         <v>19.75</v>
+      </c>
+      <c r="KR72" t="n">
+        <v>28.43</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -67106,8 +67322,11 @@
       <c r="KP73" s="2" t="n">
         <v>22.62</v>
       </c>
-      <c r="KQ73" t="n">
+      <c r="KQ73" s="2" t="n">
         <v>14.36</v>
+      </c>
+      <c r="KR73" t="n">
+        <v>14.21</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -68019,8 +68238,11 @@
       <c r="KP74" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KQ74" t="n">
+      <c r="KQ74" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KR74" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -68932,8 +69154,11 @@
       <c r="KP75" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KQ75" t="n">
+      <c r="KQ75" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KR75" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -69845,7 +70070,10 @@
       <c r="KP76" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KQ76" t="n">
+      <c r="KQ76" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KR76" t="n">
         <v>35</v>
       </c>
     </row>
@@ -70758,8 +70986,11 @@
       <c r="KP77" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KQ77" t="n">
+      <c r="KQ77" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KR77" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -71671,8 +71902,11 @@
       <c r="KP78" s="2" t="n">
         <v>2.62</v>
       </c>
-      <c r="KQ78" t="n">
+      <c r="KQ78" s="2" t="n">
         <v>2.36</v>
+      </c>
+      <c r="KR78" t="n">
+        <v>2.14</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -72584,8 +72818,11 @@
       <c r="KP79" s="2" t="n">
         <v>4.67</v>
       </c>
-      <c r="KQ79" t="n">
+      <c r="KQ79" s="2" t="n">
         <v>3.25</v>
+      </c>
+      <c r="KR79" t="n">
+        <v>4.29</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -73497,8 +73734,11 @@
       <c r="KP80" s="2" t="n">
         <v>38.1</v>
       </c>
-      <c r="KQ80" t="n">
+      <c r="KQ80" s="2" t="n">
         <v>40.4</v>
+      </c>
+      <c r="KR80" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -74410,8 +74650,11 @@
       <c r="KP81" s="2" t="n">
         <v>21.4</v>
       </c>
-      <c r="KQ81" t="n">
+      <c r="KQ81" s="2" t="n">
         <v>30.8</v>
+      </c>
+      <c r="KR81" t="n">
+        <v>23.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -75323,8 +75566,11 @@
       <c r="KP82" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="KQ82" t="n">
+      <c r="KQ82" s="2" t="n">
         <v>189.1</v>
+      </c>
+      <c r="KR82" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -76236,8 +76482,11 @@
       <c r="KP83" s="2" t="n">
         <v>87.7</v>
       </c>
-      <c r="KQ83" t="n">
+      <c r="KQ83" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="KR83" t="n">
+        <v>87.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -77149,8 +77398,11 @@
       <c r="KP84" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="KQ84" t="n">
+      <c r="KQ84" s="2" t="n">
         <v>26.16</v>
+      </c>
+      <c r="KR84" t="n">
+        <v>26.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -78062,8 +78314,11 @@
       <c r="KP85" s="2" t="n">
         <v>90.40000000000001</v>
       </c>
-      <c r="KQ85" t="n">
+      <c r="KQ85" s="2" t="n">
         <v>104.8</v>
+      </c>
+      <c r="KR85" t="n">
+        <v>93.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -78975,7 +79230,10 @@
       <c r="KP86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KQ86" t="n">
+      <c r="KQ86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR86" t="n">
         <v>7</v>
       </c>
     </row>
@@ -79888,8 +80146,11 @@
       <c r="KP87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KQ87" t="n">
+      <c r="KQ87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KR87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -80801,8 +81062,11 @@
       <c r="KP88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KQ88" t="n">
+      <c r="KQ88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KR88" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -81714,8 +81978,11 @@
       <c r="KP89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KQ89" t="n">
+      <c r="KQ89" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KR89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -82627,8 +82894,11 @@
       <c r="KP90" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="KQ90" t="n">
+      <c r="KQ90" s="2" t="n">
         <v>131</v>
+      </c>
+      <c r="KR90" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -83540,8 +83810,11 @@
       <c r="KP91" s="2" t="n">
         <v>227</v>
       </c>
-      <c r="KQ91" t="n">
+      <c r="KQ91" s="2" t="n">
         <v>181</v>
+      </c>
+      <c r="KR91" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -84453,8 +84726,11 @@
       <c r="KP92" s="2" t="n">
         <v>266</v>
       </c>
-      <c r="KQ92" t="n">
+      <c r="KQ92" s="2" t="n">
         <v>238</v>
+      </c>
+      <c r="KR92" t="n">
+        <v>287</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -85366,8 +85642,11 @@
       <c r="KP93" s="2" t="n">
         <v>73.5</v>
       </c>
-      <c r="KQ93" t="n">
+      <c r="KQ93" s="2" t="n">
         <v>75.3</v>
+      </c>
+      <c r="KR93" t="n">
+        <v>72.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -86279,8 +86558,11 @@
       <c r="KP94" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KQ94" t="n">
+      <c r="KQ94" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KR94" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -87192,8 +87474,11 @@
       <c r="KP95" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KQ95" t="n">
+      <c r="KQ95" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KR95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -88105,8 +88390,11 @@
       <c r="KP96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KQ96" t="n">
+      <c r="KQ96" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KR96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -89018,8 +89306,11 @@
       <c r="KP97" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KQ97" t="n">
+      <c r="KQ97" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KR97" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -89931,7 +90222,10 @@
       <c r="KP98" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KQ98" t="n">
+      <c r="KQ98" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KR98" t="n">
         <v>35</v>
       </c>
     </row>
@@ -90844,7 +91138,10 @@
       <c r="KP99" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KQ99" t="n">
+      <c r="KQ99" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KR99" t="n">
         <v>51</v>
       </c>
     </row>
@@ -91757,8 +92054,11 @@
       <c r="KP100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KQ100" t="n">
+      <c r="KQ100" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KR100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -92670,8 +92970,11 @@
       <c r="KP101" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KQ101" t="n">
+      <c r="KQ101" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KR101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -93583,8 +93886,11 @@
       <c r="KP102" s="2" t="n">
         <v>88.90000000000001</v>
       </c>
-      <c r="KQ102" t="n">
+      <c r="KQ102" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="KR102" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Fremantle_stats.xlsx
+++ b/AFL_ML/Data/Fremantle_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KR102"/>
+  <dimension ref="A1:KS102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KD90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KJ94" activeCellId="0" sqref="KJ94"/>
@@ -1373,8 +1373,11 @@
       <c r="KQ1" s="2" t="n">
         <v>10882</v>
       </c>
-      <c r="KR1" t="n">
+      <c r="KR1" s="2" t="n">
         <v>10894</v>
+      </c>
+      <c r="KS1" t="n">
+        <v>10896</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2289,7 +2292,10 @@
       <c r="KQ2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KR2" t="n">
+      <c r="KR2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KS2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3205,8 +3211,11 @@
       <c r="KQ3" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KR3" t="n">
+      <c r="KR3" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4121,8 +4130,11 @@
       <c r="KQ4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KR4" t="n">
+      <c r="KR4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5037,8 +5049,11 @@
       <c r="KQ5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KR5" t="n">
+      <c r="KR5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KS5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5953,8 +5968,11 @@
       <c r="KQ6" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="KR6" t="n">
+      <c r="KR6" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KS6" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6869,8 +6887,11 @@
       <c r="KQ7" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="KR7" t="n">
+      <c r="KR7" s="2" t="n">
         <v>98</v>
+      </c>
+      <c r="KS7" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7785,8 +7806,11 @@
       <c r="KQ8" s="2" t="n">
         <v>-29</v>
       </c>
-      <c r="KR8" t="n">
+      <c r="KR8" s="2" t="n">
         <v>-53</v>
+      </c>
+      <c r="KS8" t="n">
+        <v>-46</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8701,7 +8725,10 @@
       <c r="KQ9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KR9" t="n">
+      <c r="KR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9617,8 +9644,11 @@
       <c r="KQ10" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KR10" t="n">
+      <c r="KR10" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KS10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10533,8 +10563,11 @@
       <c r="KQ11" s="2" t="n">
         <v>229</v>
       </c>
-      <c r="KR11" t="n">
+      <c r="KR11" s="2" t="n">
         <v>194</v>
+      </c>
+      <c r="KS11" t="n">
+        <v>175</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11449,8 +11482,11 @@
       <c r="KQ12" s="2" t="n">
         <v>176</v>
       </c>
-      <c r="KR12" t="n">
+      <c r="KR12" s="2" t="n">
         <v>150</v>
+      </c>
+      <c r="KS12" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12365,8 +12401,11 @@
       <c r="KQ13" s="2" t="n">
         <v>405</v>
       </c>
-      <c r="KR13" t="n">
+      <c r="KR13" s="2" t="n">
         <v>344</v>
+      </c>
+      <c r="KS13" t="n">
+        <v>327</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13281,8 +13320,11 @@
       <c r="KQ14" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="KR14" t="n">
+      <c r="KR14" s="2" t="n">
         <v>1.29</v>
+      </c>
+      <c r="KS14" t="n">
+        <v>1.15</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14197,8 +14239,11 @@
       <c r="KQ15" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="KR15" t="n">
+      <c r="KR15" s="2" t="n">
         <v>82</v>
+      </c>
+      <c r="KS15" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15113,8 +15158,11 @@
       <c r="KQ16" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="KR16" t="n">
+      <c r="KR16" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="KS16" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16029,8 +16077,11 @@
       <c r="KQ17" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KR17" t="n">
+      <c r="KR17" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="KS17" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16945,8 +16996,11 @@
       <c r="KQ18" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KR18" t="n">
+      <c r="KR18" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KS18" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17861,8 +17915,11 @@
       <c r="KQ19" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KR19" t="n">
+      <c r="KR19" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KS19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18777,8 +18834,11 @@
       <c r="KQ20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KR20" t="n">
+      <c r="KR20" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KS20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19693,8 +19753,11 @@
       <c r="KQ21" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KR21" t="n">
+      <c r="KR21" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KS21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20609,8 +20672,11 @@
       <c r="KQ22" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KR22" t="n">
+      <c r="KR22" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KS22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21525,8 +21591,11 @@
       <c r="KQ23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KR23" t="n">
+      <c r="KR23" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KS23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22441,8 +22510,11 @@
       <c r="KQ24" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KR24" t="n">
+      <c r="KR24" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KS24" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23357,8 +23429,11 @@
       <c r="KQ25" s="2" t="n">
         <v>61.1</v>
       </c>
-      <c r="KR25" t="n">
+      <c r="KR25" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KS25" t="n">
+        <v>58.8</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24273,8 +24348,11 @@
       <c r="KQ26" s="2" t="n">
         <v>36.82</v>
       </c>
-      <c r="KR26" t="n">
+      <c r="KR26" s="2" t="n">
         <v>57.33</v>
+      </c>
+      <c r="KS26" t="n">
+        <v>32.7</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25189,8 +25267,11 @@
       <c r="KQ27" s="2" t="n">
         <v>22.5</v>
       </c>
-      <c r="KR27" t="n">
+      <c r="KR27" s="2" t="n">
         <v>22.93</v>
+      </c>
+      <c r="KS27" t="n">
+        <v>19.24</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26105,8 +26186,11 @@
       <c r="KQ28" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KR28" t="n">
+      <c r="KR28" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KS28" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27021,8 +27105,11 @@
       <c r="KQ29" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KR29" t="n">
+      <c r="KR29" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KS29" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27937,8 +28024,11 @@
       <c r="KQ30" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KR30" t="n">
+      <c r="KR30" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KS30" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28853,8 +28943,11 @@
       <c r="KQ31" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KR31" t="n">
+      <c r="KR31" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KS31" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29769,8 +29862,11 @@
       <c r="KQ32" s="2" t="n">
         <v>2.56</v>
       </c>
-      <c r="KR32" t="n">
+      <c r="KR32" s="2" t="n">
         <v>2.8</v>
+      </c>
+      <c r="KS32" t="n">
+        <v>2.06</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30685,8 +30781,11 @@
       <c r="KQ33" s="2" t="n">
         <v>4.18</v>
       </c>
-      <c r="KR33" t="n">
+      <c r="KR33" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KS33" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31601,8 +31700,11 @@
       <c r="KQ34" s="2" t="n">
         <v>32.6</v>
       </c>
-      <c r="KR34" t="n">
+      <c r="KR34" s="2" t="n">
         <v>26.2</v>
+      </c>
+      <c r="KS34" t="n">
+        <v>45.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32517,8 +32619,11 @@
       <c r="KQ35" s="2" t="n">
         <v>23.9</v>
       </c>
-      <c r="KR35" t="n">
+      <c r="KR35" s="2" t="n">
         <v>14.3</v>
+      </c>
+      <c r="KS35" t="n">
+        <v>28.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33433,8 +33538,11 @@
       <c r="KQ36" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="KR36" t="n">
+      <c r="KR36" s="2" t="n">
         <v>187.8</v>
+      </c>
+      <c r="KS36" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -34349,8 +34457,11 @@
       <c r="KQ37" s="2" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="KR37" t="n">
+      <c r="KR37" s="2" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="KS37" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35265,8 +35376,11 @@
       <c r="KQ38" s="2" t="n">
         <v>24.66</v>
       </c>
-      <c r="KR38" t="n">
+      <c r="KR38" s="2" t="n">
         <v>24.16</v>
+      </c>
+      <c r="KS38" t="n">
+        <v>24.74</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -36181,8 +36295,11 @@
       <c r="KQ39" s="2" t="n">
         <v>85.7</v>
       </c>
-      <c r="KR39" t="n">
+      <c r="KR39" s="2" t="n">
         <v>77.3</v>
+      </c>
+      <c r="KS39" t="n">
+        <v>75.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -37097,8 +37214,11 @@
       <c r="KQ40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KR40" t="n">
+      <c r="KR40" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KS40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -38013,8 +38133,11 @@
       <c r="KQ41" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KR41" t="n">
+      <c r="KR41" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KS41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -38929,7 +39052,10 @@
       <c r="KQ42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KR42" t="n">
+      <c r="KR42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KS42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -39845,7 +39971,10 @@
       <c r="KQ43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KR43" t="n">
+      <c r="KR43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KS43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -40761,8 +40890,11 @@
       <c r="KQ44" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="KR44" t="n">
+      <c r="KR44" s="2" t="n">
         <v>135</v>
+      </c>
+      <c r="KS44" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41677,8 +41809,11 @@
       <c r="KQ45" s="2" t="n">
         <v>258</v>
       </c>
-      <c r="KR45" t="n">
+      <c r="KR45" s="2" t="n">
         <v>203</v>
+      </c>
+      <c r="KS45" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42593,8 +42728,11 @@
       <c r="KQ46" s="2" t="n">
         <v>309</v>
       </c>
-      <c r="KR46" t="n">
+      <c r="KR46" s="2" t="n">
         <v>245</v>
+      </c>
+      <c r="KS46" t="n">
+        <v>244</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -43509,8 +43647,11 @@
       <c r="KQ47" s="2" t="n">
         <v>76.3</v>
       </c>
-      <c r="KR47" t="n">
+      <c r="KR47" s="2" t="n">
         <v>71.2</v>
+      </c>
+      <c r="KS47" t="n">
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -44425,8 +44566,11 @@
       <c r="KQ48" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KR48" t="n">
+      <c r="KR48" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KS48" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -45341,8 +45485,11 @@
       <c r="KQ49" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KR49" t="n">
+      <c r="KR49" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KS49" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -46257,8 +46404,11 @@
       <c r="KQ50" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KR50" t="n">
+      <c r="KR50" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KS50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -47173,8 +47323,11 @@
       <c r="KQ51" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KR51" t="n">
+      <c r="KR51" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KS51" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -48089,8 +48242,11 @@
       <c r="KQ52" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KR52" t="n">
+      <c r="KR52" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KS52" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -49005,8 +49161,11 @@
       <c r="KQ53" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KR53" t="n">
+      <c r="KR53" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KS53" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -49921,8 +50080,11 @@
       <c r="KQ54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KR54" t="n">
+      <c r="KR54" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KS54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -50837,8 +50999,11 @@
       <c r="KQ55" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KR55" t="n">
+      <c r="KR55" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KS55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -51753,8 +51918,11 @@
       <c r="KQ56" s="2" t="n">
         <v>90.90000000000001</v>
       </c>
-      <c r="KR56" t="n">
+      <c r="KR56" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="KS56" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -52669,8 +52837,11 @@
       <c r="KQ57" s="2" t="n">
         <v>182</v>
       </c>
-      <c r="KR57" t="n">
+      <c r="KR57" s="2" t="n">
         <v>219</v>
+      </c>
+      <c r="KS57" t="n">
+        <v>207</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -53585,8 +53756,11 @@
       <c r="KQ58" s="2" t="n">
         <v>134</v>
       </c>
-      <c r="KR58" t="n">
+      <c r="KR58" s="2" t="n">
         <v>179</v>
+      </c>
+      <c r="KS58" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -54501,8 +54675,11 @@
       <c r="KQ59" s="2" t="n">
         <v>316</v>
       </c>
-      <c r="KR59" t="n">
+      <c r="KR59" s="2" t="n">
         <v>398</v>
+      </c>
+      <c r="KS59" t="n">
+        <v>369</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -55417,8 +55594,11 @@
       <c r="KQ60" s="2" t="n">
         <v>1.36</v>
       </c>
-      <c r="KR60" t="n">
+      <c r="KR60" s="2" t="n">
         <v>1.22</v>
+      </c>
+      <c r="KS60" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -56333,8 +56513,11 @@
       <c r="KQ61" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KR61" t="n">
+      <c r="KR61" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="KS61" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -57249,8 +57432,11 @@
       <c r="KQ62" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="KR62" t="n">
+      <c r="KR62" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="KS62" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -58165,8 +58351,11 @@
       <c r="KQ63" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KR63" t="n">
+      <c r="KR63" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KS63" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -59081,8 +59270,11 @@
       <c r="KQ64" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KR64" t="n">
+      <c r="KR64" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KS64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -59997,8 +60189,11 @@
       <c r="KQ65" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KR65" t="n">
+      <c r="KR65" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KS65" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -60913,8 +61108,11 @@
       <c r="KQ66" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KR66" t="n">
+      <c r="KR66" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KS66" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -61829,8 +62027,11 @@
       <c r="KQ67" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KR67" t="n">
+      <c r="KR67" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KS67" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -62745,8 +62946,11 @@
       <c r="KQ68" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KR68" t="n">
+      <c r="KR68" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KS68" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -63661,8 +63865,11 @@
       <c r="KQ69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KR69" t="n">
+      <c r="KR69" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KS69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -64577,8 +64784,11 @@
       <c r="KQ70" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KR70" t="n">
+      <c r="KR70" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="KS70" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -65493,8 +65703,11 @@
       <c r="KQ71" s="2" t="n">
         <v>72.7</v>
       </c>
-      <c r="KR71" t="n">
+      <c r="KR71" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KS71" t="n">
+        <v>78.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -66409,8 +66622,11 @@
       <c r="KQ72" s="2" t="n">
         <v>19.75</v>
       </c>
-      <c r="KR72" t="n">
+      <c r="KR72" s="2" t="n">
         <v>28.43</v>
+      </c>
+      <c r="KS72" t="n">
+        <v>20.5</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -67325,8 +67541,11 @@
       <c r="KQ73" s="2" t="n">
         <v>14.36</v>
       </c>
-      <c r="KR73" t="n">
+      <c r="KR73" s="2" t="n">
         <v>14.21</v>
+      </c>
+      <c r="KS73" t="n">
+        <v>16.04</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -68241,8 +68460,11 @@
       <c r="KQ74" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KR74" t="n">
+      <c r="KR74" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KS74" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -69157,8 +69379,11 @@
       <c r="KQ75" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KR75" t="n">
+      <c r="KR75" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KS75" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -70073,8 +70298,11 @@
       <c r="KQ76" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KR76" t="n">
+      <c r="KR76" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KS76" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -70989,8 +71217,11 @@
       <c r="KQ77" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KR77" t="n">
+      <c r="KR77" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KS77" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -71905,8 +72136,11 @@
       <c r="KQ78" s="2" t="n">
         <v>2.36</v>
       </c>
-      <c r="KR78" t="n">
+      <c r="KR78" s="2" t="n">
         <v>2.14</v>
+      </c>
+      <c r="KS78" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -72821,8 +73055,11 @@
       <c r="KQ79" s="2" t="n">
         <v>3.25</v>
       </c>
-      <c r="KR79" t="n">
+      <c r="KR79" s="2" t="n">
         <v>4.29</v>
+      </c>
+      <c r="KS79" t="n">
+        <v>2.94</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -73737,8 +73974,11 @@
       <c r="KQ80" s="2" t="n">
         <v>40.4</v>
       </c>
-      <c r="KR80" t="n">
+      <c r="KR80" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KS80" t="n">
+        <v>41.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -74653,8 +74893,11 @@
       <c r="KQ81" s="2" t="n">
         <v>30.8</v>
       </c>
-      <c r="KR81" t="n">
+      <c r="KR81" s="2" t="n">
         <v>23.3</v>
+      </c>
+      <c r="KS81" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -75569,8 +75812,11 @@
       <c r="KQ82" s="2" t="n">
         <v>189.1</v>
       </c>
-      <c r="KR82" t="n">
+      <c r="KR82" s="2" t="n">
         <v>188.6</v>
+      </c>
+      <c r="KS82" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -76485,8 +76731,11 @@
       <c r="KQ83" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="KR83" t="n">
+      <c r="KR83" s="2" t="n">
         <v>87.3</v>
+      </c>
+      <c r="KS83" t="n">
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -77401,8 +77650,11 @@
       <c r="KQ84" s="2" t="n">
         <v>26.16</v>
       </c>
-      <c r="KR84" t="n">
+      <c r="KR84" s="2" t="n">
         <v>26.24</v>
+      </c>
+      <c r="KS84" t="n">
+        <v>27.49</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -78317,8 +78569,11 @@
       <c r="KQ85" s="2" t="n">
         <v>104.8</v>
       </c>
-      <c r="KR85" t="n">
+      <c r="KR85" s="2" t="n">
         <v>93.7</v>
+      </c>
+      <c r="KS85" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -79233,8 +79488,11 @@
       <c r="KQ86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KR86" t="n">
+      <c r="KR86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KS86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -80149,8 +80407,11 @@
       <c r="KQ87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KR87" t="n">
+      <c r="KR87" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KS87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -81065,8 +81326,11 @@
       <c r="KQ88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KR88" t="n">
+      <c r="KR88" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KS88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -81981,8 +82245,11 @@
       <c r="KQ89" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KR89" t="n">
+      <c r="KR89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KS89" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -82897,8 +83164,11 @@
       <c r="KQ90" s="2" t="n">
         <v>131</v>
       </c>
-      <c r="KR90" t="n">
+      <c r="KR90" s="2" t="n">
         <v>155</v>
+      </c>
+      <c r="KS90" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -83813,8 +84083,11 @@
       <c r="KQ91" s="2" t="n">
         <v>181</v>
       </c>
-      <c r="KR91" t="n">
+      <c r="KR91" s="2" t="n">
         <v>242</v>
+      </c>
+      <c r="KS91" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -84729,8 +85002,11 @@
       <c r="KQ92" s="2" t="n">
         <v>238</v>
       </c>
-      <c r="KR92" t="n">
+      <c r="KR92" s="2" t="n">
         <v>287</v>
+      </c>
+      <c r="KS92" t="n">
+        <v>266</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -85645,7 +85921,10 @@
       <c r="KQ93" s="2" t="n">
         <v>75.3</v>
       </c>
-      <c r="KR93" t="n">
+      <c r="KR93" s="2" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="KS93" t="n">
         <v>72.09999999999999</v>
       </c>
     </row>
@@ -86561,8 +86840,11 @@
       <c r="KQ94" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KR94" t="n">
+      <c r="KR94" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KS94" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -87477,8 +87759,11 @@
       <c r="KQ95" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KR95" t="n">
+      <c r="KR95" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KS95" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -88393,8 +88678,11 @@
       <c r="KQ96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KR96" t="n">
+      <c r="KR96" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KS96" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -89309,8 +89597,11 @@
       <c r="KQ97" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KR97" t="n">
+      <c r="KR97" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KS97" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -90225,8 +90516,11 @@
       <c r="KQ98" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KR98" t="n">
+      <c r="KR98" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KS98" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -91141,8 +91435,11 @@
       <c r="KQ99" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KR99" t="n">
+      <c r="KR99" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KS99" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -92057,8 +92354,11 @@
       <c r="KQ100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KR100" t="n">
+      <c r="KR100" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KS100" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -92973,8 +93273,11 @@
       <c r="KQ101" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KR101" t="n">
+      <c r="KR101" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KS101" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -93889,8 +94192,11 @@
       <c r="KQ102" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KR102" t="n">
+      <c r="KR102" s="2" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="KS102" t="n">
+        <v>66.7</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Fremantle_stats.xlsx
+++ b/AFL_ML/Data/Fremantle_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KS102"/>
+  <dimension ref="A1:KT102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KD90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KJ94" activeCellId="0" sqref="KJ94"/>
@@ -1376,8 +1376,11 @@
       <c r="KR1" s="2" t="n">
         <v>10894</v>
       </c>
-      <c r="KS1" t="n">
+      <c r="KS1" s="2" t="n">
         <v>10896</v>
+      </c>
+      <c r="KT1" t="n">
+        <v>10912</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2295,7 +2298,10 @@
       <c r="KR2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KS2" t="n">
+      <c r="KS2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KT2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3214,8 +3220,11 @@
       <c r="KR3" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KS3" t="n">
+      <c r="KS3" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4133,8 +4142,11 @@
       <c r="KR4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KS4" t="n">
+      <c r="KS4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5052,8 +5064,11 @@
       <c r="KR5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KS5" t="n">
+      <c r="KS5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KT5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5971,8 +5986,11 @@
       <c r="KR6" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KS6" t="n">
+      <c r="KS6" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="KT6" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6890,8 +6908,11 @@
       <c r="KR7" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="KS7" t="n">
+      <c r="KS7" s="2" t="n">
         <v>113</v>
+      </c>
+      <c r="KT7" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7809,8 +7830,11 @@
       <c r="KR8" s="2" t="n">
         <v>-53</v>
       </c>
-      <c r="KS8" t="n">
+      <c r="KS8" s="2" t="n">
         <v>-46</v>
+      </c>
+      <c r="KT8" t="n">
+        <v>-29</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8728,7 +8752,10 @@
       <c r="KR9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KS9" t="n">
+      <c r="KS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9647,8 +9674,11 @@
       <c r="KR10" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KS10" t="n">
+      <c r="KS10" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KT10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10566,8 +10596,11 @@
       <c r="KR11" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="KS11" t="n">
+      <c r="KS11" s="2" t="n">
         <v>175</v>
+      </c>
+      <c r="KT11" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11485,8 +11518,11 @@
       <c r="KR12" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="KS12" t="n">
+      <c r="KS12" s="2" t="n">
         <v>152</v>
+      </c>
+      <c r="KT12" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12404,8 +12440,11 @@
       <c r="KR13" s="2" t="n">
         <v>344</v>
       </c>
-      <c r="KS13" t="n">
+      <c r="KS13" s="2" t="n">
         <v>327</v>
+      </c>
+      <c r="KT13" t="n">
+        <v>357</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13323,8 +13362,11 @@
       <c r="KR14" s="2" t="n">
         <v>1.29</v>
       </c>
-      <c r="KS14" t="n">
+      <c r="KS14" s="2" t="n">
         <v>1.15</v>
+      </c>
+      <c r="KT14" t="n">
+        <v>1.12</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14242,8 +14284,11 @@
       <c r="KR15" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="KS15" t="n">
+      <c r="KS15" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="KT15" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15161,8 +15206,11 @@
       <c r="KR16" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KS16" t="n">
+      <c r="KS16" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="KT16" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16080,8 +16128,11 @@
       <c r="KR17" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KS17" t="n">
+      <c r="KS17" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KT17" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16999,8 +17050,11 @@
       <c r="KR18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KS18" t="n">
+      <c r="KS18" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KT18" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17918,8 +17972,11 @@
       <c r="KR19" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KS19" t="n">
+      <c r="KS19" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KT19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18837,8 +18894,11 @@
       <c r="KR20" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KS20" t="n">
+      <c r="KS20" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KT20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19756,8 +19816,11 @@
       <c r="KR21" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KS21" t="n">
+      <c r="KS21" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KT21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20675,8 +20738,11 @@
       <c r="KR22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KS22" t="n">
+      <c r="KS22" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KT22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21594,8 +21660,11 @@
       <c r="KR23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KS23" t="n">
+      <c r="KS23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KT23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22513,8 +22582,11 @@
       <c r="KR24" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KS24" t="n">
+      <c r="KS24" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KT24" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23432,8 +23504,11 @@
       <c r="KR25" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KS25" t="n">
+      <c r="KS25" s="2" t="n">
         <v>58.8</v>
+      </c>
+      <c r="KT25" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24351,8 +24426,11 @@
       <c r="KR26" s="2" t="n">
         <v>57.33</v>
       </c>
-      <c r="KS26" t="n">
+      <c r="KS26" s="2" t="n">
         <v>32.7</v>
+      </c>
+      <c r="KT26" t="n">
+        <v>29.75</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25270,8 +25348,11 @@
       <c r="KR27" s="2" t="n">
         <v>22.93</v>
       </c>
-      <c r="KS27" t="n">
+      <c r="KS27" s="2" t="n">
         <v>19.24</v>
+      </c>
+      <c r="KT27" t="n">
+        <v>22.31</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26189,8 +26270,11 @@
       <c r="KR28" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KS28" t="n">
+      <c r="KS28" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KT28" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27108,8 +27192,11 @@
       <c r="KR29" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KS29" t="n">
+      <c r="KS29" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KT29" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28027,8 +28114,11 @@
       <c r="KR30" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KS30" t="n">
+      <c r="KS30" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KT30" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28946,8 +29036,11 @@
       <c r="KR31" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KS31" t="n">
+      <c r="KS31" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KT31" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29865,8 +29958,11 @@
       <c r="KR32" s="2" t="n">
         <v>2.8</v>
       </c>
-      <c r="KS32" t="n">
+      <c r="KS32" s="2" t="n">
         <v>2.06</v>
+      </c>
+      <c r="KT32" t="n">
+        <v>3.12</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30784,8 +30880,11 @@
       <c r="KR33" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KS33" t="n">
+      <c r="KS33" s="2" t="n">
         <v>3.5</v>
+      </c>
+      <c r="KT33" t="n">
+        <v>4.17</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31703,8 +31802,11 @@
       <c r="KR34" s="2" t="n">
         <v>26.2</v>
       </c>
-      <c r="KS34" t="n">
+      <c r="KS34" s="2" t="n">
         <v>45.7</v>
+      </c>
+      <c r="KT34" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32622,8 +32724,11 @@
       <c r="KR35" s="2" t="n">
         <v>14.3</v>
       </c>
-      <c r="KS35" t="n">
+      <c r="KS35" s="2" t="n">
         <v>28.6</v>
+      </c>
+      <c r="KT35" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33541,8 +33646,11 @@
       <c r="KR36" s="2" t="n">
         <v>187.8</v>
       </c>
-      <c r="KS36" t="n">
+      <c r="KS36" s="2" t="n">
         <v>188.2</v>
+      </c>
+      <c r="KT36" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -34460,8 +34568,11 @@
       <c r="KR37" s="2" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="KS37" t="n">
+      <c r="KS37" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="KT37" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35379,8 +35490,11 @@
       <c r="KR38" s="2" t="n">
         <v>24.16</v>
       </c>
-      <c r="KS38" t="n">
+      <c r="KS38" s="2" t="n">
         <v>24.74</v>
+      </c>
+      <c r="KT38" t="n">
+        <v>24.49</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -36298,8 +36412,11 @@
       <c r="KR39" s="2" t="n">
         <v>77.3</v>
       </c>
-      <c r="KS39" t="n">
+      <c r="KS39" s="2" t="n">
         <v>75.5</v>
+      </c>
+      <c r="KT39" t="n">
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -37217,7 +37334,10 @@
       <c r="KR40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KS40" t="n">
+      <c r="KS40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KT40" t="n">
         <v>9</v>
       </c>
     </row>
@@ -38136,8 +38256,11 @@
       <c r="KR41" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KS41" t="n">
+      <c r="KS41" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KT41" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -39055,7 +39178,10 @@
       <c r="KR42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KS42" t="n">
+      <c r="KS42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KT42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -39974,8 +40100,11 @@
       <c r="KR43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KS43" t="n">
+      <c r="KS43" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KT43" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -40893,8 +41022,11 @@
       <c r="KR44" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="KS44" t="n">
+      <c r="KS44" s="2" t="n">
         <v>134</v>
+      </c>
+      <c r="KT44" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41812,8 +41944,11 @@
       <c r="KR45" s="2" t="n">
         <v>203</v>
       </c>
-      <c r="KS45" t="n">
+      <c r="KS45" s="2" t="n">
         <v>200</v>
+      </c>
+      <c r="KT45" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42731,8 +42866,11 @@
       <c r="KR46" s="2" t="n">
         <v>245</v>
       </c>
-      <c r="KS46" t="n">
+      <c r="KS46" s="2" t="n">
         <v>244</v>
+      </c>
+      <c r="KT46" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -43650,8 +43788,11 @@
       <c r="KR47" s="2" t="n">
         <v>71.2</v>
       </c>
-      <c r="KS47" t="n">
+      <c r="KS47" s="2" t="n">
         <v>74.59999999999999</v>
+      </c>
+      <c r="KT47" t="n">
+        <v>78.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -44569,8 +44710,11 @@
       <c r="KR48" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KS48" t="n">
+      <c r="KS48" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KT48" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -45488,8 +45632,11 @@
       <c r="KR49" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KS49" t="n">
+      <c r="KS49" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KT49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -46407,7 +46554,10 @@
       <c r="KR50" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KS50" t="n">
+      <c r="KS50" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KT50" t="n">
         <v>12</v>
       </c>
     </row>
@@ -47326,8 +47476,11 @@
       <c r="KR51" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KS51" t="n">
+      <c r="KS51" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KT51" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -48245,8 +48398,11 @@
       <c r="KR52" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KS52" t="n">
+      <c r="KS52" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KT52" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -49164,8 +49320,11 @@
       <c r="KR53" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KS53" t="n">
+      <c r="KS53" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KT53" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -50083,8 +50242,11 @@
       <c r="KR54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KS54" t="n">
+      <c r="KS54" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KT54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -51002,8 +51164,11 @@
       <c r="KR55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KS55" t="n">
+      <c r="KS55" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KT55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -51921,8 +52086,11 @@
       <c r="KR56" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="KS56" t="n">
+      <c r="KS56" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="KT56" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -52840,8 +53008,11 @@
       <c r="KR57" s="2" t="n">
         <v>219</v>
       </c>
-      <c r="KS57" t="n">
+      <c r="KS57" s="2" t="n">
         <v>207</v>
+      </c>
+      <c r="KT57" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -53759,8 +53930,11 @@
       <c r="KR58" s="2" t="n">
         <v>179</v>
       </c>
-      <c r="KS58" t="n">
+      <c r="KS58" s="2" t="n">
         <v>162</v>
+      </c>
+      <c r="KT58" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -54678,8 +54852,11 @@
       <c r="KR59" s="2" t="n">
         <v>398</v>
       </c>
-      <c r="KS59" t="n">
+      <c r="KS59" s="2" t="n">
         <v>369</v>
+      </c>
+      <c r="KT59" t="n">
+        <v>359</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -55597,8 +55774,11 @@
       <c r="KR60" s="2" t="n">
         <v>1.22</v>
       </c>
-      <c r="KS60" t="n">
+      <c r="KS60" s="2" t="n">
         <v>1.28</v>
+      </c>
+      <c r="KT60" t="n">
+        <v>1.44</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -56516,8 +56696,11 @@
       <c r="KR61" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="KS61" t="n">
+      <c r="KS61" s="2" t="n">
         <v>96</v>
+      </c>
+      <c r="KT61" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -57435,8 +57618,11 @@
       <c r="KR62" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KS62" t="n">
+      <c r="KS62" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="KT62" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -58354,8 +58540,11 @@
       <c r="KR63" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KS63" t="n">
+      <c r="KS63" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KT63" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -59273,8 +59462,11 @@
       <c r="KR64" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KS64" t="n">
+      <c r="KS64" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KT64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -60192,8 +60384,11 @@
       <c r="KR65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KS65" t="n">
+      <c r="KS65" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KT65" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -61111,8 +61306,11 @@
       <c r="KR66" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KS66" t="n">
+      <c r="KS66" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KT66" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -62030,8 +62228,11 @@
       <c r="KR67" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KS67" t="n">
+      <c r="KS67" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KT67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -62949,8 +63150,11 @@
       <c r="KR68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KS68" t="n">
+      <c r="KS68" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KT68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -63868,8 +64072,11 @@
       <c r="KR69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KS69" t="n">
+      <c r="KS69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KT69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -64787,8 +64994,11 @@
       <c r="KR70" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KS70" t="n">
+      <c r="KS70" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KT70" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -65706,8 +65916,11 @@
       <c r="KR71" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KS71" t="n">
+      <c r="KS71" s="2" t="n">
         <v>78.3</v>
+      </c>
+      <c r="KT71" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -66625,8 +66838,11 @@
       <c r="KR72" s="2" t="n">
         <v>28.43</v>
       </c>
-      <c r="KS72" t="n">
+      <c r="KS72" s="2" t="n">
         <v>20.5</v>
+      </c>
+      <c r="KT72" t="n">
+        <v>22.44</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -67544,8 +67760,11 @@
       <c r="KR73" s="2" t="n">
         <v>14.21</v>
       </c>
-      <c r="KS73" t="n">
+      <c r="KS73" s="2" t="n">
         <v>16.04</v>
+      </c>
+      <c r="KT73" t="n">
+        <v>14.36</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -68463,8 +68682,11 @@
       <c r="KR74" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KS74" t="n">
+      <c r="KS74" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KT74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -69382,8 +69604,11 @@
       <c r="KR75" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KS75" t="n">
+      <c r="KS75" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KT75" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -70301,8 +70526,11 @@
       <c r="KR76" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KS76" t="n">
+      <c r="KS76" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KT76" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -71220,8 +71448,11 @@
       <c r="KR77" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KS77" t="n">
+      <c r="KS77" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KT77" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -72139,8 +72370,11 @@
       <c r="KR78" s="2" t="n">
         <v>2.14</v>
       </c>
-      <c r="KS78" t="n">
+      <c r="KS78" s="2" t="n">
         <v>2.3</v>
+      </c>
+      <c r="KT78" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -73058,8 +73292,11 @@
       <c r="KR79" s="2" t="n">
         <v>4.29</v>
       </c>
-      <c r="KS79" t="n">
+      <c r="KS79" s="2" t="n">
         <v>2.94</v>
+      </c>
+      <c r="KT79" t="n">
+        <v>2.81</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -73977,8 +74214,11 @@
       <c r="KR80" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KS80" t="n">
+      <c r="KS80" s="2" t="n">
         <v>41.5</v>
+      </c>
+      <c r="KT80" t="n">
+        <v>48.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -74896,8 +75136,11 @@
       <c r="KR81" s="2" t="n">
         <v>23.3</v>
       </c>
-      <c r="KS81" t="n">
+      <c r="KS81" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KT81" t="n">
+        <v>35.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -75815,8 +76058,11 @@
       <c r="KR82" s="2" t="n">
         <v>188.6</v>
       </c>
-      <c r="KS82" t="n">
+      <c r="KS82" s="2" t="n">
         <v>188.2</v>
+      </c>
+      <c r="KT82" t="n">
+        <v>186.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -76734,8 +76980,11 @@
       <c r="KR83" s="2" t="n">
         <v>87.3</v>
       </c>
-      <c r="KS83" t="n">
+      <c r="KS83" s="2" t="n">
         <v>87.40000000000001</v>
+      </c>
+      <c r="KT83" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -77653,8 +77902,11 @@
       <c r="KR84" s="2" t="n">
         <v>26.24</v>
       </c>
-      <c r="KS84" t="n">
+      <c r="KS84" s="2" t="n">
         <v>27.49</v>
+      </c>
+      <c r="KT84" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -78572,8 +78824,11 @@
       <c r="KR85" s="2" t="n">
         <v>93.7</v>
       </c>
-      <c r="KS85" t="n">
+      <c r="KS85" s="2" t="n">
         <v>134</v>
+      </c>
+      <c r="KT85" t="n">
+        <v>123.4</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -79491,8 +79746,11 @@
       <c r="KR86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KS86" t="n">
+      <c r="KS86" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KT86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -80410,7 +80668,10 @@
       <c r="KR87" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KS87" t="n">
+      <c r="KS87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KT87" t="n">
         <v>7</v>
       </c>
     </row>
@@ -81329,8 +81590,11 @@
       <c r="KR88" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KS88" t="n">
+      <c r="KS88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KT88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -82248,8 +82512,11 @@
       <c r="KR89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KS89" t="n">
+      <c r="KS89" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KT89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -83167,8 +83434,11 @@
       <c r="KR90" s="2" t="n">
         <v>155</v>
       </c>
-      <c r="KS90" t="n">
+      <c r="KS90" s="2" t="n">
         <v>135</v>
+      </c>
+      <c r="KT90" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -84086,8 +84356,11 @@
       <c r="KR91" s="2" t="n">
         <v>242</v>
       </c>
-      <c r="KS91" t="n">
+      <c r="KS91" s="2" t="n">
         <v>222</v>
+      </c>
+      <c r="KT91" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -85005,8 +85278,11 @@
       <c r="KR92" s="2" t="n">
         <v>287</v>
       </c>
-      <c r="KS92" t="n">
+      <c r="KS92" s="2" t="n">
         <v>266</v>
+      </c>
+      <c r="KT92" t="n">
+        <v>289</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -85924,8 +86200,11 @@
       <c r="KR93" s="2" t="n">
         <v>72.09999999999999</v>
       </c>
-      <c r="KS93" t="n">
+      <c r="KS93" s="2" t="n">
         <v>72.09999999999999</v>
+      </c>
+      <c r="KT93" t="n">
+        <v>80.5</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -86843,8 +87122,11 @@
       <c r="KR94" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KS94" t="n">
+      <c r="KS94" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KT94" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -87762,8 +88044,11 @@
       <c r="KR95" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KS95" t="n">
+      <c r="KS95" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KT95" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -88681,8 +88966,11 @@
       <c r="KR96" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KS96" t="n">
+      <c r="KS96" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KT96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -89600,8 +89888,11 @@
       <c r="KR97" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KS97" t="n">
+      <c r="KS97" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KT97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -90519,8 +90810,11 @@
       <c r="KR98" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KS98" t="n">
+      <c r="KS98" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KT98" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -91438,8 +91732,11 @@
       <c r="KR99" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KS99" t="n">
+      <c r="KS99" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KT99" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -92357,8 +92654,11 @@
       <c r="KR100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KS100" t="n">
+      <c r="KS100" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KT100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -93276,8 +93576,11 @@
       <c r="KR101" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KS101" t="n">
+      <c r="KS101" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KT101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -94195,8 +94498,11 @@
       <c r="KR102" s="2" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="KS102" t="n">
+      <c r="KS102" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="KT102" t="n">
+        <v>62.5</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Fremantle_stats.xlsx
+++ b/AFL_ML/Data/Fremantle_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KU102"/>
+  <dimension ref="A1:KV102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KD90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KJ94" activeCellId="0" sqref="KJ94"/>
@@ -1382,8 +1382,11 @@
       <c r="KT1" s="2" t="n">
         <v>10912</v>
       </c>
-      <c r="KU1" t="n">
+      <c r="KU1" s="2" t="n">
         <v>10915</v>
+      </c>
+      <c r="KV1" t="n">
+        <v>10930</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2307,7 +2310,10 @@
       <c r="KT2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KU2" t="n">
+      <c r="KU2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KV2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3232,8 +3238,11 @@
       <c r="KT3" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KU3" t="n">
+      <c r="KU3" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4157,8 +4166,11 @@
       <c r="KT4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KU4" t="n">
+      <c r="KU4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5082,7 +5094,10 @@
       <c r="KT5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KU5" t="n">
+      <c r="KU5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KV5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,8 +6022,11 @@
       <c r="KT6" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="KU6" t="n">
+      <c r="KU6" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="KV6" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6932,8 +6950,11 @@
       <c r="KT7" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="KU7" t="n">
+      <c r="KU7" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KV7" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7857,8 +7878,11 @@
       <c r="KT8" s="2" t="n">
         <v>-29</v>
       </c>
-      <c r="KU8" t="n">
+      <c r="KU8" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KV8" t="n">
+        <v>-3</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8782,8 +8806,11 @@
       <c r="KT9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KU9" t="n">
+      <c r="KU9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KV9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9707,8 +9734,11 @@
       <c r="KT10" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KU10" t="n">
+      <c r="KU10" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KV10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10632,8 +10662,11 @@
       <c r="KT11" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="KU11" t="n">
+      <c r="KU11" s="2" t="n">
         <v>218</v>
+      </c>
+      <c r="KV11" t="n">
+        <v>198</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11557,8 +11590,11 @@
       <c r="KT12" s="2" t="n">
         <v>168</v>
       </c>
-      <c r="KU12" t="n">
+      <c r="KU12" s="2" t="n">
         <v>147</v>
+      </c>
+      <c r="KV12" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12482,8 +12518,11 @@
       <c r="KT13" s="2" t="n">
         <v>357</v>
       </c>
-      <c r="KU13" t="n">
+      <c r="KU13" s="2" t="n">
         <v>365</v>
+      </c>
+      <c r="KV13" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13407,8 +13446,11 @@
       <c r="KT14" s="2" t="n">
         <v>1.12</v>
       </c>
-      <c r="KU14" t="n">
+      <c r="KU14" s="2" t="n">
         <v>1.48</v>
+      </c>
+      <c r="KV14" t="n">
+        <v>1.22</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14332,8 +14374,11 @@
       <c r="KT15" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="KU15" t="n">
+      <c r="KU15" s="2" t="n">
         <v>93</v>
+      </c>
+      <c r="KV15" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15257,8 +15302,11 @@
       <c r="KT16" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KU16" t="n">
+      <c r="KU16" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KV16" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16182,8 +16230,11 @@
       <c r="KT17" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KU17" t="n">
+      <c r="KU17" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KV17" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -17107,8 +17158,11 @@
       <c r="KT18" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KU18" t="n">
+      <c r="KU18" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KV18" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -18032,8 +18086,11 @@
       <c r="KT19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KU19" t="n">
+      <c r="KU19" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KV19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18957,8 +19014,11 @@
       <c r="KT20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KU20" t="n">
+      <c r="KU20" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KV20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19882,8 +19942,11 @@
       <c r="KT21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KU21" t="n">
+      <c r="KU21" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KV21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20807,8 +20870,11 @@
       <c r="KT22" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KU22" t="n">
+      <c r="KU22" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KV22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21732,8 +21798,11 @@
       <c r="KT23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KU23" t="n">
+      <c r="KU23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KV23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22657,8 +22726,11 @@
       <c r="KT24" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KU24" t="n">
+      <c r="KU24" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KV24" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23582,8 +23654,11 @@
       <c r="KT25" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KU25" t="n">
+      <c r="KU25" s="2" t="n">
         <v>47.6</v>
+      </c>
+      <c r="KV25" t="n">
+        <v>57.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24507,8 +24582,11 @@
       <c r="KT26" s="2" t="n">
         <v>29.75</v>
       </c>
-      <c r="KU26" t="n">
+      <c r="KU26" s="2" t="n">
         <v>36.5</v>
+      </c>
+      <c r="KV26" t="n">
+        <v>32.73</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25432,8 +25510,11 @@
       <c r="KT27" s="2" t="n">
         <v>22.31</v>
       </c>
-      <c r="KU27" t="n">
+      <c r="KU27" s="2" t="n">
         <v>17.38</v>
+      </c>
+      <c r="KV27" t="n">
+        <v>18.95</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26357,8 +26438,11 @@
       <c r="KT28" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KU28" t="n">
+      <c r="KU28" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KV28" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27282,8 +27366,11 @@
       <c r="KT29" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KU29" t="n">
+      <c r="KU29" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KV29" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28207,8 +28294,11 @@
       <c r="KT30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KU30" t="n">
+      <c r="KU30" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KV30" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29132,8 +29222,11 @@
       <c r="KT31" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KU31" t="n">
+      <c r="KU31" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KV31" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -30057,8 +30150,11 @@
       <c r="KT32" s="2" t="n">
         <v>3.12</v>
       </c>
-      <c r="KU32" t="n">
+      <c r="KU32" s="2" t="n">
         <v>2.52</v>
+      </c>
+      <c r="KV32" t="n">
+        <v>2.58</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30982,8 +31078,11 @@
       <c r="KT33" s="2" t="n">
         <v>4.17</v>
       </c>
-      <c r="KU33" t="n">
+      <c r="KU33" s="2" t="n">
         <v>5.3</v>
+      </c>
+      <c r="KV33" t="n">
+        <v>4.45</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31907,8 +32006,11 @@
       <c r="KT34" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KU34" t="n">
+      <c r="KU34" s="2" t="n">
         <v>35.8</v>
+      </c>
+      <c r="KV34" t="n">
+        <v>36.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32832,8 +32934,11 @@
       <c r="KT35" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KU35" t="n">
+      <c r="KU35" s="2" t="n">
         <v>18.9</v>
+      </c>
+      <c r="KV35" t="n">
+        <v>22.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33757,8 +33862,11 @@
       <c r="KT36" s="2" t="n">
         <v>187.3</v>
       </c>
-      <c r="KU36" t="n">
+      <c r="KU36" s="2" t="n">
         <v>186.9</v>
+      </c>
+      <c r="KV36" t="n">
+        <v>187.1</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -34682,8 +34790,11 @@
       <c r="KT37" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="KU37" t="n">
+      <c r="KU37" s="2" t="n">
         <v>85.2</v>
+      </c>
+      <c r="KV37" t="n">
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35607,8 +35718,11 @@
       <c r="KT38" s="2" t="n">
         <v>24.49</v>
       </c>
-      <c r="KU38" t="n">
+      <c r="KU38" s="2" t="n">
         <v>24.91</v>
+      </c>
+      <c r="KV38" t="n">
+        <v>24.66</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -36532,8 +36646,11 @@
       <c r="KT39" s="2" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="KU39" t="n">
+      <c r="KU39" s="2" t="n">
         <v>75.8</v>
+      </c>
+      <c r="KV39" t="n">
+        <v>77.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -37457,7 +37574,10 @@
       <c r="KT40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KU40" t="n">
+      <c r="KU40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KV40" t="n">
         <v>8</v>
       </c>
     </row>
@@ -38382,7 +38502,10 @@
       <c r="KT41" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KU41" t="n">
+      <c r="KU41" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KV41" t="n">
         <v>8</v>
       </c>
     </row>
@@ -39307,7 +39430,10 @@
       <c r="KT42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KU42" t="n">
+      <c r="KU42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KV42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40232,7 +40358,10 @@
       <c r="KT43" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KU43" t="n">
+      <c r="KU43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KV43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -41157,8 +41286,11 @@
       <c r="KT44" s="2" t="n">
         <v>121</v>
       </c>
-      <c r="KU44" t="n">
+      <c r="KU44" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="KV44" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -42082,8 +42214,11 @@
       <c r="KT45" s="2" t="n">
         <v>236</v>
       </c>
-      <c r="KU45" t="n">
+      <c r="KU45" s="2" t="n">
         <v>222</v>
+      </c>
+      <c r="KV45" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -43007,8 +43142,11 @@
       <c r="KT46" s="2" t="n">
         <v>281</v>
       </c>
-      <c r="KU46" t="n">
+      <c r="KU46" s="2" t="n">
         <v>259</v>
+      </c>
+      <c r="KV46" t="n">
+        <v>271</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -43932,8 +44070,11 @@
       <c r="KT47" s="2" t="n">
         <v>78.7</v>
       </c>
-      <c r="KU47" t="n">
+      <c r="KU47" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="KV47" t="n">
+        <v>75.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -44857,8 +44998,11 @@
       <c r="KT48" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KU48" t="n">
+      <c r="KU48" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KV48" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -45782,8 +45926,11 @@
       <c r="KT49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KU49" t="n">
+      <c r="KU49" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KV49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -46707,8 +46854,11 @@
       <c r="KT50" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KU50" t="n">
+      <c r="KU50" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KV50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -47632,8 +47782,11 @@
       <c r="KT51" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KU51" t="n">
+      <c r="KU51" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KV51" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -48557,8 +48710,11 @@
       <c r="KT52" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KU52" t="n">
+      <c r="KU52" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KV52" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -49482,8 +49638,11 @@
       <c r="KT53" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KU53" t="n">
+      <c r="KU53" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KV53" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -50407,7 +50566,10 @@
       <c r="KT54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KU54" t="n">
+      <c r="KU54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KV54" t="n">
         <v>3</v>
       </c>
     </row>
@@ -51332,8 +51494,11 @@
       <c r="KT55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KU55" t="n">
+      <c r="KU55" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KV55" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -52257,8 +52422,11 @@
       <c r="KT56" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KU56" t="n">
+      <c r="KU56" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="KV56" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -53182,8 +53350,11 @@
       <c r="KT57" s="2" t="n">
         <v>212</v>
       </c>
-      <c r="KU57" t="n">
+      <c r="KU57" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="KV57" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -54107,8 +54278,11 @@
       <c r="KT58" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="KU58" t="n">
+      <c r="KU58" s="2" t="n">
         <v>124</v>
+      </c>
+      <c r="KV58" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -55032,8 +55206,11 @@
       <c r="KT59" s="2" t="n">
         <v>359</v>
       </c>
-      <c r="KU59" t="n">
+      <c r="KU59" s="2" t="n">
         <v>329</v>
+      </c>
+      <c r="KV59" t="n">
+        <v>341</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -55957,8 +56134,11 @@
       <c r="KT60" s="2" t="n">
         <v>1.44</v>
       </c>
-      <c r="KU60" t="n">
+      <c r="KU60" s="2" t="n">
         <v>1.65</v>
+      </c>
+      <c r="KV60" t="n">
+        <v>1.99</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -56882,8 +57062,11 @@
       <c r="KT61" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="KU61" t="n">
+      <c r="KU61" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="KV61" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -57807,8 +57990,11 @@
       <c r="KT62" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KU62" t="n">
+      <c r="KU62" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="KV62" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -58732,8 +58918,11 @@
       <c r="KT63" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KU63" t="n">
+      <c r="KU63" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KV63" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -59657,8 +59846,11 @@
       <c r="KT64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KU64" t="n">
+      <c r="KU64" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KV64" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -60582,8 +60774,11 @@
       <c r="KT65" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KU65" t="n">
+      <c r="KU65" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KV65" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -61507,8 +61702,11 @@
       <c r="KT66" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KU66" t="n">
+      <c r="KU66" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KV66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -62432,8 +62630,11 @@
       <c r="KT67" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KU67" t="n">
+      <c r="KU67" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KV67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -63357,7 +63558,10 @@
       <c r="KT68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KU68" t="n">
+      <c r="KU68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KV68" t="n">
         <v>8</v>
       </c>
     </row>
@@ -64282,8 +64486,11 @@
       <c r="KT69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KU69" t="n">
+      <c r="KU69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KV69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -65207,8 +65414,11 @@
       <c r="KT70" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KU70" t="n">
+      <c r="KU70" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KV70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -66132,8 +66342,11 @@
       <c r="KT71" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KU71" t="n">
+      <c r="KU71" s="2" t="n">
         <v>47.4</v>
+      </c>
+      <c r="KV71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -67057,8 +67270,11 @@
       <c r="KT72" s="2" t="n">
         <v>22.44</v>
       </c>
-      <c r="KU72" t="n">
+      <c r="KU72" s="2" t="n">
         <v>36.56</v>
+      </c>
+      <c r="KV72" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -67982,8 +68198,11 @@
       <c r="KT73" s="2" t="n">
         <v>14.36</v>
       </c>
-      <c r="KU73" t="n">
+      <c r="KU73" s="2" t="n">
         <v>17.32</v>
+      </c>
+      <c r="KV73" t="n">
+        <v>15.5</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -68907,8 +69126,11 @@
       <c r="KT74" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KU74" t="n">
+      <c r="KU74" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="KV74" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -69832,8 +70054,11 @@
       <c r="KT75" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KU75" t="n">
+      <c r="KU75" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KV75" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -70757,8 +70982,11 @@
       <c r="KT76" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KU76" t="n">
+      <c r="KU76" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KV76" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -71682,8 +71910,11 @@
       <c r="KT77" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KU77" t="n">
+      <c r="KU77" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KV77" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -72607,8 +72838,11 @@
       <c r="KT78" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="KU78" t="n">
+      <c r="KU78" s="2" t="n">
         <v>2.74</v>
+      </c>
+      <c r="KV78" t="n">
+        <v>2.14</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -73532,8 +73766,11 @@
       <c r="KT79" s="2" t="n">
         <v>2.81</v>
       </c>
-      <c r="KU79" t="n">
+      <c r="KU79" s="2" t="n">
         <v>5.78</v>
+      </c>
+      <c r="KV79" t="n">
+        <v>4.27</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -74457,8 +74694,11 @@
       <c r="KT80" s="2" t="n">
         <v>48.9</v>
       </c>
-      <c r="KU80" t="n">
+      <c r="KU80" s="2" t="n">
         <v>32.7</v>
+      </c>
+      <c r="KV80" t="n">
+        <v>40.4</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -75382,8 +75622,11 @@
       <c r="KT81" s="2" t="n">
         <v>35.6</v>
       </c>
-      <c r="KU81" t="n">
+      <c r="KU81" s="2" t="n">
         <v>17.3</v>
+      </c>
+      <c r="KV81" t="n">
+        <v>23.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -76307,8 +76550,11 @@
       <c r="KT82" s="2" t="n">
         <v>186.6</v>
       </c>
-      <c r="KU82" t="n">
+      <c r="KU82" s="2" t="n">
         <v>189.3</v>
+      </c>
+      <c r="KV82" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -77232,8 +77478,11 @@
       <c r="KT83" s="2" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="KU83" t="n">
+      <c r="KU83" s="2" t="n">
         <v>88.8</v>
+      </c>
+      <c r="KV83" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -78157,8 +78406,11 @@
       <c r="KT84" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KU84" t="n">
+      <c r="KU84" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="KV84" t="n">
+        <v>26.41</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -79082,8 +79334,11 @@
       <c r="KT85" s="2" t="n">
         <v>123.4</v>
       </c>
-      <c r="KU85" t="n">
+      <c r="KU85" s="2" t="n">
         <v>154.1</v>
+      </c>
+      <c r="KV85" t="n">
+        <v>123.5</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -80007,8 +80262,11 @@
       <c r="KT86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KU86" t="n">
+      <c r="KU86" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KV86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -80932,8 +81190,11 @@
       <c r="KT87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KU87" t="n">
+      <c r="KU87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KV87" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -81857,8 +82118,11 @@
       <c r="KT88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KU88" t="n">
+      <c r="KU88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KV88" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -82782,8 +83046,11 @@
       <c r="KT89" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KU89" t="n">
+      <c r="KU89" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KV89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -83707,8 +83974,11 @@
       <c r="KT90" s="2" t="n">
         <v>127</v>
       </c>
-      <c r="KU90" t="n">
+      <c r="KU90" s="2" t="n">
         <v>127</v>
+      </c>
+      <c r="KV90" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -84632,8 +84902,11 @@
       <c r="KT91" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="KU91" t="n">
+      <c r="KU91" s="2" t="n">
         <v>195</v>
+      </c>
+      <c r="KV91" t="n">
+        <v>207</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -85557,8 +85830,11 @@
       <c r="KT92" s="2" t="n">
         <v>289</v>
       </c>
-      <c r="KU92" t="n">
+      <c r="KU92" s="2" t="n">
         <v>236</v>
+      </c>
+      <c r="KV92" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -86482,8 +86758,11 @@
       <c r="KT93" s="2" t="n">
         <v>80.5</v>
       </c>
-      <c r="KU93" t="n">
+      <c r="KU93" s="2" t="n">
         <v>71.7</v>
+      </c>
+      <c r="KV93" t="n">
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -87407,8 +87686,11 @@
       <c r="KT94" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KU94" t="n">
+      <c r="KU94" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KV94" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -88332,8 +88614,11 @@
       <c r="KT95" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KU95" t="n">
+      <c r="KU95" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KV95" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -89257,8 +89542,11 @@
       <c r="KT96" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KU96" t="n">
+      <c r="KU96" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KV96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -90182,8 +90470,11 @@
       <c r="KT97" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KU97" t="n">
+      <c r="KU97" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="KV97" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -91107,8 +91398,11 @@
       <c r="KT98" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KU98" t="n">
+      <c r="KU98" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KV98" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -92032,8 +92326,11 @@
       <c r="KT99" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KU99" t="n">
+      <c r="KU99" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KV99" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -92957,8 +93254,11 @@
       <c r="KT100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KU100" t="n">
+      <c r="KU100" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KV100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -93882,8 +94182,11 @@
       <c r="KT101" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KU101" t="n">
+      <c r="KU101" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KV101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -94807,8 +95110,11 @@
       <c r="KT102" s="2" t="n">
         <v>62.5</v>
       </c>
-      <c r="KU102" t="n">
+      <c r="KU102" s="2" t="n">
         <v>77.8</v>
+      </c>
+      <c r="KV102" t="n">
+        <v>81.8</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Fremantle_stats.xlsx
+++ b/AFL_ML/Data/Fremantle_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KV102"/>
+  <dimension ref="A1:KW102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KD90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KJ94" activeCellId="0" sqref="KJ94"/>
@@ -1385,8 +1385,11 @@
       <c r="KU1" s="2" t="n">
         <v>10915</v>
       </c>
-      <c r="KV1" t="n">
+      <c r="KV1" s="2" t="n">
         <v>10930</v>
+      </c>
+      <c r="KW1" t="n">
+        <v>10939</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2313,7 +2316,10 @@
       <c r="KU2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KV2" t="n">
+      <c r="KV2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KW2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3241,8 +3247,11 @@
       <c r="KU3" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KV3" t="n">
+      <c r="KV3" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4169,8 +4178,11 @@
       <c r="KU4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KV4" t="n">
+      <c r="KV4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5097,7 +5109,10 @@
       <c r="KU5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KV5" t="n">
+      <c r="KV5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KW5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6025,8 +6040,11 @@
       <c r="KU6" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KV6" t="n">
+      <c r="KV6" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="KW6" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6953,8 +6971,11 @@
       <c r="KU7" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KV7" t="n">
+      <c r="KV7" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="KW7" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7881,8 +7902,11 @@
       <c r="KU8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KV8" t="n">
+      <c r="KV8" s="2" t="n">
         <v>-3</v>
+      </c>
+      <c r="KW8" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8809,8 +8833,11 @@
       <c r="KU9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KV9" t="n">
+      <c r="KV9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KW9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9737,8 +9764,11 @@
       <c r="KU10" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KV10" t="n">
+      <c r="KV10" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KW10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10665,8 +10695,11 @@
       <c r="KU11" s="2" t="n">
         <v>218</v>
       </c>
-      <c r="KV11" t="n">
+      <c r="KV11" s="2" t="n">
         <v>198</v>
+      </c>
+      <c r="KW11" t="n">
+        <v>248</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11593,8 +11626,11 @@
       <c r="KU12" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="KV12" t="n">
+      <c r="KV12" s="2" t="n">
         <v>162</v>
+      </c>
+      <c r="KW12" t="n">
+        <v>175</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12521,8 +12557,11 @@
       <c r="KU13" s="2" t="n">
         <v>365</v>
       </c>
-      <c r="KV13" t="n">
+      <c r="KV13" s="2" t="n">
         <v>360</v>
+      </c>
+      <c r="KW13" t="n">
+        <v>423</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13449,8 +13488,11 @@
       <c r="KU14" s="2" t="n">
         <v>1.48</v>
       </c>
-      <c r="KV14" t="n">
+      <c r="KV14" s="2" t="n">
         <v>1.22</v>
+      </c>
+      <c r="KW14" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14377,8 +14419,11 @@
       <c r="KU15" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="KV15" t="n">
+      <c r="KV15" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="KW15" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15305,8 +15350,11 @@
       <c r="KU16" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KV16" t="n">
+      <c r="KV16" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="KW16" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16233,8 +16281,11 @@
       <c r="KU17" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KV17" t="n">
+      <c r="KV17" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KW17" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -17161,8 +17212,11 @@
       <c r="KU18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KV18" t="n">
+      <c r="KV18" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KW18" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -18089,8 +18143,11 @@
       <c r="KU19" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KV19" t="n">
+      <c r="KV19" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KW19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -19017,8 +19074,11 @@
       <c r="KU20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KV20" t="n">
+      <c r="KV20" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KW20" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19945,8 +20005,11 @@
       <c r="KU21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KV21" t="n">
+      <c r="KV21" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KW21" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20873,8 +20936,11 @@
       <c r="KU22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KV22" t="n">
+      <c r="KV22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KW22" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21801,8 +21867,11 @@
       <c r="KU23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KV23" t="n">
+      <c r="KV23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KW23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22729,8 +22798,11 @@
       <c r="KU24" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KV24" t="n">
+      <c r="KV24" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KW24" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23657,8 +23729,11 @@
       <c r="KU25" s="2" t="n">
         <v>47.6</v>
       </c>
-      <c r="KV25" t="n">
+      <c r="KV25" s="2" t="n">
         <v>57.9</v>
+      </c>
+      <c r="KW25" t="n">
+        <v>58.8</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24585,8 +24660,11 @@
       <c r="KU26" s="2" t="n">
         <v>36.5</v>
       </c>
-      <c r="KV26" t="n">
+      <c r="KV26" s="2" t="n">
         <v>32.73</v>
+      </c>
+      <c r="KW26" t="n">
+        <v>21.15</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25513,8 +25591,11 @@
       <c r="KU27" s="2" t="n">
         <v>17.38</v>
       </c>
-      <c r="KV27" t="n">
+      <c r="KV27" s="2" t="n">
         <v>18.95</v>
+      </c>
+      <c r="KW27" t="n">
+        <v>12.44</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26441,7 +26522,10 @@
       <c r="KU28" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KV28" t="n">
+      <c r="KV28" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="KW28" t="n">
         <v>43</v>
       </c>
     </row>
@@ -27369,8 +27453,11 @@
       <c r="KU29" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KV29" t="n">
+      <c r="KV29" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KW29" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28297,8 +28384,11 @@
       <c r="KU30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KV30" t="n">
+      <c r="KV30" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KW30" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29225,8 +29315,11 @@
       <c r="KU31" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KV31" t="n">
+      <c r="KV31" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KW31" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -30153,8 +30246,11 @@
       <c r="KU32" s="2" t="n">
         <v>2.52</v>
       </c>
-      <c r="KV32" t="n">
+      <c r="KV32" s="2" t="n">
         <v>2.58</v>
+      </c>
+      <c r="KW32" t="n">
+        <v>1.88</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -31081,8 +31177,11 @@
       <c r="KU33" s="2" t="n">
         <v>5.3</v>
       </c>
-      <c r="KV33" t="n">
+      <c r="KV33" s="2" t="n">
         <v>4.45</v>
+      </c>
+      <c r="KW33" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -32009,8 +32108,11 @@
       <c r="KU34" s="2" t="n">
         <v>35.8</v>
       </c>
-      <c r="KV34" t="n">
+      <c r="KV34" s="2" t="n">
         <v>36.7</v>
+      </c>
+      <c r="KW34" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32937,8 +33039,11 @@
       <c r="KU35" s="2" t="n">
         <v>18.9</v>
       </c>
-      <c r="KV35" t="n">
+      <c r="KV35" s="2" t="n">
         <v>22.4</v>
+      </c>
+      <c r="KW35" t="n">
+        <v>31.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33865,7 +33970,10 @@
       <c r="KU36" s="2" t="n">
         <v>186.9</v>
       </c>
-      <c r="KV36" t="n">
+      <c r="KV36" s="2" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="KW36" t="n">
         <v>187.1</v>
       </c>
     </row>
@@ -34793,8 +34901,11 @@
       <c r="KU37" s="2" t="n">
         <v>85.2</v>
       </c>
-      <c r="KV37" t="n">
+      <c r="KV37" s="2" t="n">
         <v>85.40000000000001</v>
+      </c>
+      <c r="KW37" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35721,8 +35832,11 @@
       <c r="KU38" s="2" t="n">
         <v>24.91</v>
       </c>
-      <c r="KV38" t="n">
+      <c r="KV38" s="2" t="n">
         <v>24.66</v>
+      </c>
+      <c r="KW38" t="n">
+        <v>24.41</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -36649,8 +36763,11 @@
       <c r="KU39" s="2" t="n">
         <v>75.8</v>
       </c>
-      <c r="KV39" t="n">
+      <c r="KV39" s="2" t="n">
         <v>77.7</v>
+      </c>
+      <c r="KW39" t="n">
+        <v>74.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -37577,8 +37694,11 @@
       <c r="KU40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KV40" t="n">
+      <c r="KV40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KW40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -38505,8 +38625,11 @@
       <c r="KU41" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KV41" t="n">
+      <c r="KV41" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KW41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -39433,7 +39556,10 @@
       <c r="KU42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KV42" t="n">
+      <c r="KV42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KW42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40361,7 +40487,10 @@
       <c r="KU43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KV43" t="n">
+      <c r="KV43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KW43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -41289,8 +41418,11 @@
       <c r="KU44" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="KV44" t="n">
+      <c r="KV44" s="2" t="n">
         <v>133</v>
+      </c>
+      <c r="KW44" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -42217,8 +42349,11 @@
       <c r="KU45" s="2" t="n">
         <v>222</v>
       </c>
-      <c r="KV45" t="n">
+      <c r="KV45" s="2" t="n">
         <v>215</v>
+      </c>
+      <c r="KW45" t="n">
+        <v>285</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -43145,8 +43280,11 @@
       <c r="KU46" s="2" t="n">
         <v>259</v>
       </c>
-      <c r="KV46" t="n">
+      <c r="KV46" s="2" t="n">
         <v>271</v>
+      </c>
+      <c r="KW46" t="n">
+        <v>329</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -44073,8 +44211,11 @@
       <c r="KU47" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KV47" t="n">
+      <c r="KV47" s="2" t="n">
         <v>75.3</v>
+      </c>
+      <c r="KW47" t="n">
+        <v>77.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -45001,8 +45142,11 @@
       <c r="KU48" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KV48" t="n">
+      <c r="KV48" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KW48" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -45929,8 +46073,11 @@
       <c r="KU49" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KV49" t="n">
+      <c r="KV49" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KW49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -46857,8 +47004,11 @@
       <c r="KU50" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KV50" t="n">
+      <c r="KV50" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KW50" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -47785,7 +47935,10 @@
       <c r="KU51" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KV51" t="n">
+      <c r="KV51" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="KW51" t="n">
         <v>43</v>
       </c>
     </row>
@@ -48713,8 +48866,11 @@
       <c r="KU52" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KV52" t="n">
+      <c r="KV52" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KW52" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -49641,8 +49797,11 @@
       <c r="KU53" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KV53" t="n">
+      <c r="KV53" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KW53" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -50569,8 +50728,11 @@
       <c r="KU54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KV54" t="n">
+      <c r="KV54" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KW54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -51497,8 +51659,11 @@
       <c r="KU55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KV55" t="n">
+      <c r="KV55" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KW55" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -52425,8 +52590,11 @@
       <c r="KU56" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="KV56" t="n">
+      <c r="KV56" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="KW56" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -53353,8 +53521,11 @@
       <c r="KU57" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="KV57" t="n">
+      <c r="KV57" s="2" t="n">
         <v>227</v>
+      </c>
+      <c r="KW57" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -54281,8 +54452,11 @@
       <c r="KU58" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="KV58" t="n">
+      <c r="KV58" s="2" t="n">
         <v>114</v>
+      </c>
+      <c r="KW58" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -55209,8 +55383,11 @@
       <c r="KU59" s="2" t="n">
         <v>329</v>
       </c>
-      <c r="KV59" t="n">
+      <c r="KV59" s="2" t="n">
         <v>341</v>
+      </c>
+      <c r="KW59" t="n">
+        <v>335</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -56137,8 +56314,11 @@
       <c r="KU60" s="2" t="n">
         <v>1.65</v>
       </c>
-      <c r="KV60" t="n">
+      <c r="KV60" s="2" t="n">
         <v>1.99</v>
+      </c>
+      <c r="KW60" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -57065,8 +57245,11 @@
       <c r="KU61" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="KV61" t="n">
+      <c r="KV61" s="2" t="n">
         <v>120</v>
+      </c>
+      <c r="KW61" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -57993,8 +58176,11 @@
       <c r="KU62" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KV62" t="n">
+      <c r="KV62" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="KW62" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -58921,8 +59107,11 @@
       <c r="KU63" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KV63" t="n">
+      <c r="KV63" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KW63" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -59849,8 +60038,11 @@
       <c r="KU64" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KV64" t="n">
+      <c r="KV64" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KW64" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -60777,8 +60969,11 @@
       <c r="KU65" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KV65" t="n">
+      <c r="KV65" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KW65" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -61705,8 +61900,11 @@
       <c r="KU66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KV66" t="n">
+      <c r="KV66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KW66" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -62633,8 +62831,11 @@
       <c r="KU67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KV67" t="n">
+      <c r="KV67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KW67" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -63561,8 +63762,11 @@
       <c r="KU68" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KV68" t="n">
+      <c r="KV68" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KW68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -64489,8 +64693,11 @@
       <c r="KU69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KV69" t="n">
+      <c r="KV69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KW69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -65417,8 +65624,11 @@
       <c r="KU70" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KV70" t="n">
+      <c r="KV70" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KW70" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -66345,8 +66555,11 @@
       <c r="KU71" s="2" t="n">
         <v>47.4</v>
       </c>
-      <c r="KV71" t="n">
+      <c r="KV71" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KW71" t="n">
+        <v>30.8</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -67273,8 +67486,11 @@
       <c r="KU72" s="2" t="n">
         <v>36.56</v>
       </c>
-      <c r="KV72" t="n">
+      <c r="KV72" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KW72" t="n">
+        <v>83.75</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -68201,8 +68417,11 @@
       <c r="KU73" s="2" t="n">
         <v>17.32</v>
       </c>
-      <c r="KV73" t="n">
+      <c r="KV73" s="2" t="n">
         <v>15.5</v>
+      </c>
+      <c r="KW73" t="n">
+        <v>25.77</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -69129,8 +69348,11 @@
       <c r="KU74" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KV74" t="n">
+      <c r="KV74" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KW74" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -70057,8 +70279,11 @@
       <c r="KU75" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KV75" t="n">
+      <c r="KV75" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KW75" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -70985,8 +71210,11 @@
       <c r="KU76" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KV76" t="n">
+      <c r="KV76" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KW76" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -71913,8 +72141,11 @@
       <c r="KU77" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KV77" t="n">
+      <c r="KV77" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KW77" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -72841,8 +73072,11 @@
       <c r="KU78" s="2" t="n">
         <v>2.74</v>
       </c>
-      <c r="KV78" t="n">
+      <c r="KV78" s="2" t="n">
         <v>2.14</v>
+      </c>
+      <c r="KW78" t="n">
+        <v>2.69</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -73769,8 +74003,11 @@
       <c r="KU79" s="2" t="n">
         <v>5.78</v>
       </c>
-      <c r="KV79" t="n">
+      <c r="KV79" s="2" t="n">
         <v>4.27</v>
+      </c>
+      <c r="KW79" t="n">
+        <v>8.75</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -74697,8 +74934,11 @@
       <c r="KU80" s="2" t="n">
         <v>32.7</v>
       </c>
-      <c r="KV80" t="n">
+      <c r="KV80" s="2" t="n">
         <v>40.4</v>
+      </c>
+      <c r="KW80" t="n">
+        <v>31.4</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -75625,8 +75865,11 @@
       <c r="KU81" s="2" t="n">
         <v>17.3</v>
       </c>
-      <c r="KV81" t="n">
+      <c r="KV81" s="2" t="n">
         <v>23.4</v>
+      </c>
+      <c r="KW81" t="n">
+        <v>11.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -76553,7 +76796,10 @@
       <c r="KU82" s="2" t="n">
         <v>189.3</v>
       </c>
-      <c r="KV82" t="n">
+      <c r="KV82" s="2" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="KW82" t="n">
         <v>188.4</v>
       </c>
     </row>
@@ -77481,8 +77727,11 @@
       <c r="KU83" s="2" t="n">
         <v>88.8</v>
       </c>
-      <c r="KV83" t="n">
+      <c r="KV83" s="2" t="n">
         <v>87.5</v>
+      </c>
+      <c r="KW83" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -78409,8 +78658,11 @@
       <c r="KU84" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KV84" t="n">
+      <c r="KV84" s="2" t="n">
         <v>26.41</v>
+      </c>
+      <c r="KW84" t="n">
+        <v>25.49</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -79337,8 +79589,11 @@
       <c r="KU85" s="2" t="n">
         <v>154.1</v>
       </c>
-      <c r="KV85" t="n">
+      <c r="KV85" s="2" t="n">
         <v>123.5</v>
+      </c>
+      <c r="KW85" t="n">
+        <v>98.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -80265,8 +80520,11 @@
       <c r="KU86" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KV86" t="n">
+      <c r="KV86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KW86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -81193,8 +81451,11 @@
       <c r="KU87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KV87" t="n">
+      <c r="KV87" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KW87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -82121,8 +82382,11 @@
       <c r="KU88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KV88" t="n">
+      <c r="KV88" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KW88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -83049,8 +83313,11 @@
       <c r="KU89" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KV89" t="n">
+      <c r="KV89" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KW89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -83977,8 +84244,11 @@
       <c r="KU90" s="2" t="n">
         <v>127</v>
       </c>
-      <c r="KV90" t="n">
+      <c r="KV90" s="2" t="n">
         <v>131</v>
+      </c>
+      <c r="KW90" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -84905,8 +85175,11 @@
       <c r="KU91" s="2" t="n">
         <v>195</v>
       </c>
-      <c r="KV91" t="n">
+      <c r="KV91" s="2" t="n">
         <v>207</v>
+      </c>
+      <c r="KW91" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -85833,8 +86106,11 @@
       <c r="KU92" s="2" t="n">
         <v>236</v>
       </c>
-      <c r="KV92" t="n">
+      <c r="KV92" s="2" t="n">
         <v>257</v>
+      </c>
+      <c r="KW92" t="n">
+        <v>245</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -86761,8 +87037,11 @@
       <c r="KU93" s="2" t="n">
         <v>71.7</v>
       </c>
-      <c r="KV93" t="n">
+      <c r="KV93" s="2" t="n">
         <v>75.40000000000001</v>
+      </c>
+      <c r="KW93" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -87689,8 +87968,11 @@
       <c r="KU94" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KV94" t="n">
+      <c r="KV94" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KW94" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -88617,8 +88899,11 @@
       <c r="KU95" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KV95" t="n">
+      <c r="KV95" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KW95" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -89545,8 +89830,11 @@
       <c r="KU96" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KV96" t="n">
+      <c r="KV96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KW96" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -90473,8 +90761,11 @@
       <c r="KU97" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KV97" t="n">
+      <c r="KV97" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KW97" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -91401,8 +91692,11 @@
       <c r="KU98" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KV98" t="n">
+      <c r="KV98" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KW98" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -92329,8 +92623,11 @@
       <c r="KU99" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KV99" t="n">
+      <c r="KV99" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KW99" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -93257,8 +93554,11 @@
       <c r="KU100" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KV100" t="n">
+      <c r="KV100" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KW100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -94185,8 +94485,11 @@
       <c r="KU101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KV101" t="n">
+      <c r="KV101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KW101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -95113,8 +95416,11 @@
       <c r="KU102" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="KV102" t="n">
+      <c r="KV102" s="2" t="n">
         <v>81.8</v>
+      </c>
+      <c r="KW102" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Fremantle_stats.xlsx
+++ b/AFL_ML/Data/Fremantle_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KX102"/>
+  <dimension ref="A1:KY102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KD90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KJ94" activeCellId="0" sqref="KJ94"/>
@@ -1391,8 +1391,11 @@
       <c r="KW1" s="2" t="n">
         <v>10939</v>
       </c>
-      <c r="KX1" t="n">
+      <c r="KX1" s="2" t="n">
         <v>10948</v>
+      </c>
+      <c r="KY1" t="n">
+        <v>10953</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2325,7 +2328,10 @@
       <c r="KW2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KX2" t="n">
+      <c r="KX2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KY2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3259,8 +3265,11 @@
       <c r="KW3" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KX3" t="n">
+      <c r="KX3" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4193,8 +4202,11 @@
       <c r="KW4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KX4" t="n">
+      <c r="KX4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5127,7 +5139,10 @@
       <c r="KW5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KX5" t="n">
+      <c r="KX5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KY5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6061,8 +6076,11 @@
       <c r="KW6" s="2" t="n">
         <v>134</v>
       </c>
-      <c r="KX6" t="n">
+      <c r="KX6" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KY6" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6995,8 +7013,11 @@
       <c r="KW7" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KX7" t="n">
+      <c r="KX7" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="KY7" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7929,8 +7950,11 @@
       <c r="KW8" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="KX8" t="n">
+      <c r="KX8" s="2" t="n">
         <v>-16</v>
+      </c>
+      <c r="KY8" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8863,8 +8887,11 @@
       <c r="KW9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KX9" t="n">
+      <c r="KX9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KY9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9797,8 +9824,11 @@
       <c r="KW10" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KX10" t="n">
+      <c r="KX10" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KY10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10731,8 +10761,11 @@
       <c r="KW11" s="2" t="n">
         <v>248</v>
       </c>
-      <c r="KX11" t="n">
+      <c r="KX11" s="2" t="n">
         <v>206</v>
+      </c>
+      <c r="KY11" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11665,8 +11698,11 @@
       <c r="KW12" s="2" t="n">
         <v>175</v>
       </c>
-      <c r="KX12" t="n">
+      <c r="KX12" s="2" t="n">
         <v>160</v>
+      </c>
+      <c r="KY12" t="n">
+        <v>165</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12599,8 +12635,11 @@
       <c r="KW13" s="2" t="n">
         <v>423</v>
       </c>
-      <c r="KX13" t="n">
+      <c r="KX13" s="2" t="n">
         <v>366</v>
+      </c>
+      <c r="KY13" t="n">
+        <v>377</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13533,8 +13572,11 @@
       <c r="KW14" s="2" t="n">
         <v>1.42</v>
       </c>
-      <c r="KX14" t="n">
+      <c r="KX14" s="2" t="n">
         <v>1.29</v>
+      </c>
+      <c r="KY14" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14467,8 +14509,11 @@
       <c r="KW15" s="2" t="n">
         <v>118</v>
       </c>
-      <c r="KX15" t="n">
+      <c r="KX15" s="2" t="n">
         <v>94</v>
+      </c>
+      <c r="KY15" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15401,8 +15446,11 @@
       <c r="KW16" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KX16" t="n">
+      <c r="KX16" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KY16" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16335,8 +16383,11 @@
       <c r="KW17" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KX17" t="n">
+      <c r="KX17" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KY17" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -17269,8 +17320,11 @@
       <c r="KW18" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KX18" t="n">
+      <c r="KX18" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KY18" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -18203,8 +18257,11 @@
       <c r="KW19" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KX19" t="n">
+      <c r="KX19" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KY19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -19137,8 +19194,11 @@
       <c r="KW20" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KX20" t="n">
+      <c r="KX20" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KY20" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -20071,8 +20131,11 @@
       <c r="KW21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KX21" t="n">
+      <c r="KX21" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KY21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -21005,7 +21068,10 @@
       <c r="KW22" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KX22" t="n">
+      <c r="KX22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KY22" t="n">
         <v>9</v>
       </c>
     </row>
@@ -21939,8 +22005,11 @@
       <c r="KW23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KX23" t="n">
+      <c r="KX23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KY23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22873,8 +22942,11 @@
       <c r="KW24" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KX24" t="n">
+      <c r="KX24" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KY24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23807,8 +23879,11 @@
       <c r="KW25" s="2" t="n">
         <v>58.8</v>
       </c>
-      <c r="KX25" t="n">
+      <c r="KX25" s="2" t="n">
         <v>44.4</v>
+      </c>
+      <c r="KY25" t="n">
+        <v>60.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24741,8 +24816,11 @@
       <c r="KW26" s="2" t="n">
         <v>21.15</v>
       </c>
-      <c r="KX26" t="n">
+      <c r="KX26" s="2" t="n">
         <v>45.75</v>
+      </c>
+      <c r="KY26" t="n">
+        <v>26.93</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25675,8 +25753,11 @@
       <c r="KW27" s="2" t="n">
         <v>12.44</v>
       </c>
-      <c r="KX27" t="n">
+      <c r="KX27" s="2" t="n">
         <v>20.33</v>
+      </c>
+      <c r="KY27" t="n">
+        <v>16.39</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26609,8 +26690,11 @@
       <c r="KW28" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KX28" t="n">
+      <c r="KX28" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KY28" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27543,8 +27627,11 @@
       <c r="KW29" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KX29" t="n">
+      <c r="KX29" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KY29" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28477,8 +28564,11 @@
       <c r="KW30" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KX30" t="n">
+      <c r="KX30" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KY30" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29411,8 +29501,11 @@
       <c r="KW31" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KX31" t="n">
+      <c r="KX31" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KY31" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -30345,8 +30438,11 @@
       <c r="KW32" s="2" t="n">
         <v>1.88</v>
       </c>
-      <c r="KX32" t="n">
+      <c r="KX32" s="2" t="n">
         <v>2.56</v>
+      </c>
+      <c r="KY32" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -31279,8 +31375,11 @@
       <c r="KW33" s="2" t="n">
         <v>3.2</v>
       </c>
-      <c r="KX33" t="n">
+      <c r="KX33" s="2" t="n">
         <v>5.75</v>
+      </c>
+      <c r="KY33" t="n">
+        <v>3.21</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -32213,8 +32312,11 @@
       <c r="KW34" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KX34" t="n">
+      <c r="KX34" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KY34" t="n">
+        <v>51.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -33147,8 +33249,11 @@
       <c r="KW35" s="2" t="n">
         <v>31.2</v>
       </c>
-      <c r="KX35" t="n">
+      <c r="KX35" s="2" t="n">
         <v>17.4</v>
+      </c>
+      <c r="KY35" t="n">
+        <v>31.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -34081,8 +34186,11 @@
       <c r="KW36" s="2" t="n">
         <v>187.1</v>
       </c>
-      <c r="KX36" t="n">
+      <c r="KX36" s="2" t="n">
         <v>187.6</v>
+      </c>
+      <c r="KY36" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -35015,7 +35123,10 @@
       <c r="KW37" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="KX37" t="n">
+      <c r="KX37" s="2" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="KY37" t="n">
         <v>85.3</v>
       </c>
     </row>
@@ -35949,8 +36060,11 @@
       <c r="KW38" s="2" t="n">
         <v>24.41</v>
       </c>
-      <c r="KX38" t="n">
+      <c r="KX38" s="2" t="n">
         <v>23.8</v>
+      </c>
+      <c r="KY38" t="n">
+        <v>24.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -36883,8 +36997,11 @@
       <c r="KW39" s="2" t="n">
         <v>74.3</v>
       </c>
-      <c r="KX39" t="n">
+      <c r="KX39" s="2" t="n">
         <v>67.2</v>
+      </c>
+      <c r="KY39" t="n">
+        <v>71.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -37817,7 +37934,10 @@
       <c r="KW40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KX40" t="n">
+      <c r="KX40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KY40" t="n">
         <v>9</v>
       </c>
     </row>
@@ -38751,7 +38871,10 @@
       <c r="KW41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KX41" t="n">
+      <c r="KX41" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KY41" t="n">
         <v>8</v>
       </c>
     </row>
@@ -39685,7 +39808,10 @@
       <c r="KW42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KX42" t="n">
+      <c r="KX42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KY42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40619,7 +40745,10 @@
       <c r="KW43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KX43" t="n">
+      <c r="KX43" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KY43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -41553,8 +41682,11 @@
       <c r="KW44" s="2" t="n">
         <v>122</v>
       </c>
-      <c r="KX44" t="n">
+      <c r="KX44" s="2" t="n">
         <v>122</v>
+      </c>
+      <c r="KY44" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -42487,8 +42619,11 @@
       <c r="KW45" s="2" t="n">
         <v>285</v>
       </c>
-      <c r="KX45" t="n">
+      <c r="KX45" s="2" t="n">
         <v>235</v>
+      </c>
+      <c r="KY45" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -43421,8 +43556,11 @@
       <c r="KW46" s="2" t="n">
         <v>329</v>
       </c>
-      <c r="KX46" t="n">
+      <c r="KX46" s="2" t="n">
         <v>272</v>
+      </c>
+      <c r="KY46" t="n">
+        <v>299</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -44355,8 +44493,11 @@
       <c r="KW47" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="KX47" t="n">
+      <c r="KX47" s="2" t="n">
         <v>74.3</v>
+      </c>
+      <c r="KY47" t="n">
+        <v>79.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -45289,8 +45430,11 @@
       <c r="KW48" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KX48" t="n">
+      <c r="KX48" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KY48" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -46223,8 +46367,11 @@
       <c r="KW49" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KX49" t="n">
+      <c r="KX49" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KY49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -47157,8 +47304,11 @@
       <c r="KW50" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KX50" t="n">
+      <c r="KX50" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KY50" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -48091,8 +48241,11 @@
       <c r="KW51" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KX51" t="n">
+      <c r="KX51" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KY51" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -49025,8 +49178,11 @@
       <c r="KW52" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KX52" t="n">
+      <c r="KX52" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KY52" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -49959,8 +50115,11 @@
       <c r="KW53" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KX53" t="n">
+      <c r="KX53" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="KY53" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -50893,8 +51052,11 @@
       <c r="KW54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KX54" t="n">
+      <c r="KX54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KY54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -51827,8 +51989,11 @@
       <c r="KW55" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KX55" t="n">
+      <c r="KX55" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KY55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -52761,8 +52926,11 @@
       <c r="KW56" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KX56" t="n">
+      <c r="KX56" s="2" t="n">
         <v>62.5</v>
+      </c>
+      <c r="KY56" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -53695,8 +53863,11 @@
       <c r="KW57" s="2" t="n">
         <v>192</v>
       </c>
-      <c r="KX57" t="n">
+      <c r="KX57" s="2" t="n">
         <v>226</v>
+      </c>
+      <c r="KY57" t="n">
+        <v>211</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -54629,8 +54800,11 @@
       <c r="KW58" s="2" t="n">
         <v>143</v>
       </c>
-      <c r="KX58" t="n">
+      <c r="KX58" s="2" t="n">
         <v>119</v>
+      </c>
+      <c r="KY58" t="n">
+        <v>172</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -55563,8 +55737,11 @@
       <c r="KW59" s="2" t="n">
         <v>335</v>
       </c>
-      <c r="KX59" t="n">
+      <c r="KX59" s="2" t="n">
         <v>345</v>
+      </c>
+      <c r="KY59" t="n">
+        <v>383</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -56497,8 +56674,11 @@
       <c r="KW60" s="2" t="n">
         <v>1.34</v>
       </c>
-      <c r="KX60" t="n">
+      <c r="KX60" s="2" t="n">
         <v>1.9</v>
+      </c>
+      <c r="KY60" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -57431,8 +57611,11 @@
       <c r="KW61" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="KX61" t="n">
+      <c r="KX61" s="2" t="n">
         <v>111</v>
+      </c>
+      <c r="KY61" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -58365,8 +58548,11 @@
       <c r="KW62" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KX62" t="n">
+      <c r="KX62" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KY62" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -59299,8 +59485,11 @@
       <c r="KW63" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KX63" t="n">
+      <c r="KX63" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KY63" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -60233,8 +60422,11 @@
       <c r="KW64" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KX64" t="n">
+      <c r="KX64" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KY64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -61167,8 +61359,11 @@
       <c r="KW65" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KX65" t="n">
+      <c r="KX65" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KY65" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -62101,8 +62296,11 @@
       <c r="KW66" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KX66" t="n">
+      <c r="KX66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KY66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -63035,8 +63233,11 @@
       <c r="KW67" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KX67" t="n">
+      <c r="KX67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KY67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -63969,8 +64170,11 @@
       <c r="KW68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KX68" t="n">
+      <c r="KX68" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KY68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -64903,8 +65107,11 @@
       <c r="KW69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KX69" t="n">
+      <c r="KX69" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KY69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -65837,8 +66044,11 @@
       <c r="KW70" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KX70" t="n">
+      <c r="KX70" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KY70" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -66771,8 +66981,11 @@
       <c r="KW71" s="2" t="n">
         <v>30.8</v>
       </c>
-      <c r="KX71" t="n">
+      <c r="KX71" s="2" t="n">
         <v>57.9</v>
+      </c>
+      <c r="KY71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -67705,8 +67918,11 @@
       <c r="KW72" s="2" t="n">
         <v>83.75</v>
       </c>
-      <c r="KX72" t="n">
+      <c r="KX72" s="2" t="n">
         <v>31.36</v>
+      </c>
+      <c r="KY72" t="n">
+        <v>47.88</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -68639,8 +68855,11 @@
       <c r="KW73" s="2" t="n">
         <v>25.77</v>
       </c>
-      <c r="KX73" t="n">
+      <c r="KX73" s="2" t="n">
         <v>18.16</v>
+      </c>
+      <c r="KY73" t="n">
+        <v>23.94</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -69573,8 +69792,11 @@
       <c r="KW74" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KX74" t="n">
+      <c r="KX74" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KY74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -70507,8 +70729,11 @@
       <c r="KW75" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KX75" t="n">
+      <c r="KX75" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KY75" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -71441,8 +71666,11 @@
       <c r="KW76" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KX76" t="n">
+      <c r="KX76" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KY76" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -72375,8 +72603,11 @@
       <c r="KW77" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KX77" t="n">
+      <c r="KX77" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KY77" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -73309,8 +73540,11 @@
       <c r="KW78" s="2" t="n">
         <v>2.69</v>
       </c>
-      <c r="KX78" t="n">
+      <c r="KX78" s="2" t="n">
         <v>2.11</v>
+      </c>
+      <c r="KY78" t="n">
+        <v>2.94</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -74243,8 +74477,11 @@
       <c r="KW79" s="2" t="n">
         <v>8.75</v>
       </c>
-      <c r="KX79" t="n">
+      <c r="KX79" s="2" t="n">
         <v>3.64</v>
+      </c>
+      <c r="KY79" t="n">
+        <v>5.88</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -75177,8 +75414,11 @@
       <c r="KW80" s="2" t="n">
         <v>31.4</v>
       </c>
-      <c r="KX80" t="n">
+      <c r="KX80" s="2" t="n">
         <v>47.5</v>
+      </c>
+      <c r="KY80" t="n">
+        <v>29.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -76111,8 +76351,11 @@
       <c r="KW81" s="2" t="n">
         <v>11.4</v>
       </c>
-      <c r="KX81" t="n">
+      <c r="KX81" s="2" t="n">
         <v>27.5</v>
+      </c>
+      <c r="KY81" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -77045,8 +77288,11 @@
       <c r="KW82" s="2" t="n">
         <v>188.4</v>
       </c>
-      <c r="KX82" t="n">
+      <c r="KX82" s="2" t="n">
         <v>187.5</v>
+      </c>
+      <c r="KY82" t="n">
+        <v>189.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -77979,8 +78225,11 @@
       <c r="KW83" s="2" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="KX83" t="n">
+      <c r="KX83" s="2" t="n">
         <v>86.59999999999999</v>
+      </c>
+      <c r="KY83" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -78913,8 +79162,11 @@
       <c r="KW84" s="2" t="n">
         <v>25.49</v>
       </c>
-      <c r="KX84" t="n">
+      <c r="KX84" s="2" t="n">
         <v>25.41</v>
+      </c>
+      <c r="KY84" t="n">
+        <v>24.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -79847,8 +80099,11 @@
       <c r="KW85" s="2" t="n">
         <v>98.2</v>
       </c>
-      <c r="KX85" t="n">
+      <c r="KX85" s="2" t="n">
         <v>102.9</v>
+      </c>
+      <c r="KY85" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -80781,8 +81036,11 @@
       <c r="KW86" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KX86" t="n">
+      <c r="KX86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KY86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -81715,8 +81973,11 @@
       <c r="KW87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KX87" t="n">
+      <c r="KX87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KY87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -82649,8 +82910,11 @@
       <c r="KW88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KX88" t="n">
+      <c r="KX88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KY88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -83583,8 +83847,11 @@
       <c r="KW89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KX89" t="n">
+      <c r="KX89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KY89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -84517,8 +84784,11 @@
       <c r="KW90" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="KX90" t="n">
+      <c r="KX90" s="2" t="n">
         <v>125</v>
+      </c>
+      <c r="KY90" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -85451,8 +85721,11 @@
       <c r="KW91" s="2" t="n">
         <v>221</v>
       </c>
-      <c r="KX91" t="n">
+      <c r="KX91" s="2" t="n">
         <v>227</v>
+      </c>
+      <c r="KY91" t="n">
+        <v>269</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -86385,8 +86658,11 @@
       <c r="KW92" s="2" t="n">
         <v>245</v>
       </c>
-      <c r="KX92" t="n">
+      <c r="KX92" s="2" t="n">
         <v>255</v>
+      </c>
+      <c r="KY92" t="n">
+        <v>297</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -87319,8 +87595,11 @@
       <c r="KW93" s="2" t="n">
         <v>73.09999999999999</v>
       </c>
-      <c r="KX93" t="n">
+      <c r="KX93" s="2" t="n">
         <v>73.90000000000001</v>
+      </c>
+      <c r="KY93" t="n">
+        <v>77.5</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -88253,8 +88532,11 @@
       <c r="KW94" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KX94" t="n">
+      <c r="KX94" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KY94" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -89187,8 +89469,11 @@
       <c r="KW95" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KX95" t="n">
+      <c r="KX95" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KY95" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -90121,8 +90406,11 @@
       <c r="KW96" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KX96" t="n">
+      <c r="KX96" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KY96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -91055,8 +91343,11 @@
       <c r="KW97" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KX97" t="n">
+      <c r="KX97" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KY97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -91989,8 +92280,11 @@
       <c r="KW98" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KX98" t="n">
+      <c r="KX98" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KY98" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -92923,8 +93217,11 @@
       <c r="KW99" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KX99" t="n">
+      <c r="KX99" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KY99" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -93857,8 +94154,11 @@
       <c r="KW100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KX100" t="n">
+      <c r="KX100" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KY100" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -94791,8 +95091,11 @@
       <c r="KW101" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KX101" t="n">
+      <c r="KX101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KY101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -95725,8 +96028,11 @@
       <c r="KW102" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KX102" t="n">
+      <c r="KX102" s="2" t="n">
         <v>81.8</v>
+      </c>
+      <c r="KY102" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Fremantle_stats.xlsx
+++ b/AFL_ML/Data/Fremantle_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KZ102"/>
+  <dimension ref="A1:LC102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KD90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KJ94" activeCellId="0" sqref="KJ94"/>
@@ -1397,8 +1397,17 @@
       <c r="KY1" s="2" t="n">
         <v>10953</v>
       </c>
-      <c r="KZ1" t="n">
+      <c r="KZ1" s="2" t="n">
         <v>10979</v>
+      </c>
+      <c r="LA1" s="2" t="n">
+        <v>10982</v>
+      </c>
+      <c r="LB1" s="2" t="n">
+        <v>10990</v>
+      </c>
+      <c r="LC1" t="n">
+        <v>11000</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2337,7 +2346,16 @@
       <c r="KY2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KZ2" t="n">
+      <c r="KZ2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LA2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LB2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LC2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3277,8 +3295,17 @@
       <c r="KY3" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KZ3" t="n">
+      <c r="KZ3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="LA3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LB3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4217,7 +4244,16 @@
       <c r="KY4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KZ4" t="n">
+      <c r="KZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5157,8 +5193,17 @@
       <c r="KY5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KZ5" t="n">
+      <c r="KZ5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="LA5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -6097,8 +6142,17 @@
       <c r="KY6" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="KZ6" t="n">
+      <c r="KZ6" s="2" t="n">
         <v>93</v>
+      </c>
+      <c r="LA6" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="LB6" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="LC6" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -7037,8 +7091,17 @@
       <c r="KY7" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KZ7" t="n">
+      <c r="KZ7" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="LA7" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="LB7" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="LC7" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7977,8 +8040,17 @@
       <c r="KY8" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KZ8" t="n">
+      <c r="KZ8" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="LA8" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="LB8" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="LC8" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8917,8 +8989,17 @@
       <c r="KY9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KZ9" t="n">
+      <c r="KZ9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="LA9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LC9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9857,8 +9938,17 @@
       <c r="KY10" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KZ10" t="n">
+      <c r="KZ10" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="LA10" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LB10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LC10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10797,8 +10887,17 @@
       <c r="KY11" s="2" t="n">
         <v>212</v>
       </c>
-      <c r="KZ11" t="n">
+      <c r="KZ11" s="2" t="n">
         <v>227</v>
+      </c>
+      <c r="LA11" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="LB11" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="LC11" t="n">
+        <v>207</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11737,8 +11836,17 @@
       <c r="KY12" s="2" t="n">
         <v>165</v>
       </c>
-      <c r="KZ12" t="n">
+      <c r="KZ12" s="2" t="n">
         <v>158</v>
+      </c>
+      <c r="LA12" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="LB12" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="LC12" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12677,8 +12785,17 @@
       <c r="KY13" s="2" t="n">
         <v>377</v>
       </c>
-      <c r="KZ13" t="n">
+      <c r="KZ13" s="2" t="n">
         <v>385</v>
+      </c>
+      <c r="LA13" s="2" t="n">
+        <v>353</v>
+      </c>
+      <c r="LB13" s="2" t="n">
+        <v>402</v>
+      </c>
+      <c r="LC13" t="n">
+        <v>371</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13617,8 +13734,17 @@
       <c r="KY14" s="2" t="n">
         <v>1.28</v>
       </c>
-      <c r="KZ14" t="n">
+      <c r="KZ14" s="2" t="n">
         <v>1.44</v>
+      </c>
+      <c r="LA14" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="LB14" s="2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="LC14" t="n">
+        <v>1.26</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14557,8 +14683,17 @@
       <c r="KY15" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="KZ15" t="n">
+      <c r="KZ15" s="2" t="n">
         <v>99</v>
+      </c>
+      <c r="LA15" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="LB15" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="LC15" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15497,8 +15632,17 @@
       <c r="KY16" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KZ16" t="n">
+      <c r="KZ16" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="LA16" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="LB16" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="LC16" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16437,8 +16581,17 @@
       <c r="KY17" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KZ17" t="n">
+      <c r="KZ17" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="LA17" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="LB17" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="LC17" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -17377,8 +17530,17 @@
       <c r="KY18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KZ18" t="n">
+      <c r="KZ18" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="LA18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LB18" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="LC18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -18317,8 +18479,17 @@
       <c r="KY19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KZ19" t="n">
+      <c r="KZ19" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="LA19" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LB19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="LC19" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -19257,8 +19428,17 @@
       <c r="KY20" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KZ20" t="n">
+      <c r="KZ20" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="LA20" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LB20" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LC20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -20197,8 +20377,17 @@
       <c r="KY21" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KZ21" t="n">
+      <c r="KZ21" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LA21" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LB21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LC21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -21137,7 +21326,16 @@
       <c r="KY22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KZ22" t="n">
+      <c r="KZ22" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LA22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LB22" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LC22" t="n">
         <v>8</v>
       </c>
     </row>
@@ -22077,7 +22275,16 @@
       <c r="KY23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KZ23" t="n">
+      <c r="KZ23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LA23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LB23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LC23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -23017,8 +23224,17 @@
       <c r="KY24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KZ24" t="n">
+      <c r="KZ24" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="LA24" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="LB24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="LC24" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23957,8 +24173,17 @@
       <c r="KY25" s="2" t="n">
         <v>60.9</v>
       </c>
-      <c r="KZ25" t="n">
+      <c r="KZ25" s="2" t="n">
         <v>60.9</v>
+      </c>
+      <c r="LA25" s="2" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="LB25" s="2" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="LC25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24897,8 +25122,17 @@
       <c r="KY26" s="2" t="n">
         <v>26.93</v>
       </c>
-      <c r="KZ26" t="n">
+      <c r="KZ26" s="2" t="n">
         <v>27.5</v>
+      </c>
+      <c r="LA26" s="2" t="n">
+        <v>23.53</v>
+      </c>
+      <c r="LB26" s="2" t="n">
+        <v>44.67</v>
+      </c>
+      <c r="LC26" t="n">
+        <v>41.22</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25837,8 +26071,17 @@
       <c r="KY27" s="2" t="n">
         <v>16.39</v>
       </c>
-      <c r="KZ27" t="n">
+      <c r="KZ27" s="2" t="n">
         <v>16.74</v>
+      </c>
+      <c r="LA27" s="2" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="LB27" s="2" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="LC27" t="n">
+        <v>20.61</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26777,8 +27020,17 @@
       <c r="KY28" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KZ28" t="n">
+      <c r="KZ28" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="LA28" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="LB28" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="LC28" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27717,8 +27969,17 @@
       <c r="KY29" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KZ29" t="n">
+      <c r="KZ29" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="LA29" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="LB29" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="LC29" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28657,8 +28918,17 @@
       <c r="KY30" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KZ30" t="n">
+      <c r="KZ30" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="LA30" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="LB30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LC30" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29597,8 +29867,17 @@
       <c r="KY31" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KZ31" t="n">
+      <c r="KZ31" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="LA31" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="LB31" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="LC31" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -30537,8 +30816,17 @@
       <c r="KY32" s="2" t="n">
         <v>1.96</v>
       </c>
-      <c r="KZ32" t="n">
+      <c r="KZ32" s="2" t="n">
         <v>2.09</v>
+      </c>
+      <c r="LA32" s="2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="LB32" s="2" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="LC32" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -31477,8 +31765,17 @@
       <c r="KY33" s="2" t="n">
         <v>3.21</v>
       </c>
-      <c r="KZ33" t="n">
+      <c r="KZ33" s="2" t="n">
         <v>3.43</v>
+      </c>
+      <c r="LA33" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LB33" s="2" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="LC33" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -32417,8 +32714,17 @@
       <c r="KY34" s="2" t="n">
         <v>51.1</v>
       </c>
-      <c r="KZ34" t="n">
+      <c r="KZ34" s="2" t="n">
         <v>45.8</v>
+      </c>
+      <c r="LA34" s="2" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="LB34" s="2" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="LC34" t="n">
+        <v>37.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -33357,8 +33663,17 @@
       <c r="KY35" s="2" t="n">
         <v>31.1</v>
       </c>
-      <c r="KZ35" t="n">
+      <c r="KZ35" s="2" t="n">
         <v>29.2</v>
+      </c>
+      <c r="LA35" s="2" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="LB35" s="2" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="LC35" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -34297,8 +34612,17 @@
       <c r="KY36" s="2" t="n">
         <v>187.4</v>
       </c>
-      <c r="KZ36" t="n">
+      <c r="KZ36" s="2" t="n">
         <v>188.8</v>
+      </c>
+      <c r="LA36" s="2" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="LB36" s="2" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="LC36" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -35237,8 +35561,17 @@
       <c r="KY37" s="2" t="n">
         <v>85.3</v>
       </c>
-      <c r="KZ37" t="n">
+      <c r="KZ37" s="2" t="n">
         <v>87.59999999999999</v>
+      </c>
+      <c r="LA37" s="2" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="LB37" s="2" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="LC37" t="n">
+        <v>87.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -36177,8 +36510,17 @@
       <c r="KY38" s="2" t="n">
         <v>24.24</v>
       </c>
-      <c r="KZ38" t="n">
+      <c r="KZ38" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="LA38" s="2" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="LB38" s="2" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="LC38" t="n">
+        <v>25.41</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -37117,8 +37459,17 @@
       <c r="KY39" s="2" t="n">
         <v>71.3</v>
       </c>
-      <c r="KZ39" t="n">
+      <c r="KZ39" s="2" t="n">
         <v>82.40000000000001</v>
+      </c>
+      <c r="LA39" s="2" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="LB39" s="2" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="LC39" t="n">
+        <v>90.40000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -38057,7 +38408,16 @@
       <c r="KY40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KZ40" t="n">
+      <c r="KZ40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LA40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LB40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LC40" t="n">
         <v>7</v>
       </c>
     </row>
@@ -38997,8 +39357,17 @@
       <c r="KY41" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KZ41" t="n">
+      <c r="KZ41" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LA41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LB41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LC41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -39937,7 +40306,16 @@
       <c r="KY42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KZ42" t="n">
+      <c r="KZ42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LA42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LB42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LC42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -40877,8 +41255,17 @@
       <c r="KY43" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KZ43" t="n">
+      <c r="KZ43" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="LA43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LB43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LC43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -41817,8 +42204,17 @@
       <c r="KY44" s="2" t="n">
         <v>115</v>
       </c>
-      <c r="KZ44" t="n">
+      <c r="KZ44" s="2" t="n">
         <v>125</v>
+      </c>
+      <c r="LA44" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="LB44" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="LC44" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -42757,8 +43153,17 @@
       <c r="KY45" s="2" t="n">
         <v>257</v>
       </c>
-      <c r="KZ45" t="n">
+      <c r="KZ45" s="2" t="n">
         <v>246</v>
+      </c>
+      <c r="LA45" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="LB45" s="2" t="n">
+        <v>277</v>
+      </c>
+      <c r="LC45" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -43697,8 +44102,17 @@
       <c r="KY46" s="2" t="n">
         <v>299</v>
       </c>
-      <c r="KZ46" t="n">
+      <c r="KZ46" s="2" t="n">
         <v>280</v>
+      </c>
+      <c r="LA46" s="2" t="n">
+        <v>278</v>
+      </c>
+      <c r="LB46" s="2" t="n">
+        <v>313</v>
+      </c>
+      <c r="LC46" t="n">
+        <v>283</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -44637,8 +45051,17 @@
       <c r="KY47" s="2" t="n">
         <v>79.3</v>
       </c>
-      <c r="KZ47" t="n">
+      <c r="KZ47" s="2" t="n">
         <v>72.7</v>
+      </c>
+      <c r="LA47" s="2" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="LB47" s="2" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="LC47" t="n">
+        <v>76.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -45577,8 +46000,17 @@
       <c r="KY48" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KZ48" t="n">
+      <c r="KZ48" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="LA48" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="LB48" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="LC48" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -46517,8 +46949,17 @@
       <c r="KY49" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KZ49" t="n">
+      <c r="KZ49" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LA49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LB49" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LC49" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -47457,8 +47898,17 @@
       <c r="KY50" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KZ50" t="n">
+      <c r="KZ50" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="LA50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LB50" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LC50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -48397,8 +48847,17 @@
       <c r="KY51" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KZ51" t="n">
+      <c r="KZ51" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="LA51" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="LB51" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="LC51" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -49337,8 +49796,17 @@
       <c r="KY52" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KZ52" t="n">
+      <c r="KZ52" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="LA52" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="LB52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LC52" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -50277,8 +50745,17 @@
       <c r="KY53" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KZ53" t="n">
+      <c r="KZ53" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="LA53" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="LB53" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="LC53" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -51217,8 +51694,17 @@
       <c r="KY54" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KZ54" t="n">
+      <c r="KZ54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LA54" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LB54" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LC54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -52157,8 +52643,17 @@
       <c r="KY55" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KZ55" t="n">
+      <c r="KZ55" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LA55" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LB55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LC55" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -53097,8 +53592,17 @@
       <c r="KY56" s="2" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="KZ56" t="n">
+      <c r="KZ56" s="2" t="n">
         <v>57.1</v>
+      </c>
+      <c r="LA56" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="LB56" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="LC56" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -54037,8 +54541,17 @@
       <c r="KY57" s="2" t="n">
         <v>211</v>
       </c>
-      <c r="KZ57" t="n">
+      <c r="KZ57" s="2" t="n">
         <v>226</v>
+      </c>
+      <c r="LA57" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="LB57" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="LC57" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -54977,8 +55490,17 @@
       <c r="KY58" s="2" t="n">
         <v>172</v>
       </c>
-      <c r="KZ58" t="n">
+      <c r="KZ58" s="2" t="n">
         <v>119</v>
+      </c>
+      <c r="LA58" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="LB58" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="LC58" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -55917,8 +56439,17 @@
       <c r="KY59" s="2" t="n">
         <v>383</v>
       </c>
-      <c r="KZ59" t="n">
+      <c r="KZ59" s="2" t="n">
         <v>345</v>
+      </c>
+      <c r="LA59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="LB59" s="2" t="n">
+        <v>355</v>
+      </c>
+      <c r="LC59" t="n">
+        <v>353</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -56857,8 +57388,17 @@
       <c r="KY60" s="2" t="n">
         <v>1.23</v>
       </c>
-      <c r="KZ60" t="n">
+      <c r="KZ60" s="2" t="n">
         <v>1.9</v>
+      </c>
+      <c r="LA60" s="2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="LB60" s="2" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="LC60" t="n">
+        <v>1.63</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -57797,8 +58337,17 @@
       <c r="KY61" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="KZ61" t="n">
+      <c r="KZ61" s="2" t="n">
         <v>112</v>
+      </c>
+      <c r="LA61" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="LB61" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="LC61" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -58737,8 +59286,17 @@
       <c r="KY62" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KZ62" t="n">
+      <c r="KZ62" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="LA62" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LB62" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LC62" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -59677,8 +60235,17 @@
       <c r="KY63" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KZ63" t="n">
+      <c r="KZ63" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="LA63" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="LB63" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LC63" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -60617,8 +61184,17 @@
       <c r="KY64" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KZ64" t="n">
+      <c r="KZ64" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="LA64" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LB64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="LC64" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -61557,8 +62133,17 @@
       <c r="KY65" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KZ65" t="n">
+      <c r="KZ65" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="LA65" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LB65" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="LC65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -62497,7 +63082,16 @@
       <c r="KY66" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KZ66" t="n">
+      <c r="KZ66" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LA66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LB66" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LC66" t="n">
         <v>10</v>
       </c>
     </row>
@@ -63437,8 +64031,17 @@
       <c r="KY67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KZ67" t="n">
+      <c r="KZ67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LA67" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LB67" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LC67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -64377,8 +64980,17 @@
       <c r="KY68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KZ68" t="n">
+      <c r="KZ68" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="LA68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LB68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LC68" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -65317,7 +65929,16 @@
       <c r="KY69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KZ69" t="n">
+      <c r="KZ69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LA69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LB69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LC69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -66257,8 +66878,17 @@
       <c r="KY70" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KZ70" t="n">
+      <c r="KZ70" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="LA70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="LB70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LC70" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -67197,8 +67827,17 @@
       <c r="KY71" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KZ71" t="n">
+      <c r="KZ71" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="LA71" s="2" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="LB71" s="2" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="LC71" t="n">
+        <v>43.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -68137,8 +68776,17 @@
       <c r="KY72" s="2" t="n">
         <v>47.88</v>
       </c>
-      <c r="KZ72" t="n">
+      <c r="KZ72" s="2" t="n">
         <v>34.5</v>
+      </c>
+      <c r="LA72" s="2" t="n">
+        <v>32.82</v>
+      </c>
+      <c r="LB72" s="2" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="LC72" t="n">
+        <v>35.3</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -69077,8 +69725,17 @@
       <c r="KY73" s="2" t="n">
         <v>23.94</v>
       </c>
-      <c r="KZ73" t="n">
+      <c r="KZ73" s="2" t="n">
         <v>17.25</v>
+      </c>
+      <c r="LA73" s="2" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="LB73" s="2" t="n">
+        <v>25.36</v>
+      </c>
+      <c r="LC73" t="n">
+        <v>15.35</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -70017,8 +70674,17 @@
       <c r="KY74" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KZ74" t="n">
+      <c r="KZ74" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="LA74" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LB74" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="LC74" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -70957,8 +71623,17 @@
       <c r="KY75" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KZ75" t="n">
+      <c r="KZ75" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="LA75" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="LB75" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="LC75" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -71897,8 +72572,17 @@
       <c r="KY76" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KZ76" t="n">
+      <c r="KZ76" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="LA76" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="LB76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="LC76" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -72837,8 +73521,17 @@
       <c r="KY77" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KZ77" t="n">
+      <c r="KZ77" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="LA77" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="LB77" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="LC77" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -73777,8 +74470,17 @@
       <c r="KY78" s="2" t="n">
         <v>2.94</v>
       </c>
-      <c r="KZ78" t="n">
+      <c r="KZ78" s="2" t="n">
         <v>2.8</v>
+      </c>
+      <c r="LA78" s="2" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="LB78" s="2" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="LC78" t="n">
+        <v>2.09</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -74717,8 +75419,17 @@
       <c r="KY79" s="2" t="n">
         <v>5.88</v>
       </c>
-      <c r="KZ79" t="n">
+      <c r="KZ79" s="2" t="n">
         <v>5.6</v>
+      </c>
+      <c r="LA79" s="2" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="LB79" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LC79" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -75657,8 +76368,17 @@
       <c r="KY80" s="2" t="n">
         <v>29.8</v>
       </c>
-      <c r="KZ80" t="n">
+      <c r="KZ80" s="2" t="n">
         <v>33.9</v>
+      </c>
+      <c r="LA80" s="2" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="LB80" s="2" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="LC80" t="n">
+        <v>45.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -76597,8 +77317,17 @@
       <c r="KY81" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KZ81" t="n">
+      <c r="KZ81" s="2" t="n">
         <v>17.9</v>
+      </c>
+      <c r="LA81" s="2" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="LB81" s="2" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="LC81" t="n">
+        <v>20.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -77537,8 +78266,17 @@
       <c r="KY82" s="2" t="n">
         <v>189.9</v>
       </c>
-      <c r="KZ82" t="n">
+      <c r="KZ82" s="2" t="n">
         <v>187.8</v>
+      </c>
+      <c r="LA82" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="LB82" s="2" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="LC82" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -78477,8 +79215,17 @@
       <c r="KY83" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="KZ83" t="n">
+      <c r="KZ83" s="2" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="LA83" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="LB83" s="2" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="LC83" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -79417,8 +80164,17 @@
       <c r="KY84" s="2" t="n">
         <v>24.16</v>
       </c>
-      <c r="KZ84" t="n">
+      <c r="KZ84" s="2" t="n">
         <v>26.74</v>
+      </c>
+      <c r="LA84" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="LB84" s="2" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="LC84" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -80357,8 +81113,17 @@
       <c r="KY85" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="KZ85" t="n">
+      <c r="KZ85" s="2" t="n">
         <v>127.6</v>
+      </c>
+      <c r="LA85" s="2" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="LB85" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="LC85" t="n">
+        <v>92.09999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -81297,8 +82062,17 @@
       <c r="KY86" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KZ86" t="n">
+      <c r="KZ86" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="LA86" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LB86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LC86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -82237,8 +83011,17 @@
       <c r="KY87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KZ87" t="n">
+      <c r="KZ87" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="LA87" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LB87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LC87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -83177,7 +83960,16 @@
       <c r="KY88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KZ88" t="n">
+      <c r="KZ88" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LA88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LB88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LC88" t="n">
         <v>8</v>
       </c>
     </row>
@@ -84117,8 +84909,17 @@
       <c r="KY89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KZ89" t="n">
+      <c r="KZ89" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="LA89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LC89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -85057,8 +85858,17 @@
       <c r="KY90" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="KZ90" t="n">
+      <c r="KZ90" s="2" t="n">
         <v>118</v>
+      </c>
+      <c r="LA90" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="LB90" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="LC90" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -85997,8 +86807,17 @@
       <c r="KY91" s="2" t="n">
         <v>269</v>
       </c>
-      <c r="KZ91" t="n">
+      <c r="KZ91" s="2" t="n">
         <v>224</v>
+      </c>
+      <c r="LA91" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="LB91" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="LC91" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -86937,8 +87756,17 @@
       <c r="KY92" s="2" t="n">
         <v>297</v>
       </c>
-      <c r="KZ92" t="n">
+      <c r="KZ92" s="2" t="n">
         <v>250</v>
+      </c>
+      <c r="LA92" s="2" t="n">
+        <v>280</v>
+      </c>
+      <c r="LB92" s="2" t="n">
+        <v>263</v>
+      </c>
+      <c r="LC92" t="n">
+        <v>254</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -87877,8 +88705,17 @@
       <c r="KY93" s="2" t="n">
         <v>77.5</v>
       </c>
-      <c r="KZ93" t="n">
+      <c r="KZ93" s="2" t="n">
         <v>72.5</v>
+      </c>
+      <c r="LA93" s="2" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="LB93" s="2" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="LC93" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -88817,8 +89654,17 @@
       <c r="KY94" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KZ94" t="n">
+      <c r="KZ94" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="LA94" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="LB94" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="LC94" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -89757,8 +90603,17 @@
       <c r="KY95" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KZ95" t="n">
+      <c r="KZ95" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="LA95" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LB95" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LC95" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -90697,8 +91552,17 @@
       <c r="KY96" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KZ96" t="n">
+      <c r="KZ96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="LA96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LB96" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LC96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -91637,8 +92501,17 @@
       <c r="KY97" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KZ97" t="n">
+      <c r="KZ97" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="LA97" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LB97" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="LC97" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -92577,8 +93450,17 @@
       <c r="KY98" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KZ98" t="n">
+      <c r="KZ98" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="LA98" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="LB98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="LC98" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -93517,8 +94399,17 @@
       <c r="KY99" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KZ99" t="n">
+      <c r="KZ99" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="LA99" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LB99" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="LC99" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -94457,8 +95348,17 @@
       <c r="KY100" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KZ100" t="n">
+      <c r="KZ100" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="LA100" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LB100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LC100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -95397,8 +96297,17 @@
       <c r="KY101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KZ101" t="n">
+      <c r="KZ101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LA101" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LB101" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LC101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -96337,8 +97246,17 @@
       <c r="KY102" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KZ102" t="n">
+      <c r="KZ102" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="LA102" s="2" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="LB102" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="LC102" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Fremantle_stats.xlsx
+++ b/AFL_ML/Data/Fremantle_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:LC102"/>
+  <dimension ref="A1:LH102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KD90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KJ94" activeCellId="0" sqref="KJ94"/>
@@ -1406,8 +1406,23 @@
       <c r="LB1" s="2" t="n">
         <v>10990</v>
       </c>
-      <c r="LC1" t="n">
+      <c r="LC1" s="2" t="n">
         <v>11000</v>
+      </c>
+      <c r="LD1" s="2" t="n">
+        <v>11010</v>
+      </c>
+      <c r="LE1" s="2" t="n">
+        <v>11018</v>
+      </c>
+      <c r="LF1" s="2" t="n">
+        <v>11027</v>
+      </c>
+      <c r="LG1" s="2" t="n">
+        <v>11036</v>
+      </c>
+      <c r="LH1" t="n">
+        <v>11041</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2355,7 +2370,22 @@
       <c r="LB2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="LC2" t="n">
+      <c r="LC2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LD2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LE2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LF2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LG2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LH2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3304,8 +3334,23 @@
       <c r="LB3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LC3" t="n">
+      <c r="LC3" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="LD3" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LE3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LF3" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LG3" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4253,7 +4298,22 @@
       <c r="LB4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LC4" t="n">
+      <c r="LC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LE4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LH4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5202,7 +5262,22 @@
       <c r="LB5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LC5" t="n">
+      <c r="LC5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LH5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6151,8 +6226,23 @@
       <c r="LB6" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="LC6" t="n">
+      <c r="LC6" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="LD6" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="LE6" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="LF6" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="LG6" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="LH6" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -7100,8 +7190,23 @@
       <c r="LB7" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="LC7" t="n">
+      <c r="LC7" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="LD7" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="LE7" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="LF7" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="LG7" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="LH7" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -8049,8 +8154,23 @@
       <c r="LB8" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="LC8" t="n">
+      <c r="LC8" s="2" t="n">
         <v>-10</v>
+      </c>
+      <c r="LD8" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="LE8" s="2" t="n">
+        <v>-37</v>
+      </c>
+      <c r="LF8" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="LG8" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="LH8" t="n">
+        <v>-48</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8998,7 +9118,22 @@
       <c r="LB9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LC9" t="n">
+      <c r="LC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LG9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LH9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9947,8 +10082,23 @@
       <c r="LB10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LC10" t="n">
+      <c r="LC10" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="LD10" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LE10" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LF10" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="LG10" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LH10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10896,8 +11046,23 @@
       <c r="LB11" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="LC11" t="n">
+      <c r="LC11" s="2" t="n">
         <v>207</v>
+      </c>
+      <c r="LD11" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="LE11" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="LF11" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="LG11" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="LH11" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11845,8 +12010,23 @@
       <c r="LB12" s="2" t="n">
         <v>177</v>
       </c>
-      <c r="LC12" t="n">
+      <c r="LC12" s="2" t="n">
         <v>164</v>
+      </c>
+      <c r="LD12" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="LE12" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="LF12" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="LG12" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="LH12" t="n">
+        <v>175</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12794,8 +12974,23 @@
       <c r="LB13" s="2" t="n">
         <v>402</v>
       </c>
-      <c r="LC13" t="n">
+      <c r="LC13" s="2" t="n">
         <v>371</v>
+      </c>
+      <c r="LD13" s="2" t="n">
+        <v>336</v>
+      </c>
+      <c r="LE13" s="2" t="n">
+        <v>330</v>
+      </c>
+      <c r="LF13" s="2" t="n">
+        <v>385</v>
+      </c>
+      <c r="LG13" s="2" t="n">
+        <v>404</v>
+      </c>
+      <c r="LH13" t="n">
+        <v>369</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13743,8 +13938,23 @@
       <c r="LB14" s="2" t="n">
         <v>1.27</v>
       </c>
-      <c r="LC14" t="n">
+      <c r="LC14" s="2" t="n">
         <v>1.26</v>
+      </c>
+      <c r="LD14" s="2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="LE14" s="2" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="LF14" s="2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="LG14" s="2" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="LH14" t="n">
+        <v>1.11</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14692,8 +14902,23 @@
       <c r="LB15" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="LC15" t="n">
+      <c r="LC15" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="LD15" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="LE15" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="LF15" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="LG15" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="LH15" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15641,8 +15866,23 @@
       <c r="LB16" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="LC16" t="n">
+      <c r="LC16" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="LD16" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="LE16" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="LF16" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="LG16" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="LH16" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16590,8 +16830,23 @@
       <c r="LB17" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="LC17" t="n">
+      <c r="LC17" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="LD17" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="LE17" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="LF17" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="LG17" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="LH17" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -17539,8 +17794,23 @@
       <c r="LB18" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="LC18" t="n">
+      <c r="LC18" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="LD18" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="LE18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LF18" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LG18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="LH18" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -18488,8 +18758,23 @@
       <c r="LB19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="LC19" t="n">
+      <c r="LC19" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="LD19" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="LE19" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LF19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="LG19" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LH19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -19437,8 +19722,23 @@
       <c r="LB20" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="LC20" t="n">
+      <c r="LC20" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="LD20" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LE20" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LF20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LG20" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LH20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -20386,8 +20686,23 @@
       <c r="LB21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LC21" t="n">
+      <c r="LC21" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="LD21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LE21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LF21" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LG21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LH21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -21335,8 +21650,23 @@
       <c r="LB22" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="LC22" t="n">
+      <c r="LC22" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LD22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LE22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LF22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LG22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LH22" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -22284,7 +22614,22 @@
       <c r="LB23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LC23" t="n">
+      <c r="LC23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LD23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LE23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LF23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LH23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -23233,8 +23578,23 @@
       <c r="LB24" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="LC24" t="n">
+      <c r="LC24" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="LD24" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="LE24" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="LF24" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="LG24" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="LH24" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -24182,8 +24542,23 @@
       <c r="LB25" s="2" t="n">
         <v>37.5</v>
       </c>
-      <c r="LC25" t="n">
+      <c r="LC25" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="LD25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="LE25" s="2" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="LF25" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="LG25" s="2" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="LH25" t="n">
+        <v>21.1</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -25131,8 +25506,23 @@
       <c r="LB26" s="2" t="n">
         <v>44.67</v>
       </c>
-      <c r="LC26" t="n">
+      <c r="LC26" s="2" t="n">
         <v>41.22</v>
+      </c>
+      <c r="LD26" s="2" t="n">
+        <v>37.33</v>
+      </c>
+      <c r="LE26" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LF26" s="2" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="LG26" s="2" t="n">
+        <v>26.93</v>
+      </c>
+      <c r="LH26" t="n">
+        <v>92.25</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -26080,8 +26470,23 @@
       <c r="LB27" s="2" t="n">
         <v>16.75</v>
       </c>
-      <c r="LC27" t="n">
+      <c r="LC27" s="2" t="n">
         <v>20.61</v>
+      </c>
+      <c r="LD27" s="2" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="LE27" s="2" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="LF27" s="2" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="LG27" s="2" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="LH27" t="n">
+        <v>19.42</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -27029,8 +27434,23 @@
       <c r="LB28" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="LC28" t="n">
+      <c r="LC28" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="LD28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LE28" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LF28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="LG28" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="LH28" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27978,8 +28398,23 @@
       <c r="LB29" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="LC29" t="n">
+      <c r="LC29" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="LD29" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="LE29" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="LF29" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="LG29" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="LH29" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28927,8 +29362,23 @@
       <c r="LB30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="LC30" t="n">
+      <c r="LC30" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="LD30" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="LE30" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="LF30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LG30" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="LH30" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29876,8 +30326,23 @@
       <c r="LB31" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="LC31" t="n">
+      <c r="LC31" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="LD31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="LE31" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LF31" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="LG31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="LH31" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -30825,8 +31290,23 @@
       <c r="LB32" s="2" t="n">
         <v>2.17</v>
       </c>
-      <c r="LC32" t="n">
+      <c r="LC32" s="2" t="n">
         <v>2.5</v>
+      </c>
+      <c r="LD32" s="2" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="LE32" s="2" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="LF32" s="2" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="LG32" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="LH32" t="n">
+        <v>2.42</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -31774,8 +32254,23 @@
       <c r="LB33" s="2" t="n">
         <v>5.78</v>
       </c>
-      <c r="LC33" t="n">
+      <c r="LC33" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LD33" s="2" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="LE33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LF33" s="2" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="LG33" s="2" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="LH33" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -32723,8 +33218,23 @@
       <c r="LB34" s="2" t="n">
         <v>40.4</v>
       </c>
-      <c r="LC34" t="n">
+      <c r="LC34" s="2" t="n">
         <v>37.8</v>
+      </c>
+      <c r="LD34" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="LE34" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LF34" s="2" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="LG34" s="2" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="LH34" t="n">
+        <v>39.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -33672,8 +34182,23 @@
       <c r="LB35" s="2" t="n">
         <v>17.3</v>
       </c>
-      <c r="LC35" t="n">
+      <c r="LC35" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="LD35" s="2" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="LE35" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="LF35" s="2" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="LG35" s="2" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="LH35" t="n">
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -34621,7 +35146,22 @@
       <c r="LB36" s="2" t="n">
         <v>188.7</v>
       </c>
-      <c r="LC36" t="n">
+      <c r="LC36" s="2" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="LD36" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="LE36" s="2" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="LF36" s="2" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="LG36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="LH36" t="n">
         <v>188.7</v>
       </c>
     </row>
@@ -35570,8 +36110,23 @@
       <c r="LB37" s="2" t="n">
         <v>87.3</v>
       </c>
-      <c r="LC37" t="n">
+      <c r="LC37" s="2" t="n">
         <v>87.3</v>
+      </c>
+      <c r="LD37" s="2" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="LE37" s="2" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="LF37" s="2" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="LG37" s="2" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="LH37" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -36519,8 +37074,23 @@
       <c r="LB38" s="2" t="n">
         <v>25.41</v>
       </c>
-      <c r="LC38" t="n">
+      <c r="LC38" s="2" t="n">
         <v>25.41</v>
+      </c>
+      <c r="LD38" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="LE38" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="LF38" s="2" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="LG38" s="2" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="LH38" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -37468,8 +38038,23 @@
       <c r="LB39" s="2" t="n">
         <v>89.40000000000001</v>
       </c>
-      <c r="LC39" t="n">
+      <c r="LC39" s="2" t="n">
         <v>90.40000000000001</v>
+      </c>
+      <c r="LD39" s="2" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="LE39" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="LF39" s="2" t="n">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="LG39" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="LH39" t="n">
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -38417,8 +39002,23 @@
       <c r="LB40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LC40" t="n">
+      <c r="LC40" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LD40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LE40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LF40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LG40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LH40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -39366,8 +39966,23 @@
       <c r="LB41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LC41" t="n">
+      <c r="LC41" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LD41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LE41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LF41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LG41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LH41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -40315,8 +40930,23 @@
       <c r="LB42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LC42" t="n">
+      <c r="LC42" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LD42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LE42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LF42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LG42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LH42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -41264,7 +41894,22 @@
       <c r="LB43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="LC43" t="n">
+      <c r="LC43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LD43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LE43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LF43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LG43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LH43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42213,8 +42858,23 @@
       <c r="LB44" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="LC44" t="n">
+      <c r="LC44" s="2" t="n">
         <v>130</v>
+      </c>
+      <c r="LD44" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="LE44" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="LF44" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="LG44" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="LH44" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -43162,8 +43822,23 @@
       <c r="LB45" s="2" t="n">
         <v>277</v>
       </c>
-      <c r="LC45" t="n">
+      <c r="LC45" s="2" t="n">
         <v>235</v>
+      </c>
+      <c r="LD45" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="LE45" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="LF45" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="LG45" s="2" t="n">
+        <v>280</v>
+      </c>
+      <c r="LH45" t="n">
+        <v>255</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -44111,8 +44786,23 @@
       <c r="LB46" s="2" t="n">
         <v>313</v>
       </c>
-      <c r="LC46" t="n">
+      <c r="LC46" s="2" t="n">
         <v>283</v>
+      </c>
+      <c r="LD46" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="LE46" s="2" t="n">
+        <v>258</v>
+      </c>
+      <c r="LF46" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="LG46" s="2" t="n">
+        <v>312</v>
+      </c>
+      <c r="LH46" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -45060,8 +45750,23 @@
       <c r="LB47" s="2" t="n">
         <v>77.90000000000001</v>
       </c>
-      <c r="LC47" t="n">
+      <c r="LC47" s="2" t="n">
         <v>76.3</v>
+      </c>
+      <c r="LD47" s="2" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="LE47" s="2" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="LF47" s="2" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="LG47" s="2" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="LH47" t="n">
+        <v>76.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -46009,8 +46714,23 @@
       <c r="LB48" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="LC48" t="n">
+      <c r="LC48" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="LD48" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="LE48" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="LF48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="LG48" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="LH48" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -46958,7 +47678,22 @@
       <c r="LB49" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LC49" t="n">
+      <c r="LC49" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LD49" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LE49" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LF49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LG49" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LH49" t="n">
         <v>6</v>
       </c>
     </row>
@@ -47907,8 +48642,23 @@
       <c r="LB50" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="LC50" t="n">
+      <c r="LC50" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LD50" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LE50" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LF50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="LG50" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="LH50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -48856,8 +49606,23 @@
       <c r="LB51" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="LC51" t="n">
+      <c r="LC51" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="LD51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LE51" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LF51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="LG51" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="LH51" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -49805,8 +50570,23 @@
       <c r="LB52" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="LC52" t="n">
+      <c r="LC52" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="LD52" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="LE52" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="LF52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LG52" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="LH52" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -50754,8 +51534,23 @@
       <c r="LB53" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="LC53" t="n">
+      <c r="LC53" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="LD53" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="LE53" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LF53" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="LG53" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="LH53" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -51703,8 +52498,23 @@
       <c r="LB54" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="LC54" t="n">
+      <c r="LC54" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LD54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LE54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LF54" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LG54" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LH54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -52652,8 +53462,23 @@
       <c r="LB55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LC55" t="n">
+      <c r="LC55" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="LD55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LE55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LF55" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LG55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LH55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -53601,8 +54426,23 @@
       <c r="LB56" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="LC56" t="n">
+      <c r="LC56" s="2" t="n">
         <v>33.3</v>
+      </c>
+      <c r="LD56" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="LE56" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="LF56" s="2" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="LG56" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="LH56" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -54550,8 +55390,23 @@
       <c r="LB57" s="2" t="n">
         <v>231</v>
       </c>
-      <c r="LC57" t="n">
+      <c r="LC57" s="2" t="n">
         <v>219</v>
+      </c>
+      <c r="LD57" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="LE57" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="LF57" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="LG57" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="LH57" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -55499,8 +56354,23 @@
       <c r="LB58" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="LC58" t="n">
+      <c r="LC58" s="2" t="n">
         <v>134</v>
+      </c>
+      <c r="LD58" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="LE58" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="LF58" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="LG58" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="LH58" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -56448,8 +57318,23 @@
       <c r="LB59" s="2" t="n">
         <v>355</v>
       </c>
-      <c r="LC59" t="n">
+      <c r="LC59" s="2" t="n">
         <v>353</v>
+      </c>
+      <c r="LD59" s="2" t="n">
+        <v>338</v>
+      </c>
+      <c r="LE59" s="2" t="n">
+        <v>317</v>
+      </c>
+      <c r="LF59" s="2" t="n">
+        <v>362</v>
+      </c>
+      <c r="LG59" s="2" t="n">
+        <v>322</v>
+      </c>
+      <c r="LH59" t="n">
+        <v>377</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -57397,8 +58282,23 @@
       <c r="LB60" s="2" t="n">
         <v>1.86</v>
       </c>
-      <c r="LC60" t="n">
+      <c r="LC60" s="2" t="n">
         <v>1.63</v>
+      </c>
+      <c r="LD60" s="2" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="LE60" s="2" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="LF60" s="2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="LG60" s="2" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="LH60" t="n">
+        <v>2.04</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -58346,8 +59246,23 @@
       <c r="LB61" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="LC61" t="n">
+      <c r="LC61" s="2" t="n">
         <v>105</v>
+      </c>
+      <c r="LD61" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="LE61" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="LF61" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="LG61" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="LH61" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -59295,8 +60210,23 @@
       <c r="LB62" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="LC62" t="n">
+      <c r="LC62" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="LD62" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="LE62" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="LF62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="LG62" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LH62" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -60244,8 +61174,23 @@
       <c r="LB63" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="LC63" t="n">
+      <c r="LC63" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="LD63" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="LE63" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="LF63" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="LG63" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="LH63" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -61193,8 +62138,23 @@
       <c r="LB64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="LC64" t="n">
+      <c r="LC64" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="LD64" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="LE64" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LF64" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="LG64" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LH64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -62142,8 +63102,23 @@
       <c r="LB65" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="LC65" t="n">
+      <c r="LC65" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="LD65" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="LE65" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LF65" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LG65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="LH65" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -63091,8 +64066,23 @@
       <c r="LB66" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="LC66" t="n">
+      <c r="LC66" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="LD66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LE66" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LF66" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LG66" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LH66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -64040,8 +65030,23 @@
       <c r="LB67" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LC67" t="n">
+      <c r="LC67" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LD67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LE67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LF67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LG67" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LH67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -64989,8 +65994,23 @@
       <c r="LB68" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="LC68" t="n">
+      <c r="LC68" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="LD68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LE68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LF68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LG68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LH68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -65938,7 +66958,22 @@
       <c r="LB69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="LC69" t="n">
+      <c r="LC69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LD69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LE69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LG69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LH69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -66887,8 +67922,23 @@
       <c r="LB70" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="LC70" t="n">
+      <c r="LC70" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="LD70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="LE70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="LF70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="LG70" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="LH70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -67836,8 +68886,23 @@
       <c r="LB71" s="2" t="n">
         <v>28.6</v>
       </c>
-      <c r="LC71" t="n">
+      <c r="LC71" s="2" t="n">
         <v>43.5</v>
+      </c>
+      <c r="LD71" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="LE71" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="LF71" s="2" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="LG71" s="2" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="LH71" t="n">
+        <v>59.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -68785,8 +69850,23 @@
       <c r="LB72" s="2" t="n">
         <v>88.75</v>
       </c>
-      <c r="LC72" t="n">
+      <c r="LC72" s="2" t="n">
         <v>35.3</v>
+      </c>
+      <c r="LD72" s="2" t="n">
+        <v>37.56</v>
+      </c>
+      <c r="LE72" s="2" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="LF72" s="2" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="LG72" s="2" t="n">
+        <v>53.67</v>
+      </c>
+      <c r="LH72" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -69734,8 +70814,23 @@
       <c r="LB73" s="2" t="n">
         <v>25.36</v>
       </c>
-      <c r="LC73" t="n">
+      <c r="LC73" s="2" t="n">
         <v>15.35</v>
+      </c>
+      <c r="LD73" s="2" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="LE73" s="2" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="LF73" s="2" t="n">
+        <v>17.24</v>
+      </c>
+      <c r="LG73" s="2" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="LH73" t="n">
+        <v>17.14</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -70683,7 +71778,22 @@
       <c r="LB74" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="LC74" t="n">
+      <c r="LC74" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="LD74" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="LE74" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="LF74" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="LG74" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LH74" t="n">
         <v>27</v>
       </c>
     </row>
@@ -71632,8 +72742,23 @@
       <c r="LB75" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="LC75" t="n">
+      <c r="LC75" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="LD75" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="LE75" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LF75" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="LG75" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="LH75" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -72581,8 +73706,23 @@
       <c r="LB76" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="LC76" t="n">
+      <c r="LC76" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="LD76" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="LE76" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="LF76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LG76" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LH76" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -73530,8 +74670,23 @@
       <c r="LB77" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="LC77" t="n">
+      <c r="LC77" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="LD77" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="LE77" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="LF77" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="LG77" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LH77" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -74479,8 +75634,23 @@
       <c r="LB78" s="2" t="n">
         <v>3.14</v>
       </c>
-      <c r="LC78" t="n">
+      <c r="LC78" s="2" t="n">
         <v>2.09</v>
+      </c>
+      <c r="LD78" s="2" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="LE78" s="2" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="LF78" s="2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="LG78" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LH78" t="n">
+        <v>2.32</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -75428,8 +76598,23 @@
       <c r="LB79" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="LC79" t="n">
+      <c r="LC79" s="2" t="n">
         <v>4.8</v>
+      </c>
+      <c r="LD79" s="2" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="LE79" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LF79" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LG79" s="2" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="LH79" t="n">
+        <v>3.92</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -76377,8 +77562,23 @@
       <c r="LB80" s="2" t="n">
         <v>27.3</v>
       </c>
-      <c r="LC80" t="n">
+      <c r="LC80" s="2" t="n">
         <v>45.8</v>
+      </c>
+      <c r="LD80" s="2" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="LE80" s="2" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="LF80" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LG80" s="2" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="LH80" t="n">
+        <v>41.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -77326,8 +78526,23 @@
       <c r="LB81" s="2" t="n">
         <v>9.1</v>
       </c>
-      <c r="LC81" t="n">
+      <c r="LC81" s="2" t="n">
         <v>20.8</v>
+      </c>
+      <c r="LD81" s="2" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="LE81" s="2" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="LF81" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="LG81" s="2" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="LH81" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -78275,8 +79490,23 @@
       <c r="LB82" s="2" t="n">
         <v>186.9</v>
       </c>
-      <c r="LC82" t="n">
+      <c r="LC82" s="2" t="n">
         <v>187.5</v>
+      </c>
+      <c r="LD82" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="LE82" s="2" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="LF82" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="LG82" s="2" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="LH82" t="n">
+        <v>187.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -79224,8 +80454,23 @@
       <c r="LB83" s="2" t="n">
         <v>89.40000000000001</v>
       </c>
-      <c r="LC83" t="n">
+      <c r="LC83" s="2" t="n">
         <v>86.3</v>
+      </c>
+      <c r="LD83" s="2" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="LE83" s="2" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="LF83" s="2" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="LG83" s="2" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="LH83" t="n">
+        <v>86.8</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -80173,8 +81418,23 @@
       <c r="LB84" s="2" t="n">
         <v>25.49</v>
       </c>
-      <c r="LC84" t="n">
+      <c r="LC84" s="2" t="n">
         <v>26.8</v>
+      </c>
+      <c r="LD84" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="LE84" s="2" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="LF84" s="2" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="LG84" s="2" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="LH84" t="n">
+        <v>26.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -81122,8 +82382,23 @@
       <c r="LB85" s="2" t="n">
         <v>87.8</v>
       </c>
-      <c r="LC85" t="n">
+      <c r="LC85" s="2" t="n">
         <v>92.09999999999999</v>
+      </c>
+      <c r="LD85" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="LE85" s="2" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="LF85" s="2" t="n">
+        <v>116.1</v>
+      </c>
+      <c r="LG85" s="2" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="LH85" t="n">
+        <v>117.5</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -82071,8 +83346,23 @@
       <c r="LB86" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="LC86" t="n">
+      <c r="LC86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LD86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LE86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LF86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LG86" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LH86" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -83020,8 +84310,23 @@
       <c r="LB87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LC87" t="n">
+      <c r="LC87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LD87" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LE87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LF87" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LG87" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LH87" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -83969,8 +85274,23 @@
       <c r="LB88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LC88" t="n">
+      <c r="LC88" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LD88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LE88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LF88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LG88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LH88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -84918,8 +86238,23 @@
       <c r="LB89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LC89" t="n">
+      <c r="LC89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="LD89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LE89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LF89" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LG89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LH89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -85867,8 +87202,23 @@
       <c r="LB90" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="LC90" t="n">
+      <c r="LC90" s="2" t="n">
         <v>136</v>
+      </c>
+      <c r="LD90" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="LE90" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="LF90" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="LG90" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="LH90" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -86816,8 +88166,23 @@
       <c r="LB91" s="2" t="n">
         <v>228</v>
       </c>
-      <c r="LC91" t="n">
+      <c r="LC91" s="2" t="n">
         <v>215</v>
+      </c>
+      <c r="LD91" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="LE91" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="LF91" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="LG91" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="LH91" t="n">
+        <v>246</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -87765,8 +89130,23 @@
       <c r="LB92" s="2" t="n">
         <v>263</v>
       </c>
-      <c r="LC92" t="n">
+      <c r="LC92" s="2" t="n">
         <v>254</v>
+      </c>
+      <c r="LD92" s="2" t="n">
+        <v>255</v>
+      </c>
+      <c r="LE92" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="LF92" s="2" t="n">
+        <v>270</v>
+      </c>
+      <c r="LG92" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="LH92" t="n">
+        <v>294</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -88714,8 +90094,23 @@
       <c r="LB93" s="2" t="n">
         <v>74.09999999999999</v>
       </c>
-      <c r="LC93" t="n">
+      <c r="LC93" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="LD93" s="2" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="LE93" s="2" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="LF93" s="2" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="LG93" s="2" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="LH93" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -89663,8 +91058,23 @@
       <c r="LB94" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="LC94" t="n">
+      <c r="LC94" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="LD94" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="LE94" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LF94" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="LG94" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="LH94" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -90612,8 +92022,23 @@
       <c r="LB95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="LC95" t="n">
+      <c r="LC95" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="LD95" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LE95" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LF95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LG95" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LH95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -91561,8 +92986,23 @@
       <c r="LB96" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LC96" t="n">
+      <c r="LC96" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LD96" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LE96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LF96" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LG96" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LH96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -92510,7 +93950,22 @@
       <c r="LB97" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="LC97" t="n">
+      <c r="LC97" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="LD97" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="LE97" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="LF97" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="LG97" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LH97" t="n">
         <v>27</v>
       </c>
     </row>
@@ -93459,8 +94914,23 @@
       <c r="LB98" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="LC98" t="n">
+      <c r="LC98" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="LD98" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="LE98" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="LF98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LG98" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LH98" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -94408,8 +95878,23 @@
       <c r="LB99" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="LC99" t="n">
+      <c r="LC99" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="LD99" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="LE99" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LF99" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="LG99" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="LH99" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -95357,7 +96842,22 @@
       <c r="LB100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="LC100" t="n">
+      <c r="LC100" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LD100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LE100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LF100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LG100" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LH100" t="n">
         <v>6</v>
       </c>
     </row>
@@ -96306,8 +97806,23 @@
       <c r="LB101" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LC101" t="n">
+      <c r="LC101" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LD101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LE101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LF101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LG101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LH101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -97255,8 +98770,23 @@
       <c r="LB102" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="LC102" t="n">
+      <c r="LC102" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="LD102" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="LE102" s="2" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="LF102" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="LG102" s="2" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="LH102" t="n">
+        <v>84.59999999999999</v>
       </c>
     </row>
   </sheetData>
